--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/招商蛇口-JH_00058.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/招商蛇口-JH_00058.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26520" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>日期</t>
   </si>
@@ -240,6 +240,9 @@
   <si>
     <t>是</t>
   </si>
+  <si>
+    <t>否</t>
+  </si>
 </sst>
 </file>
 
@@ -248,9 +251,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -293,7 +296,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,55 +333,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,15 +348,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +365,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,6 +388,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -406,7 +417,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -425,14 +436,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,7 +514,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,7 +562,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,49 +646,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,90 +677,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,6 +734,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -742,30 +754,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,16 +774,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,6 +803,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -830,124 +833,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -956,26 +959,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,9 +1007,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1108,8 +1108,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3922,11 +3922,11 @@
   <dimension ref="A1:AO421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="AO8" sqref="AO8:AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3985,51 +3985,51 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="23" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="26" t="s">
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="36" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36" t="s">
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="33" t="s">
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="40" t="s">
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="43" t="s">
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="42" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4044,37 +4044,37 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="22"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="21"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:41">
       <c r="A3" s="5"/>
@@ -4099,61 +4099,61 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17" t="s">
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="27" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="28" t="s">
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="33" t="s">
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="22"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="21"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:41">
       <c r="A4" s="5"/>
@@ -4164,61 +4164,61 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="14"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="24" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="29" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="32" t="s">
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AD4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="35" t="s">
+      <c r="AF4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="22"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="21"/>
     </row>
     <row r="5" ht="71" spans="1:41">
       <c r="A5" s="5"/>
@@ -4229,73 +4229,73 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="22" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="30" t="s">
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="30" t="s">
+      <c r="V5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="30" t="s">
+      <c r="W5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="32" t="s">
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36" t="s">
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="36" t="s">
+      <c r="AH5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AI5" s="36" t="s">
+      <c r="AI5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AJ5" s="36" t="s">
+      <c r="AJ5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AK5" s="41" t="s">
+      <c r="AK5" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AL5" s="41" t="s">
+      <c r="AL5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AM5" s="36" t="s">
+      <c r="AM5" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AN5" s="36" t="s">
+      <c r="AN5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AO5" s="22"/>
+      <c r="AO5" s="21"/>
     </row>
     <row r="6" ht="18" spans="1:41">
       <c r="A6" s="8">
@@ -4325,11 +4325,11 @@
       <c r="I6" s="9">
         <v>6.88</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="17">
         <v>-0.0063</v>
       </c>
       <c r="L6" s="9"/>
@@ -4338,7 +4338,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="25" t="str">
+      <c r="R6" s="24" t="str">
         <f>IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
@@ -4356,20 +4356,20 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-      <c r="AG6" s="37">
+      <c r="AG6" s="36">
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0173370319001387</v>
       </c>
-      <c r="AH6" s="37">
+      <c r="AH6" s="36">
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0214088397790056</v>
       </c>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="37"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="44" t="s">
+      <c r="AO6" s="42" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       <c r="A7" s="8">
         <v>44606</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="2">
         <v>13.84</v>
       </c>
       <c r="C7" s="9">
@@ -4401,11 +4401,11 @@
       <c r="I7" s="9">
         <v>6.84</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="19">
         <f>(B7-B6)/B6</f>
         <v>-0.0232886379675371</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="25" t="str">
+      <c r="R7" s="24" t="str">
         <f>IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
@@ -4433,20 +4433,20 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="39">
+      <c r="AG7" s="38">
         <f>($B7-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>-0.0402219140083218</v>
       </c>
-      <c r="AH7" s="39">
+      <c r="AH7" s="38">
         <f>($B7-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>-0.0441988950276243</v>
       </c>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="44" t="s">
+      <c r="AO7" s="42" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4454,23 +4454,48 @@
       <c r="A8" s="8">
         <v>44607</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="18"/>
+      <c r="B8" s="9">
+        <v>13.72</v>
+      </c>
+      <c r="C8" s="9">
+        <v>13.76</v>
+      </c>
+      <c r="D8" s="9">
+        <v>14.16</v>
+      </c>
+      <c r="E8" s="9">
+        <v>13.61</v>
+      </c>
+      <c r="F8" s="9">
+        <v>30.88</v>
+      </c>
+      <c r="G8" s="9">
+        <v>13.74</v>
+      </c>
+      <c r="H8" s="9">
+        <v>13.19</v>
+      </c>
+      <c r="I8" s="9">
+        <v>6.68</v>
+      </c>
+      <c r="J8" s="16">
+        <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K8" s="19">
+        <f>(B8-B7)/B7</f>
+        <v>-0.00867052023121382</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="R8" s="16" t="str">
+        <f>IF(B8&lt;G8,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
@@ -4485,36 +4510,69 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
-      <c r="AJ8" s="38"/>
-      <c r="AK8" s="38"/>
-      <c r="AL8" s="38"/>
+      <c r="AG8" s="38">
+        <f>($B8-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>-0.0485436893203883</v>
+      </c>
+      <c r="AH8" s="38">
+        <f>($B8-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
+        <v>-0.0524861878453039</v>
+      </c>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
+      <c r="AO8" s="43" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:41">
       <c r="A9" s="8">
         <v>44608</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="18"/>
+      <c r="B9" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>13.76</v>
+      </c>
+      <c r="D9" s="9">
+        <v>14.05</v>
+      </c>
+      <c r="E9" s="9">
+        <v>13.44</v>
+      </c>
+      <c r="F9" s="9">
+        <v>21.02</v>
+      </c>
+      <c r="G9" s="9">
+        <v>12.18</v>
+      </c>
+      <c r="H9" s="9">
+        <v>11.66</v>
+      </c>
+      <c r="I9" s="9">
+        <v>6.62</v>
+      </c>
+      <c r="J9" s="18">
+        <f>IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <f>(B9-B8)/B8</f>
+        <v>0.00583090379008747</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="24" t="str">
+        <f>IF(B9&lt;G9,"是","否")</f>
+        <v>否</v>
+      </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
@@ -4529,14 +4587,22 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
+      <c r="AG9" s="38">
+        <f>($B9-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <v>-0.0429958391123439</v>
+      </c>
+      <c r="AH9" s="38">
+        <f>($B9-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
+        <v>-0.0469613259668508</v>
+      </c>
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
+      <c r="AO9" s="43" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:41">
       <c r="A10" s="8">
@@ -4551,7 +4617,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="18"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -4573,12 +4639,12 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
     </row>
@@ -4595,7 +4661,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -4617,12 +4683,12 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
     </row>
@@ -4639,7 +4705,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="18"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4661,12 +4727,12 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
+      <c r="AG12" s="37"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="37"/>
+      <c r="AJ12" s="37"/>
+      <c r="AK12" s="37"/>
+      <c r="AL12" s="37"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
     </row>
@@ -4683,7 +4749,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -4705,12 +4771,12 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
     </row>
@@ -4727,7 +4793,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="18"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -4749,12 +4815,12 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="37"/>
+      <c r="AK14" s="37"/>
+      <c r="AL14" s="37"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
     </row>
@@ -4771,7 +4837,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -4793,12 +4859,12 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
     </row>
@@ -4815,7 +4881,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="18"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -4837,12 +4903,12 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
     </row>
@@ -4859,7 +4925,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="18"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -4881,12 +4947,12 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
     </row>
@@ -4903,7 +4969,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="18"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -4925,12 +4991,12 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
     </row>
@@ -4947,7 +5013,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="18"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -4969,12 +5035,12 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="37"/>
+      <c r="AI19" s="37"/>
+      <c r="AJ19" s="37"/>
+      <c r="AK19" s="37"/>
+      <c r="AL19" s="37"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
     </row>
@@ -4991,7 +5057,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="18"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -5013,12 +5079,12 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
     </row>
@@ -5035,7 +5101,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="18"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -5057,12 +5123,12 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="37"/>
+      <c r="AL21" s="37"/>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
     </row>
@@ -5079,7 +5145,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="18"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -5101,12 +5167,12 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="37"/>
+      <c r="AI22" s="37"/>
+      <c r="AJ22" s="37"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="37"/>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
     </row>
@@ -5123,7 +5189,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="18"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -5145,12 +5211,12 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
     </row>
@@ -5167,7 +5233,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="18"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -5189,12 +5255,12 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="38"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
     </row>
@@ -5211,7 +5277,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="18"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -5233,12 +5299,12 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="38"/>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="37"/>
+      <c r="AI25" s="37"/>
+      <c r="AJ25" s="37"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="37"/>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
     </row>
@@ -5255,7 +5321,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="18"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -5277,12 +5343,12 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="38"/>
-      <c r="AI26" s="38"/>
-      <c r="AJ26" s="38"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="38"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
     </row>
@@ -5299,7 +5365,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="18"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -5321,12 +5387,12 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
+      <c r="AG27" s="37"/>
+      <c r="AH27" s="37"/>
+      <c r="AI27" s="37"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="37"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
     </row>
@@ -5343,7 +5409,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="18"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -5365,12 +5431,12 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="38"/>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="38"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="37"/>
+      <c r="AI28" s="37"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="37"/>
+      <c r="AL28" s="37"/>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
     </row>
@@ -5387,7 +5453,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="18"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -5409,12 +5475,12 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="38"/>
-      <c r="AI29" s="38"/>
-      <c r="AJ29" s="38"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="38"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
     </row>
@@ -5431,7 +5497,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="18"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -5453,12 +5519,12 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="38"/>
-      <c r="AI30" s="38"/>
-      <c r="AJ30" s="38"/>
-      <c r="AK30" s="38"/>
-      <c r="AL30" s="38"/>
+      <c r="AG30" s="37"/>
+      <c r="AH30" s="37"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="37"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
     </row>
@@ -5475,7 +5541,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="18"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -5497,12 +5563,12 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="37"/>
+      <c r="AI31" s="37"/>
+      <c r="AJ31" s="37"/>
+      <c r="AK31" s="37"/>
+      <c r="AL31" s="37"/>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
     </row>
@@ -5519,7 +5585,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="18"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -5541,12 +5607,12 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
+      <c r="AJ32" s="37"/>
+      <c r="AK32" s="37"/>
+      <c r="AL32" s="37"/>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
     </row>
@@ -5563,7 +5629,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="18"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -5585,12 +5651,12 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="38"/>
-      <c r="AI33" s="38"/>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="38"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
     </row>
@@ -5607,7 +5673,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="18"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -5629,12 +5695,12 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="38"/>
-      <c r="AH34" s="38"/>
-      <c r="AI34" s="38"/>
-      <c r="AJ34" s="38"/>
-      <c r="AK34" s="38"/>
-      <c r="AL34" s="38"/>
+      <c r="AG34" s="37"/>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37"/>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37"/>
+      <c r="AL34" s="37"/>
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
     </row>
@@ -5651,7 +5717,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="18"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -5673,12 +5739,12 @@
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="38"/>
-      <c r="AK35" s="38"/>
-      <c r="AL35" s="38"/>
+      <c r="AG35" s="37"/>
+      <c r="AH35" s="37"/>
+      <c r="AI35" s="37"/>
+      <c r="AJ35" s="37"/>
+      <c r="AK35" s="37"/>
+      <c r="AL35" s="37"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
     </row>
@@ -5695,7 +5761,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="18"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -5717,12 +5783,12 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="37"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="37"/>
+      <c r="AL36" s="37"/>
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
     </row>
@@ -5739,7 +5805,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="18"/>
+      <c r="K37" s="17"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -5761,12 +5827,12 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="38"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="38"/>
-      <c r="AK37" s="38"/>
-      <c r="AL37" s="38"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="37"/>
+      <c r="AJ37" s="37"/>
+      <c r="AK37" s="37"/>
+      <c r="AL37" s="37"/>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
     </row>
@@ -5783,7 +5849,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="18"/>
+      <c r="K38" s="17"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -5805,12 +5871,12 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
-      <c r="AG38" s="38"/>
-      <c r="AH38" s="38"/>
-      <c r="AI38" s="38"/>
-      <c r="AJ38" s="38"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="38"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="37"/>
+      <c r="AJ38" s="37"/>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37"/>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
     </row>
@@ -5827,7 +5893,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="18"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -5849,12 +5915,12 @@
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="38"/>
-      <c r="AH39" s="38"/>
-      <c r="AI39" s="38"/>
-      <c r="AJ39" s="38"/>
-      <c r="AK39" s="38"/>
-      <c r="AL39" s="38"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="37"/>
+      <c r="AJ39" s="37"/>
+      <c r="AK39" s="37"/>
+      <c r="AL39" s="37"/>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
     </row>
@@ -5871,7 +5937,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="18"/>
+      <c r="K40" s="17"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -5893,12 +5959,12 @@
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="38"/>
-      <c r="AH40" s="38"/>
-      <c r="AI40" s="38"/>
-      <c r="AJ40" s="38"/>
-      <c r="AK40" s="38"/>
-      <c r="AL40" s="38"/>
+      <c r="AG40" s="37"/>
+      <c r="AH40" s="37"/>
+      <c r="AI40" s="37"/>
+      <c r="AJ40" s="37"/>
+      <c r="AK40" s="37"/>
+      <c r="AL40" s="37"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
     </row>
@@ -5915,7 +5981,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="18"/>
+      <c r="K41" s="17"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -5937,12 +6003,12 @@
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="38"/>
-      <c r="AH41" s="38"/>
-      <c r="AI41" s="38"/>
-      <c r="AJ41" s="38"/>
-      <c r="AK41" s="38"/>
-      <c r="AL41" s="38"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="37"/>
+      <c r="AL41" s="37"/>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
     </row>
@@ -5959,7 +6025,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="18"/>
+      <c r="K42" s="17"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -5981,12 +6047,12 @@
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="38"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38"/>
-      <c r="AJ42" s="38"/>
-      <c r="AK42" s="38"/>
-      <c r="AL42" s="38"/>
+      <c r="AG42" s="37"/>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37"/>
+      <c r="AL42" s="37"/>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
     </row>
@@ -6003,7 +6069,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="18"/>
+      <c r="K43" s="17"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -6025,12 +6091,12 @@
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
-      <c r="AG43" s="38"/>
-      <c r="AH43" s="38"/>
-      <c r="AI43" s="38"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="38"/>
-      <c r="AL43" s="38"/>
+      <c r="AG43" s="37"/>
+      <c r="AH43" s="37"/>
+      <c r="AI43" s="37"/>
+      <c r="AJ43" s="37"/>
+      <c r="AK43" s="37"/>
+      <c r="AL43" s="37"/>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
     </row>
@@ -6047,7 +6113,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="18"/>
+      <c r="K44" s="17"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -6069,12 +6135,12 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
     </row>
@@ -6091,7 +6157,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="18"/>
+      <c r="K45" s="17"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -6113,12 +6179,12 @@
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
-      <c r="AG45" s="38"/>
-      <c r="AH45" s="38"/>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="38"/>
-      <c r="AK45" s="38"/>
-      <c r="AL45" s="38"/>
+      <c r="AG45" s="37"/>
+      <c r="AH45" s="37"/>
+      <c r="AI45" s="37"/>
+      <c r="AJ45" s="37"/>
+      <c r="AK45" s="37"/>
+      <c r="AL45" s="37"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
     </row>
@@ -6135,7 +6201,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="18"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -6157,12 +6223,12 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
-      <c r="AG46" s="38"/>
-      <c r="AH46" s="38"/>
-      <c r="AI46" s="38"/>
-      <c r="AJ46" s="38"/>
-      <c r="AK46" s="38"/>
-      <c r="AL46" s="38"/>
+      <c r="AG46" s="37"/>
+      <c r="AH46" s="37"/>
+      <c r="AI46" s="37"/>
+      <c r="AJ46" s="37"/>
+      <c r="AK46" s="37"/>
+      <c r="AL46" s="37"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
     </row>
@@ -6179,7 +6245,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="18"/>
+      <c r="K47" s="17"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -6201,12 +6267,12 @@
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
-      <c r="AG47" s="38"/>
-      <c r="AH47" s="38"/>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
-      <c r="AK47" s="38"/>
-      <c r="AL47" s="38"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
+      <c r="AK47" s="37"/>
+      <c r="AL47" s="37"/>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
     </row>
@@ -6223,7 +6289,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="18"/>
+      <c r="K48" s="17"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -6245,12 +6311,12 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="38"/>
-      <c r="AH48" s="38"/>
-      <c r="AI48" s="38"/>
-      <c r="AJ48" s="38"/>
-      <c r="AK48" s="38"/>
-      <c r="AL48" s="38"/>
+      <c r="AG48" s="37"/>
+      <c r="AH48" s="37"/>
+      <c r="AI48" s="37"/>
+      <c r="AJ48" s="37"/>
+      <c r="AK48" s="37"/>
+      <c r="AL48" s="37"/>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
     </row>
@@ -6267,7 +6333,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="18"/>
+      <c r="K49" s="17"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -6289,12 +6355,12 @@
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
-      <c r="AG49" s="38"/>
-      <c r="AH49" s="38"/>
-      <c r="AI49" s="38"/>
-      <c r="AJ49" s="38"/>
-      <c r="AK49" s="38"/>
-      <c r="AL49" s="38"/>
+      <c r="AG49" s="37"/>
+      <c r="AH49" s="37"/>
+      <c r="AI49" s="37"/>
+      <c r="AJ49" s="37"/>
+      <c r="AK49" s="37"/>
+      <c r="AL49" s="37"/>
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
     </row>
@@ -6311,7 +6377,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="18"/>
+      <c r="K50" s="17"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -6333,17 +6399,17 @@
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
-      <c r="AG50" s="38"/>
-      <c r="AH50" s="38"/>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="38"/>
-      <c r="AK50" s="38"/>
-      <c r="AL50" s="38"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+      <c r="AJ50" s="37"/>
+      <c r="AK50" s="37"/>
+      <c r="AL50" s="37"/>
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="11"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -6352,7 +6418,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="21"/>
+      <c r="K51" s="20"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6363,10 +6429,10 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="Y51" s="2"/>
-      <c r="AM51" s="42"/>
+      <c r="AM51" s="41"/>
     </row>
     <row r="52" spans="1:25">
-      <c r="A52" s="11"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -6375,7 +6441,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="21"/>
+      <c r="K52" s="20"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6388,7 +6454,7 @@
       <c r="Y52" s="2"/>
     </row>
     <row r="53" spans="1:25">
-      <c r="A53" s="11"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -6397,7 +6463,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="21"/>
+      <c r="K53" s="20"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6410,7 +6476,7 @@
       <c r="Y53" s="2"/>
     </row>
     <row r="54" spans="1:25">
-      <c r="A54" s="11"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -6419,7 +6485,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="21"/>
+      <c r="K54" s="20"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6432,7 +6498,7 @@
       <c r="Y54" s="2"/>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -6441,7 +6507,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="20"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6454,7 +6520,7 @@
       <c r="Y55" s="2"/>
     </row>
     <row r="56" spans="1:25">
-      <c r="A56" s="11"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -6463,7 +6529,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="21"/>
+      <c r="K56" s="20"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6476,7 +6542,7 @@
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:25">
-      <c r="A57" s="11"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -6485,7 +6551,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="21"/>
+      <c r="K57" s="20"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6498,7 +6564,7 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:25">
-      <c r="A58" s="11"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6507,7 +6573,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="21"/>
+      <c r="K58" s="20"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6520,7 +6586,7 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:25">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -6529,7 +6595,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="21"/>
+      <c r="K59" s="20"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6542,7 +6608,7 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:25">
-      <c r="A60" s="11"/>
+      <c r="A60" s="10"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6551,7 +6617,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="21"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6564,7 +6630,7 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:25">
-      <c r="A61" s="11"/>
+      <c r="A61" s="10"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -6573,7 +6639,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="21"/>
+      <c r="K61" s="20"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -6586,7 +6652,7 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:25">
-      <c r="A62" s="11"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -6595,7 +6661,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="21"/>
+      <c r="K62" s="20"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -6608,7 +6674,7 @@
       <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:25">
-      <c r="A63" s="11"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -6617,7 +6683,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="21"/>
+      <c r="K63" s="20"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -6630,7 +6696,7 @@
       <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:25">
-      <c r="A64" s="11"/>
+      <c r="A64" s="10"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -6639,7 +6705,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="21"/>
+      <c r="K64" s="20"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -6652,7 +6718,7 @@
       <c r="Y64" s="2"/>
     </row>
     <row r="65" spans="1:25">
-      <c r="A65" s="11"/>
+      <c r="A65" s="10"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -6661,7 +6727,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="21"/>
+      <c r="K65" s="20"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -6674,7 +6740,7 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25">
-      <c r="A66" s="11"/>
+      <c r="A66" s="10"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -6683,7 +6749,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="21"/>
+      <c r="K66" s="20"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -6696,7 +6762,7 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25">
-      <c r="A67" s="11"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6705,7 +6771,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="21"/>
+      <c r="K67" s="20"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -6718,7 +6784,7 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25">
-      <c r="A68" s="11"/>
+      <c r="A68" s="10"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6727,7 +6793,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="21"/>
+      <c r="K68" s="20"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -6740,7 +6806,7 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25">
-      <c r="A69" s="11"/>
+      <c r="A69" s="10"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6749,7 +6815,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="21"/>
+      <c r="K69" s="20"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -6762,7 +6828,7 @@
       <c r="Y69" s="2"/>
     </row>
     <row r="70" spans="1:25">
-      <c r="A70" s="11"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6771,7 +6837,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="21"/>
+      <c r="K70" s="20"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -6784,7 +6850,7 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25">
-      <c r="A71" s="11"/>
+      <c r="A71" s="10"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -6793,7 +6859,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="21"/>
+      <c r="K71" s="20"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -6806,7 +6872,7 @@
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25">
-      <c r="A72" s="11"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -6815,7 +6881,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="21"/>
+      <c r="K72" s="20"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -6828,7 +6894,7 @@
       <c r="Y72" s="2"/>
     </row>
     <row r="73" spans="1:25">
-      <c r="A73" s="11"/>
+      <c r="A73" s="10"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -6837,7 +6903,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="21"/>
+      <c r="K73" s="20"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -6850,7 +6916,7 @@
       <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25">
-      <c r="A74" s="11"/>
+      <c r="A74" s="10"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -6859,7 +6925,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="21"/>
+      <c r="K74" s="20"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -6872,7 +6938,7 @@
       <c r="Y74" s="2"/>
     </row>
     <row r="75" spans="1:25">
-      <c r="A75" s="11"/>
+      <c r="A75" s="10"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -6881,7 +6947,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="20"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -6894,7 +6960,7 @@
       <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25">
-      <c r="A76" s="11"/>
+      <c r="A76" s="10"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -6903,7 +6969,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="20"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -6916,7 +6982,7 @@
       <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="1:25">
-      <c r="A77" s="11"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -6925,7 +6991,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="21"/>
+      <c r="K77" s="20"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -6938,7 +7004,7 @@
       <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:25">
-      <c r="A78" s="11"/>
+      <c r="A78" s="10"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -6947,7 +7013,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="21"/>
+      <c r="K78" s="20"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -6960,7 +7026,7 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25">
-      <c r="A79" s="11"/>
+      <c r="A79" s="10"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -6969,7 +7035,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="21"/>
+      <c r="K79" s="20"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -6982,7 +7048,7 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25">
-      <c r="A80" s="11"/>
+      <c r="A80" s="10"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -6991,7 +7057,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="20"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -7004,7 +7070,7 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -7013,7 +7079,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="21"/>
+      <c r="K81" s="20"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -7026,7 +7092,7 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25">
-      <c r="A82" s="11"/>
+      <c r="A82" s="10"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -7035,7 +7101,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="20"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -7048,7 +7114,7 @@
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25">
-      <c r="A83" s="11"/>
+      <c r="A83" s="10"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -7057,7 +7123,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="20"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -7070,7 +7136,7 @@
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25">
-      <c r="A84" s="11"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7079,7 +7145,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="21"/>
+      <c r="K84" s="20"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -7092,7 +7158,7 @@
       <c r="Y84" s="2"/>
     </row>
     <row r="85" spans="1:25">
-      <c r="A85" s="11"/>
+      <c r="A85" s="10"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -7101,7 +7167,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="20"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -7114,7 +7180,7 @@
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25">
-      <c r="A86" s="11"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -7123,7 +7189,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="20"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -7136,7 +7202,7 @@
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="11"/>
+      <c r="A87" s="10"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -7145,7 +7211,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="21"/>
+      <c r="K87" s="20"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -7158,7 +7224,7 @@
       <c r="Y87" s="2"/>
     </row>
     <row r="88" spans="1:25">
-      <c r="A88" s="11"/>
+      <c r="A88" s="10"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -7167,7 +7233,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="21"/>
+      <c r="K88" s="20"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -7180,7 +7246,7 @@
       <c r="Y88" s="2"/>
     </row>
     <row r="89" spans="1:25">
-      <c r="A89" s="11"/>
+      <c r="A89" s="10"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -7189,7 +7255,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="20"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -7202,7 +7268,7 @@
       <c r="Y89" s="2"/>
     </row>
     <row r="90" spans="1:25">
-      <c r="A90" s="11"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -7211,7 +7277,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="20"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -7224,7 +7290,7 @@
       <c r="Y90" s="2"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="A91" s="11"/>
+      <c r="A91" s="10"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -7233,7 +7299,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="21"/>
+      <c r="K91" s="20"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -7246,7 +7312,7 @@
       <c r="Y91" s="2"/>
     </row>
     <row r="92" spans="1:25">
-      <c r="A92" s="11"/>
+      <c r="A92" s="10"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -7255,7 +7321,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="21"/>
+      <c r="K92" s="20"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -7268,7 +7334,7 @@
       <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:25">
-      <c r="A93" s="11"/>
+      <c r="A93" s="10"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -7277,7 +7343,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="20"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -7290,7 +7356,7 @@
       <c r="Y93" s="2"/>
     </row>
     <row r="94" spans="1:25">
-      <c r="A94" s="11"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -7299,7 +7365,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="21"/>
+      <c r="K94" s="20"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -7312,7 +7378,7 @@
       <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" s="11"/>
+      <c r="A95" s="10"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -7321,7 +7387,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="21"/>
+      <c r="K95" s="20"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -7334,7 +7400,7 @@
       <c r="Y95" s="2"/>
     </row>
     <row r="96" spans="1:25">
-      <c r="A96" s="11"/>
+      <c r="A96" s="10"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -7343,7 +7409,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="21"/>
+      <c r="K96" s="20"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -7356,7 +7422,7 @@
       <c r="Y96" s="2"/>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" s="11"/>
+      <c r="A97" s="10"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -7365,7 +7431,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="21"/>
+      <c r="K97" s="20"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -7378,7 +7444,7 @@
       <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="11"/>
+      <c r="A98" s="10"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -7387,7 +7453,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="21"/>
+      <c r="K98" s="20"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -7400,7 +7466,7 @@
       <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:25">
-      <c r="A99" s="11"/>
+      <c r="A99" s="10"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -7409,7 +7475,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="21"/>
+      <c r="K99" s="20"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -7422,7 +7488,7 @@
       <c r="Y99" s="2"/>
     </row>
     <row r="100" spans="1:25">
-      <c r="A100" s="11"/>
+      <c r="A100" s="10"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -7431,7 +7497,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="21"/>
+      <c r="K100" s="20"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -7444,7 +7510,7 @@
       <c r="Y100" s="2"/>
     </row>
     <row r="101" spans="1:25">
-      <c r="A101" s="11"/>
+      <c r="A101" s="10"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -7453,7 +7519,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="21"/>
+      <c r="K101" s="20"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -7466,7 +7532,7 @@
       <c r="Y101" s="2"/>
     </row>
     <row r="102" spans="1:25">
-      <c r="A102" s="11"/>
+      <c r="A102" s="10"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -7475,7 +7541,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="21"/>
+      <c r="K102" s="20"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -7488,7 +7554,7 @@
       <c r="Y102" s="2"/>
     </row>
     <row r="103" spans="1:25">
-      <c r="A103" s="11"/>
+      <c r="A103" s="10"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -7497,7 +7563,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="21"/>
+      <c r="K103" s="20"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -7510,7 +7576,7 @@
       <c r="Y103" s="2"/>
     </row>
     <row r="104" spans="1:25">
-      <c r="A104" s="11"/>
+      <c r="A104" s="10"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -7519,7 +7585,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="21"/>
+      <c r="K104" s="20"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -7532,7 +7598,7 @@
       <c r="Y104" s="2"/>
     </row>
     <row r="105" spans="1:25">
-      <c r="A105" s="11"/>
+      <c r="A105" s="10"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -7541,7 +7607,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="21"/>
+      <c r="K105" s="20"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -7554,7 +7620,7 @@
       <c r="Y105" s="2"/>
     </row>
     <row r="106" spans="1:25">
-      <c r="A106" s="11"/>
+      <c r="A106" s="10"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -7563,7 +7629,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="21"/>
+      <c r="K106" s="20"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -7576,7 +7642,7 @@
       <c r="Y106" s="2"/>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107" s="11"/>
+      <c r="A107" s="10"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -7585,7 +7651,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="21"/>
+      <c r="K107" s="20"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -7598,7 +7664,7 @@
       <c r="Y107" s="2"/>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108" s="11"/>
+      <c r="A108" s="10"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -7607,7 +7673,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="21"/>
+      <c r="K108" s="20"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -7620,7 +7686,7 @@
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109" s="11"/>
+      <c r="A109" s="10"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -7629,7 +7695,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="21"/>
+      <c r="K109" s="20"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -7642,7 +7708,7 @@
       <c r="Y109" s="2"/>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110" s="11"/>
+      <c r="A110" s="10"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -7651,7 +7717,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="21"/>
+      <c r="K110" s="20"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -7664,7 +7730,7 @@
       <c r="Y110" s="2"/>
     </row>
     <row r="111" spans="1:25">
-      <c r="A111" s="11"/>
+      <c r="A111" s="10"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -7673,7 +7739,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="21"/>
+      <c r="K111" s="20"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -7686,7 +7752,7 @@
       <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112" s="11"/>
+      <c r="A112" s="10"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -7695,7 +7761,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="21"/>
+      <c r="K112" s="20"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -7708,7 +7774,7 @@
       <c r="Y112" s="2"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="11"/>
+      <c r="A113" s="10"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -7717,7 +7783,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="21"/>
+      <c r="K113" s="20"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -7730,7 +7796,7 @@
       <c r="Y113" s="2"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114" s="11"/>
+      <c r="A114" s="10"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -7739,7 +7805,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="21"/>
+      <c r="K114" s="20"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -7752,7 +7818,7 @@
       <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="11"/>
+      <c r="A115" s="10"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -7761,7 +7827,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="21"/>
+      <c r="K115" s="20"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -7774,7 +7840,7 @@
       <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116" s="11"/>
+      <c r="A116" s="10"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -7783,7 +7849,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="21"/>
+      <c r="K116" s="20"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -7796,7 +7862,7 @@
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="11"/>
+      <c r="A117" s="10"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -7805,7 +7871,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="21"/>
+      <c r="K117" s="20"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -7818,7 +7884,7 @@
       <c r="Y117" s="2"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="11"/>
+      <c r="A118" s="10"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -7827,7 +7893,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="21"/>
+      <c r="K118" s="20"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -7840,7 +7906,7 @@
       <c r="Y118" s="2"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="11"/>
+      <c r="A119" s="10"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -7849,7 +7915,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="21"/>
+      <c r="K119" s="20"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -7862,7 +7928,7 @@
       <c r="Y119" s="2"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120" s="11"/>
+      <c r="A120" s="10"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -7871,7 +7937,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="21"/>
+      <c r="K120" s="20"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -7884,7 +7950,7 @@
       <c r="Y120" s="2"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121" s="11"/>
+      <c r="A121" s="10"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -7893,7 +7959,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="21"/>
+      <c r="K121" s="20"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -7906,7 +7972,7 @@
       <c r="Y121" s="2"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122" s="11"/>
+      <c r="A122" s="10"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -7915,7 +7981,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="21"/>
+      <c r="K122" s="20"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -7928,7 +7994,7 @@
       <c r="Y122" s="2"/>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123" s="11"/>
+      <c r="A123" s="10"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -7937,7 +8003,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="21"/>
+      <c r="K123" s="20"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -7950,7 +8016,7 @@
       <c r="Y123" s="2"/>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124" s="11"/>
+      <c r="A124" s="10"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -7959,7 +8025,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="21"/>
+      <c r="K124" s="20"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -7972,7 +8038,7 @@
       <c r="Y124" s="2"/>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125" s="11"/>
+      <c r="A125" s="10"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -7981,7 +8047,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="21"/>
+      <c r="K125" s="20"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -7994,7 +8060,7 @@
       <c r="Y125" s="2"/>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126" s="11"/>
+      <c r="A126" s="10"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -8003,7 +8069,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="21"/>
+      <c r="K126" s="20"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -8016,7 +8082,7 @@
       <c r="Y126" s="2"/>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127" s="11"/>
+      <c r="A127" s="10"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -8025,7 +8091,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="21"/>
+      <c r="K127" s="20"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -8038,7 +8104,7 @@
       <c r="Y127" s="2"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="11"/>
+      <c r="A128" s="10"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -8047,7 +8113,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="21"/>
+      <c r="K128" s="20"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -8060,7 +8126,7 @@
       <c r="Y128" s="2"/>
     </row>
     <row r="129" spans="1:25">
-      <c r="A129" s="11"/>
+      <c r="A129" s="10"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -8069,7 +8135,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="21"/>
+      <c r="K129" s="20"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -8082,7 +8148,7 @@
       <c r="Y129" s="2"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="11"/>
+      <c r="A130" s="10"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -8091,7 +8157,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="21"/>
+      <c r="K130" s="20"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -8104,7 +8170,7 @@
       <c r="Y130" s="2"/>
     </row>
     <row r="131" spans="1:25">
-      <c r="A131" s="11"/>
+      <c r="A131" s="10"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -8113,7 +8179,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="21"/>
+      <c r="K131" s="20"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -8126,7 +8192,7 @@
       <c r="Y131" s="2"/>
     </row>
     <row r="132" spans="1:25">
-      <c r="A132" s="11"/>
+      <c r="A132" s="10"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -8135,7 +8201,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="21"/>
+      <c r="K132" s="20"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -8148,7 +8214,7 @@
       <c r="Y132" s="2"/>
     </row>
     <row r="133" spans="1:25">
-      <c r="A133" s="11"/>
+      <c r="A133" s="10"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -8157,7 +8223,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="21"/>
+      <c r="K133" s="20"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -8170,7 +8236,7 @@
       <c r="Y133" s="2"/>
     </row>
     <row r="134" spans="1:25">
-      <c r="A134" s="11"/>
+      <c r="A134" s="10"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -8179,7 +8245,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="J134" s="2"/>
-      <c r="K134" s="21"/>
+      <c r="K134" s="20"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -8192,7 +8258,7 @@
       <c r="Y134" s="2"/>
     </row>
     <row r="135" spans="1:25">
-      <c r="A135" s="11"/>
+      <c r="A135" s="10"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -8201,7 +8267,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="21"/>
+      <c r="K135" s="20"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -8214,7 +8280,7 @@
       <c r="Y135" s="2"/>
     </row>
     <row r="136" spans="1:25">
-      <c r="A136" s="11"/>
+      <c r="A136" s="10"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -8223,7 +8289,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="21"/>
+      <c r="K136" s="20"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -8236,7 +8302,7 @@
       <c r="Y136" s="2"/>
     </row>
     <row r="137" spans="1:25">
-      <c r="A137" s="11"/>
+      <c r="A137" s="10"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -8245,7 +8311,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="21"/>
+      <c r="K137" s="20"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -8258,7 +8324,7 @@
       <c r="Y137" s="2"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="A138" s="11"/>
+      <c r="A138" s="10"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -8267,7 +8333,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="J138" s="2"/>
-      <c r="K138" s="21"/>
+      <c r="K138" s="20"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -8280,7 +8346,7 @@
       <c r="Y138" s="2"/>
     </row>
     <row r="139" spans="1:25">
-      <c r="A139" s="11"/>
+      <c r="A139" s="10"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -8289,7 +8355,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="21"/>
+      <c r="K139" s="20"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -8302,7 +8368,7 @@
       <c r="Y139" s="2"/>
     </row>
     <row r="140" spans="1:25">
-      <c r="A140" s="11"/>
+      <c r="A140" s="10"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -8311,7 +8377,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="21"/>
+      <c r="K140" s="20"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -8324,7 +8390,7 @@
       <c r="Y140" s="2"/>
     </row>
     <row r="141" spans="1:25">
-      <c r="A141" s="11"/>
+      <c r="A141" s="10"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -8333,7 +8399,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="21"/>
+      <c r="K141" s="20"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -8346,7 +8412,7 @@
       <c r="Y141" s="2"/>
     </row>
     <row r="142" spans="1:25">
-      <c r="A142" s="11"/>
+      <c r="A142" s="10"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -8355,7 +8421,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="21"/>
+      <c r="K142" s="20"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -8368,7 +8434,7 @@
       <c r="Y142" s="2"/>
     </row>
     <row r="143" spans="1:25">
-      <c r="A143" s="11"/>
+      <c r="A143" s="10"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -8377,7 +8443,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="21"/>
+      <c r="K143" s="20"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -8390,7 +8456,7 @@
       <c r="Y143" s="2"/>
     </row>
     <row r="144" spans="1:25">
-      <c r="A144" s="11"/>
+      <c r="A144" s="10"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -8399,7 +8465,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="21"/>
+      <c r="K144" s="20"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -8412,7 +8478,7 @@
       <c r="Y144" s="2"/>
     </row>
     <row r="145" spans="1:25">
-      <c r="A145" s="11"/>
+      <c r="A145" s="10"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -8421,7 +8487,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="21"/>
+      <c r="K145" s="20"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -8434,7 +8500,7 @@
       <c r="Y145" s="2"/>
     </row>
     <row r="146" spans="1:25">
-      <c r="A146" s="11"/>
+      <c r="A146" s="10"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -8443,7 +8509,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="21"/>
+      <c r="K146" s="20"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -8456,7 +8522,7 @@
       <c r="Y146" s="2"/>
     </row>
     <row r="147" spans="1:25">
-      <c r="A147" s="11"/>
+      <c r="A147" s="10"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -8465,7 +8531,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="21"/>
+      <c r="K147" s="20"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -8478,7 +8544,7 @@
       <c r="Y147" s="2"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="A148" s="11"/>
+      <c r="A148" s="10"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8487,7 +8553,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="21"/>
+      <c r="K148" s="20"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -8500,7 +8566,7 @@
       <c r="Y148" s="2"/>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="11"/>
+      <c r="A149" s="10"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -8509,7 +8575,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="21"/>
+      <c r="K149" s="20"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -8522,7 +8588,7 @@
       <c r="Y149" s="2"/>
     </row>
     <row r="150" spans="1:25">
-      <c r="A150" s="11"/>
+      <c r="A150" s="10"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -8531,7 +8597,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="21"/>
+      <c r="K150" s="20"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -8544,7 +8610,7 @@
       <c r="Y150" s="2"/>
     </row>
     <row r="151" spans="1:25">
-      <c r="A151" s="11"/>
+      <c r="A151" s="10"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -8553,7 +8619,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="21"/>
+      <c r="K151" s="20"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -8566,7 +8632,7 @@
       <c r="Y151" s="2"/>
     </row>
     <row r="152" spans="1:25">
-      <c r="A152" s="11"/>
+      <c r="A152" s="10"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -8575,7 +8641,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="21"/>
+      <c r="K152" s="20"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -8588,7 +8654,7 @@
       <c r="Y152" s="2"/>
     </row>
     <row r="153" spans="1:25">
-      <c r="A153" s="11"/>
+      <c r="A153" s="10"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -8597,7 +8663,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="21"/>
+      <c r="K153" s="20"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -8610,7 +8676,7 @@
       <c r="Y153" s="2"/>
     </row>
     <row r="154" spans="1:25">
-      <c r="A154" s="11"/>
+      <c r="A154" s="10"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -8619,7 +8685,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="21"/>
+      <c r="K154" s="20"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -8632,7 +8698,7 @@
       <c r="Y154" s="2"/>
     </row>
     <row r="155" spans="1:25">
-      <c r="A155" s="11"/>
+      <c r="A155" s="10"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -8641,7 +8707,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="21"/>
+      <c r="K155" s="20"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -8654,7 +8720,7 @@
       <c r="Y155" s="2"/>
     </row>
     <row r="156" spans="1:25">
-      <c r="A156" s="11"/>
+      <c r="A156" s="10"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -8663,7 +8729,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="21"/>
+      <c r="K156" s="20"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -8676,7 +8742,7 @@
       <c r="Y156" s="2"/>
     </row>
     <row r="157" spans="1:25">
-      <c r="A157" s="11"/>
+      <c r="A157" s="10"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -8685,7 +8751,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="21"/>
+      <c r="K157" s="20"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -8698,7 +8764,7 @@
       <c r="Y157" s="2"/>
     </row>
     <row r="158" spans="1:25">
-      <c r="A158" s="11"/>
+      <c r="A158" s="10"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -8707,7 +8773,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="21"/>
+      <c r="K158" s="20"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -8720,7 +8786,7 @@
       <c r="Y158" s="2"/>
     </row>
     <row r="159" spans="1:25">
-      <c r="A159" s="11"/>
+      <c r="A159" s="10"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -8729,7 +8795,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="21"/>
+      <c r="K159" s="20"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -8742,7 +8808,7 @@
       <c r="Y159" s="2"/>
     </row>
     <row r="160" spans="1:25">
-      <c r="A160" s="11"/>
+      <c r="A160" s="10"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -8751,7 +8817,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="J160" s="2"/>
-      <c r="K160" s="21"/>
+      <c r="K160" s="20"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -8764,7 +8830,7 @@
       <c r="Y160" s="2"/>
     </row>
     <row r="161" spans="1:25">
-      <c r="A161" s="11"/>
+      <c r="A161" s="10"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -8773,7 +8839,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="J161" s="2"/>
-      <c r="K161" s="21"/>
+      <c r="K161" s="20"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -8786,7 +8852,7 @@
       <c r="Y161" s="2"/>
     </row>
     <row r="162" spans="1:25">
-      <c r="A162" s="11"/>
+      <c r="A162" s="10"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -8795,7 +8861,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="J162" s="2"/>
-      <c r="K162" s="21"/>
+      <c r="K162" s="20"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -8808,7 +8874,7 @@
       <c r="Y162" s="2"/>
     </row>
     <row r="163" spans="1:25">
-      <c r="A163" s="11"/>
+      <c r="A163" s="10"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -8817,7 +8883,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="21"/>
+      <c r="K163" s="20"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -8830,7 +8896,7 @@
       <c r="Y163" s="2"/>
     </row>
     <row r="164" spans="1:25">
-      <c r="A164" s="11"/>
+      <c r="A164" s="10"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -8839,7 +8905,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="J164" s="2"/>
-      <c r="K164" s="21"/>
+      <c r="K164" s="20"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -8852,7 +8918,7 @@
       <c r="Y164" s="2"/>
     </row>
     <row r="165" spans="1:25">
-      <c r="A165" s="11"/>
+      <c r="A165" s="10"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -8861,7 +8927,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="J165" s="2"/>
-      <c r="K165" s="21"/>
+      <c r="K165" s="20"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -8874,7 +8940,7 @@
       <c r="Y165" s="2"/>
     </row>
     <row r="166" spans="1:25">
-      <c r="A166" s="11"/>
+      <c r="A166" s="10"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -8883,7 +8949,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="J166" s="2"/>
-      <c r="K166" s="21"/>
+      <c r="K166" s="20"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -8896,7 +8962,7 @@
       <c r="Y166" s="2"/>
     </row>
     <row r="167" spans="1:25">
-      <c r="A167" s="11"/>
+      <c r="A167" s="10"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -8905,7 +8971,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="K167" s="21"/>
+      <c r="K167" s="20"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -8918,7 +8984,7 @@
       <c r="Y167" s="2"/>
     </row>
     <row r="168" spans="1:25">
-      <c r="A168" s="11"/>
+      <c r="A168" s="10"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -8927,7 +8993,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="J168" s="2"/>
-      <c r="K168" s="21"/>
+      <c r="K168" s="20"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -8940,7 +9006,7 @@
       <c r="Y168" s="2"/>
     </row>
     <row r="169" spans="1:25">
-      <c r="A169" s="11"/>
+      <c r="A169" s="10"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -8949,7 +9015,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="J169" s="2"/>
-      <c r="K169" s="21"/>
+      <c r="K169" s="20"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -8962,7 +9028,7 @@
       <c r="Y169" s="2"/>
     </row>
     <row r="170" spans="1:25">
-      <c r="A170" s="11"/>
+      <c r="A170" s="10"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -8971,7 +9037,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="21"/>
+      <c r="K170" s="20"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -8984,7 +9050,7 @@
       <c r="Y170" s="2"/>
     </row>
     <row r="171" spans="1:25">
-      <c r="A171" s="11"/>
+      <c r="A171" s="10"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -8993,7 +9059,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="21"/>
+      <c r="K171" s="20"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -9006,7 +9072,7 @@
       <c r="Y171" s="2"/>
     </row>
     <row r="172" spans="1:25">
-      <c r="A172" s="11"/>
+      <c r="A172" s="10"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -9015,7 +9081,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="21"/>
+      <c r="K172" s="20"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -9028,7 +9094,7 @@
       <c r="Y172" s="2"/>
     </row>
     <row r="173" spans="1:25">
-      <c r="A173" s="11"/>
+      <c r="A173" s="10"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -9037,7 +9103,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="21"/>
+      <c r="K173" s="20"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -9050,7 +9116,7 @@
       <c r="Y173" s="2"/>
     </row>
     <row r="174" spans="1:25">
-      <c r="A174" s="11"/>
+      <c r="A174" s="10"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -9059,7 +9125,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="21"/>
+      <c r="K174" s="20"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -9072,7 +9138,7 @@
       <c r="Y174" s="2"/>
     </row>
     <row r="175" spans="1:25">
-      <c r="A175" s="11"/>
+      <c r="A175" s="10"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -9081,7 +9147,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="21"/>
+      <c r="K175" s="20"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -9094,7 +9160,7 @@
       <c r="Y175" s="2"/>
     </row>
     <row r="176" spans="1:25">
-      <c r="A176" s="11"/>
+      <c r="A176" s="10"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9103,7 +9169,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="J176" s="2"/>
-      <c r="K176" s="21"/>
+      <c r="K176" s="20"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -9116,7 +9182,7 @@
       <c r="Y176" s="2"/>
     </row>
     <row r="177" spans="1:25">
-      <c r="A177" s="11"/>
+      <c r="A177" s="10"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -9125,7 +9191,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="21"/>
+      <c r="K177" s="20"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -9138,7 +9204,7 @@
       <c r="Y177" s="2"/>
     </row>
     <row r="178" spans="1:25">
-      <c r="A178" s="11"/>
+      <c r="A178" s="10"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -9147,7 +9213,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="21"/>
+      <c r="K178" s="20"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -9160,7 +9226,7 @@
       <c r="Y178" s="2"/>
     </row>
     <row r="179" spans="1:25">
-      <c r="A179" s="11"/>
+      <c r="A179" s="10"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -9169,7 +9235,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="21"/>
+      <c r="K179" s="20"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -9182,7 +9248,7 @@
       <c r="Y179" s="2"/>
     </row>
     <row r="180" spans="1:25">
-      <c r="A180" s="11"/>
+      <c r="A180" s="10"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -9191,7 +9257,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="21"/>
+      <c r="K180" s="20"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -9204,7 +9270,7 @@
       <c r="Y180" s="2"/>
     </row>
     <row r="181" spans="1:25">
-      <c r="A181" s="11"/>
+      <c r="A181" s="10"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -9213,7 +9279,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="J181" s="2"/>
-      <c r="K181" s="21"/>
+      <c r="K181" s="20"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -9226,7 +9292,7 @@
       <c r="Y181" s="2"/>
     </row>
     <row r="182" spans="1:25">
-      <c r="A182" s="11"/>
+      <c r="A182" s="10"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -9235,7 +9301,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="J182" s="2"/>
-      <c r="K182" s="21"/>
+      <c r="K182" s="20"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -9248,7 +9314,7 @@
       <c r="Y182" s="2"/>
     </row>
     <row r="183" spans="1:25">
-      <c r="A183" s="11"/>
+      <c r="A183" s="10"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -9257,7 +9323,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="J183" s="2"/>
-      <c r="K183" s="21"/>
+      <c r="K183" s="20"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -9270,7 +9336,7 @@
       <c r="Y183" s="2"/>
     </row>
     <row r="184" spans="1:25">
-      <c r="A184" s="11"/>
+      <c r="A184" s="10"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -9279,7 +9345,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="J184" s="2"/>
-      <c r="K184" s="21"/>
+      <c r="K184" s="20"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -9292,7 +9358,7 @@
       <c r="Y184" s="2"/>
     </row>
     <row r="185" spans="1:25">
-      <c r="A185" s="11"/>
+      <c r="A185" s="10"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -9301,7 +9367,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="J185" s="2"/>
-      <c r="K185" s="21"/>
+      <c r="K185" s="20"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -9314,7 +9380,7 @@
       <c r="Y185" s="2"/>
     </row>
     <row r="186" spans="1:25">
-      <c r="A186" s="11"/>
+      <c r="A186" s="10"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -9323,7 +9389,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
-      <c r="K186" s="21"/>
+      <c r="K186" s="20"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -9336,7 +9402,7 @@
       <c r="Y186" s="2"/>
     </row>
     <row r="187" spans="1:25">
-      <c r="A187" s="11"/>
+      <c r="A187" s="10"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -9345,7 +9411,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="J187" s="2"/>
-      <c r="K187" s="21"/>
+      <c r="K187" s="20"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -9358,7 +9424,7 @@
       <c r="Y187" s="2"/>
     </row>
     <row r="188" spans="1:25">
-      <c r="A188" s="11"/>
+      <c r="A188" s="10"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -9367,7 +9433,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2"/>
-      <c r="K188" s="21"/>
+      <c r="K188" s="20"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -9380,7 +9446,7 @@
       <c r="Y188" s="2"/>
     </row>
     <row r="189" spans="1:25">
-      <c r="A189" s="11"/>
+      <c r="A189" s="10"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -9389,7 +9455,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="J189" s="2"/>
-      <c r="K189" s="21"/>
+      <c r="K189" s="20"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -9402,7 +9468,7 @@
       <c r="Y189" s="2"/>
     </row>
     <row r="190" spans="1:25">
-      <c r="A190" s="11"/>
+      <c r="A190" s="10"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -9411,7 +9477,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="21"/>
+      <c r="K190" s="20"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -9424,7 +9490,7 @@
       <c r="Y190" s="2"/>
     </row>
     <row r="191" spans="1:25">
-      <c r="A191" s="11"/>
+      <c r="A191" s="10"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -9433,7 +9499,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="21"/>
+      <c r="K191" s="20"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -9446,7 +9512,7 @@
       <c r="Y191" s="2"/>
     </row>
     <row r="192" spans="1:25">
-      <c r="A192" s="11"/>
+      <c r="A192" s="10"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -9455,7 +9521,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="J192" s="2"/>
-      <c r="K192" s="21"/>
+      <c r="K192" s="20"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -9468,7 +9534,7 @@
       <c r="Y192" s="2"/>
     </row>
     <row r="193" spans="1:25">
-      <c r="A193" s="11"/>
+      <c r="A193" s="10"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -9477,7 +9543,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="J193" s="2"/>
-      <c r="K193" s="21"/>
+      <c r="K193" s="20"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -9490,7 +9556,7 @@
       <c r="Y193" s="2"/>
     </row>
     <row r="194" spans="1:25">
-      <c r="A194" s="11"/>
+      <c r="A194" s="10"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -9499,7 +9565,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="J194" s="2"/>
-      <c r="K194" s="21"/>
+      <c r="K194" s="20"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -9512,7 +9578,7 @@
       <c r="Y194" s="2"/>
     </row>
     <row r="195" spans="1:25">
-      <c r="A195" s="11"/>
+      <c r="A195" s="10"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -9521,7 +9587,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="J195" s="2"/>
-      <c r="K195" s="21"/>
+      <c r="K195" s="20"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -9534,7 +9600,7 @@
       <c r="Y195" s="2"/>
     </row>
     <row r="196" spans="1:25">
-      <c r="A196" s="11"/>
+      <c r="A196" s="10"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -9543,7 +9609,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="J196" s="2"/>
-      <c r="K196" s="21"/>
+      <c r="K196" s="20"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -9556,7 +9622,7 @@
       <c r="Y196" s="2"/>
     </row>
     <row r="197" spans="1:25">
-      <c r="A197" s="11"/>
+      <c r="A197" s="10"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -9565,7 +9631,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="J197" s="2"/>
-      <c r="K197" s="21"/>
+      <c r="K197" s="20"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -9578,7 +9644,7 @@
       <c r="Y197" s="2"/>
     </row>
     <row r="198" spans="1:25">
-      <c r="A198" s="11"/>
+      <c r="A198" s="10"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -9587,7 +9653,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="J198" s="2"/>
-      <c r="K198" s="21"/>
+      <c r="K198" s="20"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -9600,7 +9666,7 @@
       <c r="Y198" s="2"/>
     </row>
     <row r="199" spans="1:25">
-      <c r="A199" s="11"/>
+      <c r="A199" s="10"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -9609,7 +9675,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="J199" s="2"/>
-      <c r="K199" s="21"/>
+      <c r="K199" s="20"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -9622,7 +9688,7 @@
       <c r="Y199" s="2"/>
     </row>
     <row r="200" spans="1:25">
-      <c r="A200" s="11"/>
+      <c r="A200" s="10"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -9631,7 +9697,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="J200" s="2"/>
-      <c r="K200" s="21"/>
+      <c r="K200" s="20"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -9644,7 +9710,7 @@
       <c r="Y200" s="2"/>
     </row>
     <row r="201" spans="1:25">
-      <c r="A201" s="11"/>
+      <c r="A201" s="10"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -9653,7 +9719,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="J201" s="2"/>
-      <c r="K201" s="21"/>
+      <c r="K201" s="20"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -9666,7 +9732,7 @@
       <c r="Y201" s="2"/>
     </row>
     <row r="202" spans="1:25">
-      <c r="A202" s="11"/>
+      <c r="A202" s="10"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -9675,7 +9741,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
-      <c r="K202" s="21"/>
+      <c r="K202" s="20"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -9688,7 +9754,7 @@
       <c r="Y202" s="2"/>
     </row>
     <row r="203" spans="1:25">
-      <c r="A203" s="11"/>
+      <c r="A203" s="10"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -9697,7 +9763,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="J203" s="2"/>
-      <c r="K203" s="21"/>
+      <c r="K203" s="20"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -9710,7 +9776,7 @@
       <c r="Y203" s="2"/>
     </row>
     <row r="204" spans="1:25">
-      <c r="A204" s="11"/>
+      <c r="A204" s="10"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -9719,7 +9785,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="J204" s="2"/>
-      <c r="K204" s="21"/>
+      <c r="K204" s="20"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -9732,7 +9798,7 @@
       <c r="Y204" s="2"/>
     </row>
     <row r="205" spans="1:25">
-      <c r="A205" s="11"/>
+      <c r="A205" s="10"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -9741,7 +9807,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="J205" s="2"/>
-      <c r="K205" s="21"/>
+      <c r="K205" s="20"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -9754,7 +9820,7 @@
       <c r="Y205" s="2"/>
     </row>
     <row r="206" spans="1:25">
-      <c r="A206" s="11"/>
+      <c r="A206" s="10"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -9763,7 +9829,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="J206" s="2"/>
-      <c r="K206" s="21"/>
+      <c r="K206" s="20"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
@@ -9776,7 +9842,7 @@
       <c r="Y206" s="2"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="A207" s="11"/>
+      <c r="A207" s="10"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -9785,7 +9851,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="J207" s="2"/>
-      <c r="K207" s="21"/>
+      <c r="K207" s="20"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -9798,7 +9864,7 @@
       <c r="Y207" s="2"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="A208" s="11"/>
+      <c r="A208" s="10"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -9807,7 +9873,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="J208" s="2"/>
-      <c r="K208" s="21"/>
+      <c r="K208" s="20"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -9820,7 +9886,7 @@
       <c r="Y208" s="2"/>
     </row>
     <row r="209" spans="1:25">
-      <c r="A209" s="11"/>
+      <c r="A209" s="10"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -9829,7 +9895,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="J209" s="2"/>
-      <c r="K209" s="21"/>
+      <c r="K209" s="20"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -9842,7 +9908,7 @@
       <c r="Y209" s="2"/>
     </row>
     <row r="210" spans="1:25">
-      <c r="A210" s="11"/>
+      <c r="A210" s="10"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -9851,7 +9917,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="J210" s="2"/>
-      <c r="K210" s="21"/>
+      <c r="K210" s="20"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
@@ -9864,7 +9930,7 @@
       <c r="Y210" s="2"/>
     </row>
     <row r="211" spans="1:25">
-      <c r="A211" s="11"/>
+      <c r="A211" s="10"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -9873,7 +9939,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="J211" s="2"/>
-      <c r="K211" s="21"/>
+      <c r="K211" s="20"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
@@ -9886,7 +9952,7 @@
       <c r="Y211" s="2"/>
     </row>
     <row r="212" spans="1:25">
-      <c r="A212" s="11"/>
+      <c r="A212" s="10"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -9895,7 +9961,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="J212" s="2"/>
-      <c r="K212" s="21"/>
+      <c r="K212" s="20"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
@@ -9908,7 +9974,7 @@
       <c r="Y212" s="2"/>
     </row>
     <row r="213" spans="1:25">
-      <c r="A213" s="11"/>
+      <c r="A213" s="10"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -9917,7 +9983,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="J213" s="2"/>
-      <c r="K213" s="21"/>
+      <c r="K213" s="20"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -9930,7 +9996,7 @@
       <c r="Y213" s="2"/>
     </row>
     <row r="214" spans="1:25">
-      <c r="A214" s="11"/>
+      <c r="A214" s="10"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -9939,7 +10005,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="J214" s="2"/>
-      <c r="K214" s="21"/>
+      <c r="K214" s="20"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
@@ -9952,7 +10018,7 @@
       <c r="Y214" s="2"/>
     </row>
     <row r="215" spans="1:25">
-      <c r="A215" s="11"/>
+      <c r="A215" s="10"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -9961,7 +10027,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="J215" s="2"/>
-      <c r="K215" s="21"/>
+      <c r="K215" s="20"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -9974,7 +10040,7 @@
       <c r="Y215" s="2"/>
     </row>
     <row r="216" spans="1:25">
-      <c r="A216" s="11"/>
+      <c r="A216" s="10"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -9983,7 +10049,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="J216" s="2"/>
-      <c r="K216" s="21"/>
+      <c r="K216" s="20"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -9996,7 +10062,7 @@
       <c r="Y216" s="2"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="A217" s="11"/>
+      <c r="A217" s="10"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -10005,7 +10071,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="J217" s="2"/>
-      <c r="K217" s="21"/>
+      <c r="K217" s="20"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
@@ -10018,7 +10084,7 @@
       <c r="Y217" s="2"/>
     </row>
     <row r="218" spans="1:25">
-      <c r="A218" s="11"/>
+      <c r="A218" s="10"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -10027,7 +10093,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="J218" s="2"/>
-      <c r="K218" s="21"/>
+      <c r="K218" s="20"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
@@ -10040,7 +10106,7 @@
       <c r="Y218" s="2"/>
     </row>
     <row r="219" spans="1:25">
-      <c r="A219" s="11"/>
+      <c r="A219" s="10"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -10049,7 +10115,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="J219" s="2"/>
-      <c r="K219" s="21"/>
+      <c r="K219" s="20"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -10062,7 +10128,7 @@
       <c r="Y219" s="2"/>
     </row>
     <row r="220" spans="1:25">
-      <c r="A220" s="11"/>
+      <c r="A220" s="10"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -10071,7 +10137,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="J220" s="2"/>
-      <c r="K220" s="21"/>
+      <c r="K220" s="20"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
@@ -10084,7 +10150,7 @@
       <c r="Y220" s="2"/>
     </row>
     <row r="221" spans="1:25">
-      <c r="A221" s="11"/>
+      <c r="A221" s="10"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -10093,7 +10159,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="J221" s="2"/>
-      <c r="K221" s="21"/>
+      <c r="K221" s="20"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -10106,7 +10172,7 @@
       <c r="Y221" s="2"/>
     </row>
     <row r="222" spans="1:25">
-      <c r="A222" s="11"/>
+      <c r="A222" s="10"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -10115,7 +10181,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="J222" s="2"/>
-      <c r="K222" s="21"/>
+      <c r="K222" s="20"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -10128,7 +10194,7 @@
       <c r="Y222" s="2"/>
     </row>
     <row r="223" spans="1:25">
-      <c r="A223" s="11"/>
+      <c r="A223" s="10"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -10137,7 +10203,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="J223" s="2"/>
-      <c r="K223" s="21"/>
+      <c r="K223" s="20"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
@@ -10150,7 +10216,7 @@
       <c r="Y223" s="2"/>
     </row>
     <row r="224" spans="1:25">
-      <c r="A224" s="11"/>
+      <c r="A224" s="10"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -10159,7 +10225,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="J224" s="2"/>
-      <c r="K224" s="21"/>
+      <c r="K224" s="20"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -10172,7 +10238,7 @@
       <c r="Y224" s="2"/>
     </row>
     <row r="225" spans="1:25">
-      <c r="A225" s="11"/>
+      <c r="A225" s="10"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -10181,7 +10247,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="J225" s="2"/>
-      <c r="K225" s="21"/>
+      <c r="K225" s="20"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -10194,7 +10260,7 @@
       <c r="Y225" s="2"/>
     </row>
     <row r="226" spans="1:25">
-      <c r="A226" s="11"/>
+      <c r="A226" s="10"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -10203,7 +10269,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="J226" s="2"/>
-      <c r="K226" s="21"/>
+      <c r="K226" s="20"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -10216,7 +10282,7 @@
       <c r="Y226" s="2"/>
     </row>
     <row r="227" spans="1:25">
-      <c r="A227" s="11"/>
+      <c r="A227" s="10"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -10225,7 +10291,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="J227" s="2"/>
-      <c r="K227" s="21"/>
+      <c r="K227" s="20"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -10238,7 +10304,7 @@
       <c r="Y227" s="2"/>
     </row>
     <row r="228" spans="1:25">
-      <c r="A228" s="11"/>
+      <c r="A228" s="10"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -10247,7 +10313,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="J228" s="2"/>
-      <c r="K228" s="21"/>
+      <c r="K228" s="20"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -10260,7 +10326,7 @@
       <c r="Y228" s="2"/>
     </row>
     <row r="229" spans="1:25">
-      <c r="A229" s="11"/>
+      <c r="A229" s="10"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -10269,7 +10335,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
-      <c r="K229" s="21"/>
+      <c r="K229" s="20"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
@@ -10282,7 +10348,7 @@
       <c r="Y229" s="2"/>
     </row>
     <row r="230" spans="1:25">
-      <c r="A230" s="11"/>
+      <c r="A230" s="10"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -10291,7 +10357,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="J230" s="2"/>
-      <c r="K230" s="21"/>
+      <c r="K230" s="20"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -10304,7 +10370,7 @@
       <c r="Y230" s="2"/>
     </row>
     <row r="231" spans="1:25">
-      <c r="A231" s="11"/>
+      <c r="A231" s="10"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -10313,7 +10379,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
-      <c r="K231" s="21"/>
+      <c r="K231" s="20"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -10326,7 +10392,7 @@
       <c r="Y231" s="2"/>
     </row>
     <row r="232" spans="1:25">
-      <c r="A232" s="11"/>
+      <c r="A232" s="10"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -10335,7 +10401,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="J232" s="2"/>
-      <c r="K232" s="21"/>
+      <c r="K232" s="20"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -10348,7 +10414,7 @@
       <c r="Y232" s="2"/>
     </row>
     <row r="233" spans="1:25">
-      <c r="A233" s="11"/>
+      <c r="A233" s="10"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -10357,7 +10423,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
-      <c r="K233" s="21"/>
+      <c r="K233" s="20"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
@@ -10370,7 +10436,7 @@
       <c r="Y233" s="2"/>
     </row>
     <row r="234" spans="1:25">
-      <c r="A234" s="11"/>
+      <c r="A234" s="10"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -10379,7 +10445,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="J234" s="2"/>
-      <c r="K234" s="21"/>
+      <c r="K234" s="20"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
@@ -10392,7 +10458,7 @@
       <c r="Y234" s="2"/>
     </row>
     <row r="235" spans="1:25">
-      <c r="A235" s="11"/>
+      <c r="A235" s="10"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -10401,7 +10467,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
-      <c r="K235" s="21"/>
+      <c r="K235" s="20"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -10414,7 +10480,7 @@
       <c r="Y235" s="2"/>
     </row>
     <row r="236" spans="1:25">
-      <c r="A236" s="11"/>
+      <c r="A236" s="10"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -10423,7 +10489,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="J236" s="2"/>
-      <c r="K236" s="21"/>
+      <c r="K236" s="20"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -10436,7 +10502,7 @@
       <c r="Y236" s="2"/>
     </row>
     <row r="237" spans="1:25">
-      <c r="A237" s="11"/>
+      <c r="A237" s="10"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -10445,7 +10511,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
-      <c r="K237" s="21"/>
+      <c r="K237" s="20"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
@@ -10458,7 +10524,7 @@
       <c r="Y237" s="2"/>
     </row>
     <row r="238" spans="1:25">
-      <c r="A238" s="11"/>
+      <c r="A238" s="10"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -10467,7 +10533,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="J238" s="2"/>
-      <c r="K238" s="21"/>
+      <c r="K238" s="20"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -10480,7 +10546,7 @@
       <c r="Y238" s="2"/>
     </row>
     <row r="239" spans="1:25">
-      <c r="A239" s="11"/>
+      <c r="A239" s="10"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -10489,7 +10555,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="J239" s="2"/>
-      <c r="K239" s="21"/>
+      <c r="K239" s="20"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -10502,7 +10568,7 @@
       <c r="Y239" s="2"/>
     </row>
     <row r="240" spans="1:25">
-      <c r="A240" s="11"/>
+      <c r="A240" s="10"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -10511,7 +10577,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="J240" s="2"/>
-      <c r="K240" s="21"/>
+      <c r="K240" s="20"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
@@ -10524,7 +10590,7 @@
       <c r="Y240" s="2"/>
     </row>
     <row r="241" spans="1:25">
-      <c r="A241" s="11"/>
+      <c r="A241" s="10"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -10533,7 +10599,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="J241" s="2"/>
-      <c r="K241" s="21"/>
+      <c r="K241" s="20"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -10546,7 +10612,7 @@
       <c r="Y241" s="2"/>
     </row>
     <row r="242" spans="1:25">
-      <c r="A242" s="11"/>
+      <c r="A242" s="10"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -10555,7 +10621,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="J242" s="2"/>
-      <c r="K242" s="21"/>
+      <c r="K242" s="20"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -10568,7 +10634,7 @@
       <c r="Y242" s="2"/>
     </row>
     <row r="243" spans="1:25">
-      <c r="A243" s="11"/>
+      <c r="A243" s="10"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -10577,7 +10643,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
-      <c r="K243" s="21"/>
+      <c r="K243" s="20"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -10590,7 +10656,7 @@
       <c r="Y243" s="2"/>
     </row>
     <row r="244" spans="1:25">
-      <c r="A244" s="11"/>
+      <c r="A244" s="10"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -10599,7 +10665,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="J244" s="2"/>
-      <c r="K244" s="21"/>
+      <c r="K244" s="20"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -10612,7 +10678,7 @@
       <c r="Y244" s="2"/>
     </row>
     <row r="245" spans="1:25">
-      <c r="A245" s="11"/>
+      <c r="A245" s="10"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -10621,7 +10687,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="J245" s="2"/>
-      <c r="K245" s="21"/>
+      <c r="K245" s="20"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -10634,7 +10700,7 @@
       <c r="Y245" s="2"/>
     </row>
     <row r="246" spans="1:25">
-      <c r="A246" s="11"/>
+      <c r="A246" s="10"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -10643,7 +10709,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="J246" s="2"/>
-      <c r="K246" s="21"/>
+      <c r="K246" s="20"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
@@ -10656,7 +10722,7 @@
       <c r="Y246" s="2"/>
     </row>
     <row r="247" spans="1:25">
-      <c r="A247" s="11"/>
+      <c r="A247" s="10"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -10665,7 +10731,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="J247" s="2"/>
-      <c r="K247" s="21"/>
+      <c r="K247" s="20"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -10678,7 +10744,7 @@
       <c r="Y247" s="2"/>
     </row>
     <row r="248" spans="1:25">
-      <c r="A248" s="11"/>
+      <c r="A248" s="10"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -10687,7 +10753,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="J248" s="2"/>
-      <c r="K248" s="21"/>
+      <c r="K248" s="20"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -10700,7 +10766,7 @@
       <c r="Y248" s="2"/>
     </row>
     <row r="249" spans="1:25">
-      <c r="A249" s="11"/>
+      <c r="A249" s="10"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -10709,7 +10775,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="J249" s="2"/>
-      <c r="K249" s="21"/>
+      <c r="K249" s="20"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -10722,7 +10788,7 @@
       <c r="Y249" s="2"/>
     </row>
     <row r="250" spans="1:25">
-      <c r="A250" s="11"/>
+      <c r="A250" s="10"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -10731,7 +10797,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="J250" s="2"/>
-      <c r="K250" s="21"/>
+      <c r="K250" s="20"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
@@ -10744,7 +10810,7 @@
       <c r="Y250" s="2"/>
     </row>
     <row r="251" spans="1:25">
-      <c r="A251" s="11"/>
+      <c r="A251" s="10"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -10753,7 +10819,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="J251" s="2"/>
-      <c r="K251" s="21"/>
+      <c r="K251" s="20"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
@@ -10766,7 +10832,7 @@
       <c r="Y251" s="2"/>
     </row>
     <row r="252" spans="1:25">
-      <c r="A252" s="11"/>
+      <c r="A252" s="10"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -10775,7 +10841,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="J252" s="2"/>
-      <c r="K252" s="21"/>
+      <c r="K252" s="20"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
@@ -10788,7 +10854,7 @@
       <c r="Y252" s="2"/>
     </row>
     <row r="253" spans="1:25">
-      <c r="A253" s="11"/>
+      <c r="A253" s="10"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -10797,7 +10863,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="J253" s="2"/>
-      <c r="K253" s="21"/>
+      <c r="K253" s="20"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
@@ -10810,7 +10876,7 @@
       <c r="Y253" s="2"/>
     </row>
     <row r="254" spans="1:25">
-      <c r="A254" s="11"/>
+      <c r="A254" s="10"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -10819,7 +10885,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="J254" s="2"/>
-      <c r="K254" s="21"/>
+      <c r="K254" s="20"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -10832,7 +10898,7 @@
       <c r="Y254" s="2"/>
     </row>
     <row r="255" spans="1:25">
-      <c r="A255" s="11"/>
+      <c r="A255" s="10"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -10841,7 +10907,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="J255" s="2"/>
-      <c r="K255" s="21"/>
+      <c r="K255" s="20"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -10854,7 +10920,7 @@
       <c r="Y255" s="2"/>
     </row>
     <row r="256" spans="1:25">
-      <c r="A256" s="11"/>
+      <c r="A256" s="10"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -10863,7 +10929,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="J256" s="2"/>
-      <c r="K256" s="21"/>
+      <c r="K256" s="20"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -10876,7 +10942,7 @@
       <c r="Y256" s="2"/>
     </row>
     <row r="257" spans="1:25">
-      <c r="A257" s="11"/>
+      <c r="A257" s="10"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -10885,7 +10951,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="J257" s="2"/>
-      <c r="K257" s="21"/>
+      <c r="K257" s="20"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -10898,7 +10964,7 @@
       <c r="Y257" s="2"/>
     </row>
     <row r="258" spans="1:25">
-      <c r="A258" s="11"/>
+      <c r="A258" s="10"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -10907,7 +10973,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="J258" s="2"/>
-      <c r="K258" s="21"/>
+      <c r="K258" s="20"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
@@ -10920,7 +10986,7 @@
       <c r="Y258" s="2"/>
     </row>
     <row r="259" spans="1:25">
-      <c r="A259" s="11"/>
+      <c r="A259" s="10"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -10929,7 +10995,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="J259" s="2"/>
-      <c r="K259" s="21"/>
+      <c r="K259" s="20"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
@@ -10942,7 +11008,7 @@
       <c r="Y259" s="2"/>
     </row>
     <row r="260" spans="1:25">
-      <c r="A260" s="11"/>
+      <c r="A260" s="10"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -10951,7 +11017,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="J260" s="2"/>
-      <c r="K260" s="21"/>
+      <c r="K260" s="20"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -10964,7 +11030,7 @@
       <c r="Y260" s="2"/>
     </row>
     <row r="261" spans="1:25">
-      <c r="A261" s="11"/>
+      <c r="A261" s="10"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -10973,7 +11039,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="J261" s="2"/>
-      <c r="K261" s="21"/>
+      <c r="K261" s="20"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -10986,7 +11052,7 @@
       <c r="Y261" s="2"/>
     </row>
     <row r="262" spans="1:25">
-      <c r="A262" s="11"/>
+      <c r="A262" s="10"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -10995,7 +11061,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="J262" s="2"/>
-      <c r="K262" s="21"/>
+      <c r="K262" s="20"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -11008,7 +11074,7 @@
       <c r="Y262" s="2"/>
     </row>
     <row r="263" spans="1:25">
-      <c r="A263" s="11"/>
+      <c r="A263" s="10"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -11017,7 +11083,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="J263" s="2"/>
-      <c r="K263" s="21"/>
+      <c r="K263" s="20"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -11030,7 +11096,7 @@
       <c r="Y263" s="2"/>
     </row>
     <row r="264" spans="1:25">
-      <c r="A264" s="11"/>
+      <c r="A264" s="10"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -11039,7 +11105,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="J264" s="2"/>
-      <c r="K264" s="21"/>
+      <c r="K264" s="20"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -11052,7 +11118,7 @@
       <c r="Y264" s="2"/>
     </row>
     <row r="265" spans="1:25">
-      <c r="A265" s="11"/>
+      <c r="A265" s="10"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -11061,7 +11127,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="J265" s="2"/>
-      <c r="K265" s="21"/>
+      <c r="K265" s="20"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -11074,7 +11140,7 @@
       <c r="Y265" s="2"/>
     </row>
     <row r="266" spans="1:25">
-      <c r="A266" s="11"/>
+      <c r="A266" s="10"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -11083,7 +11149,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="J266" s="2"/>
-      <c r="K266" s="21"/>
+      <c r="K266" s="20"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
@@ -11096,7 +11162,7 @@
       <c r="Y266" s="2"/>
     </row>
     <row r="267" spans="1:25">
-      <c r="A267" s="11"/>
+      <c r="A267" s="10"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -11105,7 +11171,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="J267" s="2"/>
-      <c r="K267" s="21"/>
+      <c r="K267" s="20"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -11118,7 +11184,7 @@
       <c r="Y267" s="2"/>
     </row>
     <row r="268" spans="1:25">
-      <c r="A268" s="11"/>
+      <c r="A268" s="10"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -11127,7 +11193,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="J268" s="2"/>
-      <c r="K268" s="21"/>
+      <c r="K268" s="20"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
@@ -11140,7 +11206,7 @@
       <c r="Y268" s="2"/>
     </row>
     <row r="269" spans="1:25">
-      <c r="A269" s="11"/>
+      <c r="A269" s="10"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -11149,7 +11215,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="J269" s="2"/>
-      <c r="K269" s="21"/>
+      <c r="K269" s="20"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
@@ -11162,7 +11228,7 @@
       <c r="Y269" s="2"/>
     </row>
     <row r="270" spans="1:25">
-      <c r="A270" s="11"/>
+      <c r="A270" s="10"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -11171,7 +11237,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="J270" s="2"/>
-      <c r="K270" s="21"/>
+      <c r="K270" s="20"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -11184,7 +11250,7 @@
       <c r="Y270" s="2"/>
     </row>
     <row r="271" spans="1:25">
-      <c r="A271" s="11"/>
+      <c r="A271" s="10"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -11193,7 +11259,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="J271" s="2"/>
-      <c r="K271" s="21"/>
+      <c r="K271" s="20"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -11206,7 +11272,7 @@
       <c r="Y271" s="2"/>
     </row>
     <row r="272" spans="1:25">
-      <c r="A272" s="11"/>
+      <c r="A272" s="10"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -11215,7 +11281,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="J272" s="2"/>
-      <c r="K272" s="21"/>
+      <c r="K272" s="20"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
@@ -11228,7 +11294,7 @@
       <c r="Y272" s="2"/>
     </row>
     <row r="273" spans="1:25">
-      <c r="A273" s="11"/>
+      <c r="A273" s="10"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -11237,7 +11303,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
-      <c r="K273" s="21"/>
+      <c r="K273" s="20"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -11250,7 +11316,7 @@
       <c r="Y273" s="2"/>
     </row>
     <row r="274" spans="1:25">
-      <c r="A274" s="11"/>
+      <c r="A274" s="10"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -11259,7 +11325,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
-      <c r="K274" s="21"/>
+      <c r="K274" s="20"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -11272,7 +11338,7 @@
       <c r="Y274" s="2"/>
     </row>
     <row r="275" spans="1:25">
-      <c r="A275" s="11"/>
+      <c r="A275" s="10"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -11281,7 +11347,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="J275" s="2"/>
-      <c r="K275" s="21"/>
+      <c r="K275" s="20"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
@@ -11294,7 +11360,7 @@
       <c r="Y275" s="2"/>
     </row>
     <row r="276" spans="1:25">
-      <c r="A276" s="11"/>
+      <c r="A276" s="10"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -11303,7 +11369,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="J276" s="2"/>
-      <c r="K276" s="21"/>
+      <c r="K276" s="20"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -11316,7 +11382,7 @@
       <c r="Y276" s="2"/>
     </row>
     <row r="277" spans="1:25">
-      <c r="A277" s="11"/>
+      <c r="A277" s="10"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -11325,7 +11391,7 @@
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="J277" s="2"/>
-      <c r="K277" s="21"/>
+      <c r="K277" s="20"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -11338,7 +11404,7 @@
       <c r="Y277" s="2"/>
     </row>
     <row r="278" spans="1:25">
-      <c r="A278" s="11"/>
+      <c r="A278" s="10"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -11347,7 +11413,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="J278" s="2"/>
-      <c r="K278" s="21"/>
+      <c r="K278" s="20"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -11360,7 +11426,7 @@
       <c r="Y278" s="2"/>
     </row>
     <row r="279" spans="1:25">
-      <c r="A279" s="11"/>
+      <c r="A279" s="10"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -11369,7 +11435,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="J279" s="2"/>
-      <c r="K279" s="21"/>
+      <c r="K279" s="20"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -11382,7 +11448,7 @@
       <c r="Y279" s="2"/>
     </row>
     <row r="280" spans="1:25">
-      <c r="A280" s="11"/>
+      <c r="A280" s="10"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -11391,7 +11457,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="J280" s="2"/>
-      <c r="K280" s="21"/>
+      <c r="K280" s="20"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -11404,7 +11470,7 @@
       <c r="Y280" s="2"/>
     </row>
     <row r="281" spans="1:25">
-      <c r="A281" s="11"/>
+      <c r="A281" s="10"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -11413,7 +11479,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="J281" s="2"/>
-      <c r="K281" s="21"/>
+      <c r="K281" s="20"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -11426,7 +11492,7 @@
       <c r="Y281" s="2"/>
     </row>
     <row r="282" spans="1:25">
-      <c r="A282" s="11"/>
+      <c r="A282" s="10"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -11435,7 +11501,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="J282" s="2"/>
-      <c r="K282" s="21"/>
+      <c r="K282" s="20"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -11448,7 +11514,7 @@
       <c r="Y282" s="2"/>
     </row>
     <row r="283" spans="1:25">
-      <c r="A283" s="11"/>
+      <c r="A283" s="10"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -11457,7 +11523,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="J283" s="2"/>
-      <c r="K283" s="21"/>
+      <c r="K283" s="20"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -11470,7 +11536,7 @@
       <c r="Y283" s="2"/>
     </row>
     <row r="284" spans="1:25">
-      <c r="A284" s="11"/>
+      <c r="A284" s="10"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -11479,7 +11545,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="J284" s="2"/>
-      <c r="K284" s="21"/>
+      <c r="K284" s="20"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -11492,7 +11558,7 @@
       <c r="Y284" s="2"/>
     </row>
     <row r="285" spans="1:25">
-      <c r="A285" s="11"/>
+      <c r="A285" s="10"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -11501,7 +11567,7 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="J285" s="2"/>
-      <c r="K285" s="21"/>
+      <c r="K285" s="20"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -11514,7 +11580,7 @@
       <c r="Y285" s="2"/>
     </row>
     <row r="286" spans="1:25">
-      <c r="A286" s="11"/>
+      <c r="A286" s="10"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -11523,7 +11589,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="J286" s="2"/>
-      <c r="K286" s="21"/>
+      <c r="K286" s="20"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
@@ -11536,7 +11602,7 @@
       <c r="Y286" s="2"/>
     </row>
     <row r="287" spans="1:25">
-      <c r="A287" s="11"/>
+      <c r="A287" s="10"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -11545,7 +11611,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="J287" s="2"/>
-      <c r="K287" s="21"/>
+      <c r="K287" s="20"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -11558,7 +11624,7 @@
       <c r="Y287" s="2"/>
     </row>
     <row r="288" spans="1:25">
-      <c r="A288" s="11"/>
+      <c r="A288" s="10"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -11567,7 +11633,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="J288" s="2"/>
-      <c r="K288" s="21"/>
+      <c r="K288" s="20"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
@@ -11580,7 +11646,7 @@
       <c r="Y288" s="2"/>
     </row>
     <row r="289" spans="1:25">
-      <c r="A289" s="11"/>
+      <c r="A289" s="10"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -11589,7 +11655,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="J289" s="2"/>
-      <c r="K289" s="21"/>
+      <c r="K289" s="20"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -11602,7 +11668,7 @@
       <c r="Y289" s="2"/>
     </row>
     <row r="290" spans="1:25">
-      <c r="A290" s="11"/>
+      <c r="A290" s="10"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -11611,7 +11677,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="J290" s="2"/>
-      <c r="K290" s="21"/>
+      <c r="K290" s="20"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -11624,7 +11690,7 @@
       <c r="Y290" s="2"/>
     </row>
     <row r="291" spans="1:25">
-      <c r="A291" s="11"/>
+      <c r="A291" s="10"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -11633,7 +11699,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="J291" s="2"/>
-      <c r="K291" s="21"/>
+      <c r="K291" s="20"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
@@ -11646,7 +11712,7 @@
       <c r="Y291" s="2"/>
     </row>
     <row r="292" spans="1:25">
-      <c r="A292" s="11"/>
+      <c r="A292" s="10"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -11655,7 +11721,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="J292" s="2"/>
-      <c r="K292" s="21"/>
+      <c r="K292" s="20"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -11668,7 +11734,7 @@
       <c r="Y292" s="2"/>
     </row>
     <row r="293" spans="1:25">
-      <c r="A293" s="11"/>
+      <c r="A293" s="10"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -11677,7 +11743,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="J293" s="2"/>
-      <c r="K293" s="21"/>
+      <c r="K293" s="20"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -11690,7 +11756,7 @@
       <c r="Y293" s="2"/>
     </row>
     <row r="294" spans="1:25">
-      <c r="A294" s="11"/>
+      <c r="A294" s="10"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -11699,7 +11765,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="J294" s="2"/>
-      <c r="K294" s="21"/>
+      <c r="K294" s="20"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -11712,7 +11778,7 @@
       <c r="Y294" s="2"/>
     </row>
     <row r="295" spans="1:25">
-      <c r="A295" s="11"/>
+      <c r="A295" s="10"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -11721,7 +11787,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="J295" s="2"/>
-      <c r="K295" s="21"/>
+      <c r="K295" s="20"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -11734,7 +11800,7 @@
       <c r="Y295" s="2"/>
     </row>
     <row r="296" spans="1:25">
-      <c r="A296" s="11"/>
+      <c r="A296" s="10"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -11743,7 +11809,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="J296" s="2"/>
-      <c r="K296" s="21"/>
+      <c r="K296" s="20"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -11756,7 +11822,7 @@
       <c r="Y296" s="2"/>
     </row>
     <row r="297" spans="1:25">
-      <c r="A297" s="11"/>
+      <c r="A297" s="10"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -11765,7 +11831,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="J297" s="2"/>
-      <c r="K297" s="21"/>
+      <c r="K297" s="20"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
@@ -11778,7 +11844,7 @@
       <c r="Y297" s="2"/>
     </row>
     <row r="298" spans="1:25">
-      <c r="A298" s="11"/>
+      <c r="A298" s="10"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -11787,7 +11853,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="J298" s="2"/>
-      <c r="K298" s="21"/>
+      <c r="K298" s="20"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
@@ -11800,7 +11866,7 @@
       <c r="Y298" s="2"/>
     </row>
     <row r="299" spans="1:25">
-      <c r="A299" s="11"/>
+      <c r="A299" s="10"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -11809,7 +11875,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="J299" s="2"/>
-      <c r="K299" s="21"/>
+      <c r="K299" s="20"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -11822,7 +11888,7 @@
       <c r="Y299" s="2"/>
     </row>
     <row r="300" spans="1:25">
-      <c r="A300" s="11"/>
+      <c r="A300" s="10"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -11831,7 +11897,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="J300" s="2"/>
-      <c r="K300" s="21"/>
+      <c r="K300" s="20"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -11844,7 +11910,7 @@
       <c r="Y300" s="2"/>
     </row>
     <row r="301" spans="1:25">
-      <c r="A301" s="11"/>
+      <c r="A301" s="10"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -11853,7 +11919,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="J301" s="2"/>
-      <c r="K301" s="21"/>
+      <c r="K301" s="20"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -11866,7 +11932,7 @@
       <c r="Y301" s="2"/>
     </row>
     <row r="302" spans="1:25">
-      <c r="A302" s="11"/>
+      <c r="A302" s="10"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -11875,7 +11941,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="J302" s="2"/>
-      <c r="K302" s="21"/>
+      <c r="K302" s="20"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -11888,7 +11954,7 @@
       <c r="Y302" s="2"/>
     </row>
     <row r="303" spans="1:25">
-      <c r="A303" s="11"/>
+      <c r="A303" s="10"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -11897,7 +11963,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="J303" s="2"/>
-      <c r="K303" s="21"/>
+      <c r="K303" s="20"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
@@ -11910,7 +11976,7 @@
       <c r="Y303" s="2"/>
     </row>
     <row r="304" spans="1:25">
-      <c r="A304" s="11"/>
+      <c r="A304" s="10"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -11919,7 +11985,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="J304" s="2"/>
-      <c r="K304" s="21"/>
+      <c r="K304" s="20"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
@@ -11932,7 +11998,7 @@
       <c r="Y304" s="2"/>
     </row>
     <row r="305" spans="1:25">
-      <c r="A305" s="11"/>
+      <c r="A305" s="10"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -11941,7 +12007,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="J305" s="2"/>
-      <c r="K305" s="21"/>
+      <c r="K305" s="20"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -11954,7 +12020,7 @@
       <c r="Y305" s="2"/>
     </row>
     <row r="306" spans="1:25">
-      <c r="A306" s="11"/>
+      <c r="A306" s="10"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -11963,7 +12029,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="J306" s="2"/>
-      <c r="K306" s="21"/>
+      <c r="K306" s="20"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -11976,7 +12042,7 @@
       <c r="Y306" s="2"/>
     </row>
     <row r="307" spans="1:25">
-      <c r="A307" s="11"/>
+      <c r="A307" s="10"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -11985,7 +12051,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="J307" s="2"/>
-      <c r="K307" s="21"/>
+      <c r="K307" s="20"/>
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
@@ -11998,7 +12064,7 @@
       <c r="Y307" s="2"/>
     </row>
     <row r="308" spans="1:25">
-      <c r="A308" s="11"/>
+      <c r="A308" s="10"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -12007,7 +12073,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="J308" s="2"/>
-      <c r="K308" s="21"/>
+      <c r="K308" s="20"/>
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -12020,7 +12086,7 @@
       <c r="Y308" s="2"/>
     </row>
     <row r="309" spans="1:25">
-      <c r="A309" s="11"/>
+      <c r="A309" s="10"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -12029,7 +12095,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="J309" s="2"/>
-      <c r="K309" s="21"/>
+      <c r="K309" s="20"/>
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
@@ -12042,7 +12108,7 @@
       <c r="Y309" s="2"/>
     </row>
     <row r="310" spans="1:25">
-      <c r="A310" s="11"/>
+      <c r="A310" s="10"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -12051,7 +12117,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="J310" s="2"/>
-      <c r="K310" s="21"/>
+      <c r="K310" s="20"/>
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
@@ -12064,7 +12130,7 @@
       <c r="Y310" s="2"/>
     </row>
     <row r="311" spans="1:25">
-      <c r="A311" s="11"/>
+      <c r="A311" s="10"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -12073,7 +12139,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="J311" s="2"/>
-      <c r="K311" s="21"/>
+      <c r="K311" s="20"/>
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -12086,7 +12152,7 @@
       <c r="Y311" s="2"/>
     </row>
     <row r="312" spans="1:25">
-      <c r="A312" s="11"/>
+      <c r="A312" s="10"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -12095,7 +12161,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="J312" s="2"/>
-      <c r="K312" s="21"/>
+      <c r="K312" s="20"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -12108,7 +12174,7 @@
       <c r="Y312" s="2"/>
     </row>
     <row r="313" spans="1:25">
-      <c r="A313" s="11"/>
+      <c r="A313" s="10"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -12117,7 +12183,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="J313" s="2"/>
-      <c r="K313" s="21"/>
+      <c r="K313" s="20"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
@@ -12130,7 +12196,7 @@
       <c r="Y313" s="2"/>
     </row>
     <row r="314" spans="1:25">
-      <c r="A314" s="11"/>
+      <c r="A314" s="10"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -12139,7 +12205,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="J314" s="2"/>
-      <c r="K314" s="21"/>
+      <c r="K314" s="20"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
@@ -12152,7 +12218,7 @@
       <c r="Y314" s="2"/>
     </row>
     <row r="315" spans="1:25">
-      <c r="A315" s="11"/>
+      <c r="A315" s="10"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -12161,7 +12227,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="J315" s="2"/>
-      <c r="K315" s="21"/>
+      <c r="K315" s="20"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
@@ -12174,7 +12240,7 @@
       <c r="Y315" s="2"/>
     </row>
     <row r="316" spans="1:25">
-      <c r="A316" s="11"/>
+      <c r="A316" s="10"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -12183,7 +12249,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="J316" s="2"/>
-      <c r="K316" s="21"/>
+      <c r="K316" s="20"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -12196,7 +12262,7 @@
       <c r="Y316" s="2"/>
     </row>
     <row r="317" spans="1:25">
-      <c r="A317" s="11"/>
+      <c r="A317" s="10"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -12205,7 +12271,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="J317" s="2"/>
-      <c r="K317" s="21"/>
+      <c r="K317" s="20"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -12218,7 +12284,7 @@
       <c r="Y317" s="2"/>
     </row>
     <row r="318" spans="1:25">
-      <c r="A318" s="11"/>
+      <c r="A318" s="10"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -12227,7 +12293,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="J318" s="2"/>
-      <c r="K318" s="21"/>
+      <c r="K318" s="20"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -12240,7 +12306,7 @@
       <c r="Y318" s="2"/>
     </row>
     <row r="319" spans="1:25">
-      <c r="A319" s="11"/>
+      <c r="A319" s="10"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -12249,7 +12315,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="J319" s="2"/>
-      <c r="K319" s="21"/>
+      <c r="K319" s="20"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
@@ -12262,7 +12328,7 @@
       <c r="Y319" s="2"/>
     </row>
     <row r="320" spans="1:25">
-      <c r="A320" s="11"/>
+      <c r="A320" s="10"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -12271,7 +12337,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="J320" s="2"/>
-      <c r="K320" s="21"/>
+      <c r="K320" s="20"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -12284,7 +12350,7 @@
       <c r="Y320" s="2"/>
     </row>
     <row r="321" spans="1:25">
-      <c r="A321" s="11"/>
+      <c r="A321" s="10"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -12293,7 +12359,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="J321" s="2"/>
-      <c r="K321" s="21"/>
+      <c r="K321" s="20"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -12306,7 +12372,7 @@
       <c r="Y321" s="2"/>
     </row>
     <row r="322" spans="1:25">
-      <c r="A322" s="11"/>
+      <c r="A322" s="10"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -12315,7 +12381,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="J322" s="2"/>
-      <c r="K322" s="21"/>
+      <c r="K322" s="20"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
@@ -12328,7 +12394,7 @@
       <c r="Y322" s="2"/>
     </row>
     <row r="323" spans="1:25">
-      <c r="A323" s="11"/>
+      <c r="A323" s="10"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -12337,7 +12403,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="J323" s="2"/>
-      <c r="K323" s="21"/>
+      <c r="K323" s="20"/>
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -12350,7 +12416,7 @@
       <c r="Y323" s="2"/>
     </row>
     <row r="324" spans="1:25">
-      <c r="A324" s="11"/>
+      <c r="A324" s="10"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -12359,7 +12425,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="J324" s="2"/>
-      <c r="K324" s="21"/>
+      <c r="K324" s="20"/>
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
@@ -12372,7 +12438,7 @@
       <c r="Y324" s="2"/>
     </row>
     <row r="325" spans="1:25">
-      <c r="A325" s="11"/>
+      <c r="A325" s="10"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -12381,7 +12447,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="J325" s="2"/>
-      <c r="K325" s="21"/>
+      <c r="K325" s="20"/>
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
@@ -12394,7 +12460,7 @@
       <c r="Y325" s="2"/>
     </row>
     <row r="326" spans="1:25">
-      <c r="A326" s="11"/>
+      <c r="A326" s="10"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -12403,7 +12469,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="J326" s="2"/>
-      <c r="K326" s="21"/>
+      <c r="K326" s="20"/>
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
@@ -12416,7 +12482,7 @@
       <c r="Y326" s="2"/>
     </row>
     <row r="327" spans="1:25">
-      <c r="A327" s="11"/>
+      <c r="A327" s="10"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -12425,7 +12491,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="J327" s="2"/>
-      <c r="K327" s="21"/>
+      <c r="K327" s="20"/>
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
@@ -12438,7 +12504,7 @@
       <c r="Y327" s="2"/>
     </row>
     <row r="328" spans="1:25">
-      <c r="A328" s="11"/>
+      <c r="A328" s="10"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -12447,7 +12513,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="J328" s="2"/>
-      <c r="K328" s="21"/>
+      <c r="K328" s="20"/>
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -12460,7 +12526,7 @@
       <c r="Y328" s="2"/>
     </row>
     <row r="329" spans="1:25">
-      <c r="A329" s="11"/>
+      <c r="A329" s="10"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -12469,7 +12535,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="J329" s="2"/>
-      <c r="K329" s="21"/>
+      <c r="K329" s="20"/>
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -12482,7 +12548,7 @@
       <c r="Y329" s="2"/>
     </row>
     <row r="330" spans="1:25">
-      <c r="A330" s="11"/>
+      <c r="A330" s="10"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -12491,7 +12557,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="J330" s="2"/>
-      <c r="K330" s="21"/>
+      <c r="K330" s="20"/>
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -12504,7 +12570,7 @@
       <c r="Y330" s="2"/>
     </row>
     <row r="331" spans="1:25">
-      <c r="A331" s="11"/>
+      <c r="A331" s="10"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -12513,7 +12579,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="J331" s="2"/>
-      <c r="K331" s="21"/>
+      <c r="K331" s="20"/>
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -12526,7 +12592,7 @@
       <c r="Y331" s="2"/>
     </row>
     <row r="332" spans="1:25">
-      <c r="A332" s="11"/>
+      <c r="A332" s="10"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -12535,7 +12601,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="J332" s="2"/>
-      <c r="K332" s="21"/>
+      <c r="K332" s="20"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -12548,7 +12614,7 @@
       <c r="Y332" s="2"/>
     </row>
     <row r="333" spans="1:25">
-      <c r="A333" s="11"/>
+      <c r="A333" s="10"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -12557,7 +12623,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="J333" s="2"/>
-      <c r="K333" s="21"/>
+      <c r="K333" s="20"/>
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
@@ -12570,7 +12636,7 @@
       <c r="Y333" s="2"/>
     </row>
     <row r="334" spans="1:25">
-      <c r="A334" s="11"/>
+      <c r="A334" s="10"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -12579,7 +12645,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="J334" s="2"/>
-      <c r="K334" s="21"/>
+      <c r="K334" s="20"/>
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
@@ -12592,7 +12658,7 @@
       <c r="Y334" s="2"/>
     </row>
     <row r="335" spans="1:25">
-      <c r="A335" s="11"/>
+      <c r="A335" s="10"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -12601,7 +12667,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="J335" s="2"/>
-      <c r="K335" s="21"/>
+      <c r="K335" s="20"/>
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
@@ -12614,7 +12680,7 @@
       <c r="Y335" s="2"/>
     </row>
     <row r="336" spans="1:25">
-      <c r="A336" s="11"/>
+      <c r="A336" s="10"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -12623,7 +12689,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="J336" s="2"/>
-      <c r="K336" s="21"/>
+      <c r="K336" s="20"/>
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
@@ -12636,7 +12702,7 @@
       <c r="Y336" s="2"/>
     </row>
     <row r="337" spans="1:25">
-      <c r="A337" s="11"/>
+      <c r="A337" s="10"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -12645,7 +12711,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="J337" s="2"/>
-      <c r="K337" s="21"/>
+      <c r="K337" s="20"/>
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
@@ -12658,7 +12724,7 @@
       <c r="Y337" s="2"/>
     </row>
     <row r="338" spans="1:25">
-      <c r="A338" s="11"/>
+      <c r="A338" s="10"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -12667,7 +12733,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="J338" s="2"/>
-      <c r="K338" s="21"/>
+      <c r="K338" s="20"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
@@ -12680,7 +12746,7 @@
       <c r="Y338" s="2"/>
     </row>
     <row r="339" spans="1:25">
-      <c r="A339" s="11"/>
+      <c r="A339" s="10"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -12689,7 +12755,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="J339" s="2"/>
-      <c r="K339" s="21"/>
+      <c r="K339" s="20"/>
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
@@ -12702,7 +12768,7 @@
       <c r="Y339" s="2"/>
     </row>
     <row r="340" spans="1:25">
-      <c r="A340" s="11"/>
+      <c r="A340" s="10"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -12711,7 +12777,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="J340" s="2"/>
-      <c r="K340" s="21"/>
+      <c r="K340" s="20"/>
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
@@ -12724,7 +12790,7 @@
       <c r="Y340" s="2"/>
     </row>
     <row r="341" spans="1:25">
-      <c r="A341" s="11"/>
+      <c r="A341" s="10"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -12733,7 +12799,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="J341" s="2"/>
-      <c r="K341" s="21"/>
+      <c r="K341" s="20"/>
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -12746,7 +12812,7 @@
       <c r="Y341" s="2"/>
     </row>
     <row r="342" spans="1:25">
-      <c r="A342" s="11"/>
+      <c r="A342" s="10"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -12755,7 +12821,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="J342" s="2"/>
-      <c r="K342" s="21"/>
+      <c r="K342" s="20"/>
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
@@ -12768,7 +12834,7 @@
       <c r="Y342" s="2"/>
     </row>
     <row r="343" spans="1:25">
-      <c r="A343" s="11"/>
+      <c r="A343" s="10"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -12777,7 +12843,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="J343" s="2"/>
-      <c r="K343" s="21"/>
+      <c r="K343" s="20"/>
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
@@ -12790,7 +12856,7 @@
       <c r="Y343" s="2"/>
     </row>
     <row r="344" spans="1:25">
-      <c r="A344" s="11"/>
+      <c r="A344" s="10"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -12799,7 +12865,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="J344" s="2"/>
-      <c r="K344" s="21"/>
+      <c r="K344" s="20"/>
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -12812,7 +12878,7 @@
       <c r="Y344" s="2"/>
     </row>
     <row r="345" spans="1:25">
-      <c r="A345" s="11"/>
+      <c r="A345" s="10"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -12821,7 +12887,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="J345" s="2"/>
-      <c r="K345" s="21"/>
+      <c r="K345" s="20"/>
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -12834,7 +12900,7 @@
       <c r="Y345" s="2"/>
     </row>
     <row r="346" spans="1:25">
-      <c r="A346" s="11"/>
+      <c r="A346" s="10"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -12843,7 +12909,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="J346" s="2"/>
-      <c r="K346" s="21"/>
+      <c r="K346" s="20"/>
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
@@ -12856,7 +12922,7 @@
       <c r="Y346" s="2"/>
     </row>
     <row r="347" spans="1:25">
-      <c r="A347" s="11"/>
+      <c r="A347" s="10"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -12865,7 +12931,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="J347" s="2"/>
-      <c r="K347" s="21"/>
+      <c r="K347" s="20"/>
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -12878,7 +12944,7 @@
       <c r="Y347" s="2"/>
     </row>
     <row r="348" spans="1:25">
-      <c r="A348" s="11"/>
+      <c r="A348" s="10"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -12887,7 +12953,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="J348" s="2"/>
-      <c r="K348" s="21"/>
+      <c r="K348" s="20"/>
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
@@ -12900,7 +12966,7 @@
       <c r="Y348" s="2"/>
     </row>
     <row r="349" spans="1:25">
-      <c r="A349" s="11"/>
+      <c r="A349" s="10"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -12909,7 +12975,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="J349" s="2"/>
-      <c r="K349" s="21"/>
+      <c r="K349" s="20"/>
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
@@ -12922,7 +12988,7 @@
       <c r="Y349" s="2"/>
     </row>
     <row r="350" spans="1:25">
-      <c r="A350" s="11"/>
+      <c r="A350" s="10"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -12931,7 +12997,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="J350" s="2"/>
-      <c r="K350" s="21"/>
+      <c r="K350" s="20"/>
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
       <c r="N350" s="2"/>
@@ -12944,7 +13010,7 @@
       <c r="Y350" s="2"/>
     </row>
     <row r="351" spans="1:25">
-      <c r="A351" s="11"/>
+      <c r="A351" s="10"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -12953,7 +13019,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="J351" s="2"/>
-      <c r="K351" s="21"/>
+      <c r="K351" s="20"/>
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2"/>
@@ -12966,7 +13032,7 @@
       <c r="Y351" s="2"/>
     </row>
     <row r="352" spans="1:25">
-      <c r="A352" s="11"/>
+      <c r="A352" s="10"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -12975,7 +13041,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="J352" s="2"/>
-      <c r="K352" s="21"/>
+      <c r="K352" s="20"/>
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -12988,7 +13054,7 @@
       <c r="Y352" s="2"/>
     </row>
     <row r="353" spans="1:25">
-      <c r="A353" s="11"/>
+      <c r="A353" s="10"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -12997,7 +13063,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="J353" s="2"/>
-      <c r="K353" s="21"/>
+      <c r="K353" s="20"/>
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -13010,7 +13076,7 @@
       <c r="Y353" s="2"/>
     </row>
     <row r="354" spans="1:25">
-      <c r="A354" s="11"/>
+      <c r="A354" s="10"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -13019,7 +13085,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="J354" s="2"/>
-      <c r="K354" s="21"/>
+      <c r="K354" s="20"/>
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
@@ -13032,7 +13098,7 @@
       <c r="Y354" s="2"/>
     </row>
     <row r="355" spans="1:25">
-      <c r="A355" s="11"/>
+      <c r="A355" s="10"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -13041,7 +13107,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="J355" s="2"/>
-      <c r="K355" s="21"/>
+      <c r="K355" s="20"/>
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
@@ -13054,7 +13120,7 @@
       <c r="Y355" s="2"/>
     </row>
     <row r="356" spans="1:25">
-      <c r="A356" s="11"/>
+      <c r="A356" s="10"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -13063,7 +13129,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="J356" s="2"/>
-      <c r="K356" s="21"/>
+      <c r="K356" s="20"/>
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
       <c r="N356" s="2"/>
@@ -13076,7 +13142,7 @@
       <c r="Y356" s="2"/>
     </row>
     <row r="357" spans="1:25">
-      <c r="A357" s="11"/>
+      <c r="A357" s="10"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -13085,7 +13151,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="J357" s="2"/>
-      <c r="K357" s="21"/>
+      <c r="K357" s="20"/>
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2"/>
@@ -13098,7 +13164,7 @@
       <c r="Y357" s="2"/>
     </row>
     <row r="358" spans="1:25">
-      <c r="A358" s="11"/>
+      <c r="A358" s="10"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -13107,7 +13173,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="J358" s="2"/>
-      <c r="K358" s="21"/>
+      <c r="K358" s="20"/>
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
       <c r="N358" s="2"/>
@@ -13120,7 +13186,7 @@
       <c r="Y358" s="2"/>
     </row>
     <row r="359" spans="1:25">
-      <c r="A359" s="11"/>
+      <c r="A359" s="10"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -13129,7 +13195,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="J359" s="2"/>
-      <c r="K359" s="21"/>
+      <c r="K359" s="20"/>
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
@@ -13142,7 +13208,7 @@
       <c r="Y359" s="2"/>
     </row>
     <row r="360" spans="1:25">
-      <c r="A360" s="11"/>
+      <c r="A360" s="10"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -13151,7 +13217,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="J360" s="2"/>
-      <c r="K360" s="21"/>
+      <c r="K360" s="20"/>
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
       <c r="N360" s="2"/>
@@ -13164,7 +13230,7 @@
       <c r="Y360" s="2"/>
     </row>
     <row r="361" spans="1:25">
-      <c r="A361" s="11"/>
+      <c r="A361" s="10"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -13173,7 +13239,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="J361" s="2"/>
-      <c r="K361" s="21"/>
+      <c r="K361" s="20"/>
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
@@ -13186,7 +13252,7 @@
       <c r="Y361" s="2"/>
     </row>
     <row r="362" spans="1:25">
-      <c r="A362" s="11"/>
+      <c r="A362" s="10"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -13195,7 +13261,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="J362" s="2"/>
-      <c r="K362" s="21"/>
+      <c r="K362" s="20"/>
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -13208,7 +13274,7 @@
       <c r="Y362" s="2"/>
     </row>
     <row r="363" spans="1:25">
-      <c r="A363" s="11"/>
+      <c r="A363" s="10"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -13217,7 +13283,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="J363" s="2"/>
-      <c r="K363" s="21"/>
+      <c r="K363" s="20"/>
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -13230,7 +13296,7 @@
       <c r="Y363" s="2"/>
     </row>
     <row r="364" spans="1:25">
-      <c r="A364" s="11"/>
+      <c r="A364" s="10"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -13239,7 +13305,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="J364" s="2"/>
-      <c r="K364" s="21"/>
+      <c r="K364" s="20"/>
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -13252,7 +13318,7 @@
       <c r="Y364" s="2"/>
     </row>
     <row r="365" spans="1:25">
-      <c r="A365" s="11"/>
+      <c r="A365" s="10"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -13261,7 +13327,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="J365" s="2"/>
-      <c r="K365" s="21"/>
+      <c r="K365" s="20"/>
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
       <c r="N365" s="2"/>
@@ -13274,7 +13340,7 @@
       <c r="Y365" s="2"/>
     </row>
     <row r="366" spans="1:25">
-      <c r="A366" s="11"/>
+      <c r="A366" s="10"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -13283,7 +13349,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="J366" s="2"/>
-      <c r="K366" s="21"/>
+      <c r="K366" s="20"/>
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
@@ -13296,7 +13362,7 @@
       <c r="Y366" s="2"/>
     </row>
     <row r="367" spans="1:25">
-      <c r="A367" s="11"/>
+      <c r="A367" s="10"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -13305,7 +13371,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="J367" s="2"/>
-      <c r="K367" s="21"/>
+      <c r="K367" s="20"/>
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
       <c r="N367" s="2"/>
@@ -13318,7 +13384,7 @@
       <c r="Y367" s="2"/>
     </row>
     <row r="368" spans="1:25">
-      <c r="A368" s="11"/>
+      <c r="A368" s="10"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -13327,7 +13393,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="J368" s="2"/>
-      <c r="K368" s="21"/>
+      <c r="K368" s="20"/>
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
@@ -13340,7 +13406,7 @@
       <c r="Y368" s="2"/>
     </row>
     <row r="369" spans="1:25">
-      <c r="A369" s="11"/>
+      <c r="A369" s="10"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -13349,7 +13415,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="J369" s="2"/>
-      <c r="K369" s="21"/>
+      <c r="K369" s="20"/>
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
@@ -13362,7 +13428,7 @@
       <c r="Y369" s="2"/>
     </row>
     <row r="370" spans="1:25">
-      <c r="A370" s="11"/>
+      <c r="A370" s="10"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -13371,7 +13437,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="J370" s="2"/>
-      <c r="K370" s="21"/>
+      <c r="K370" s="20"/>
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
@@ -13384,7 +13450,7 @@
       <c r="Y370" s="2"/>
     </row>
     <row r="371" spans="1:25">
-      <c r="A371" s="11"/>
+      <c r="A371" s="10"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -13393,7 +13459,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="J371" s="2"/>
-      <c r="K371" s="21"/>
+      <c r="K371" s="20"/>
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
       <c r="N371" s="2"/>
@@ -13406,7 +13472,7 @@
       <c r="Y371" s="2"/>
     </row>
     <row r="372" spans="1:25">
-      <c r="A372" s="11"/>
+      <c r="A372" s="10"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -13415,7 +13481,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="J372" s="2"/>
-      <c r="K372" s="21"/>
+      <c r="K372" s="20"/>
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
       <c r="N372" s="2"/>
@@ -13428,7 +13494,7 @@
       <c r="Y372" s="2"/>
     </row>
     <row r="373" spans="1:25">
-      <c r="A373" s="11"/>
+      <c r="A373" s="10"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -13437,7 +13503,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="J373" s="2"/>
-      <c r="K373" s="21"/>
+      <c r="K373" s="20"/>
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
       <c r="N373" s="2"/>
@@ -13450,7 +13516,7 @@
       <c r="Y373" s="2"/>
     </row>
     <row r="374" spans="1:25">
-      <c r="A374" s="11"/>
+      <c r="A374" s="10"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -13459,7 +13525,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="J374" s="2"/>
-      <c r="K374" s="21"/>
+      <c r="K374" s="20"/>
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
@@ -13472,7 +13538,7 @@
       <c r="Y374" s="2"/>
     </row>
     <row r="375" spans="1:25">
-      <c r="A375" s="11"/>
+      <c r="A375" s="10"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -13481,7 +13547,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="J375" s="2"/>
-      <c r="K375" s="21"/>
+      <c r="K375" s="20"/>
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -13494,7 +13560,7 @@
       <c r="Y375" s="2"/>
     </row>
     <row r="376" spans="1:25">
-      <c r="A376" s="11"/>
+      <c r="A376" s="10"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -13503,7 +13569,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="J376" s="2"/>
-      <c r="K376" s="21"/>
+      <c r="K376" s="20"/>
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
       <c r="N376" s="2"/>
@@ -13516,7 +13582,7 @@
       <c r="Y376" s="2"/>
     </row>
     <row r="377" spans="1:25">
-      <c r="A377" s="11"/>
+      <c r="A377" s="10"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -13525,7 +13591,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="J377" s="2"/>
-      <c r="K377" s="21"/>
+      <c r="K377" s="20"/>
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
       <c r="N377" s="2"/>
@@ -13538,7 +13604,7 @@
       <c r="Y377" s="2"/>
     </row>
     <row r="378" spans="1:25">
-      <c r="A378" s="11"/>
+      <c r="A378" s="10"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -13547,7 +13613,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="J378" s="2"/>
-      <c r="K378" s="21"/>
+      <c r="K378" s="20"/>
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
       <c r="N378" s="2"/>
@@ -13560,7 +13626,7 @@
       <c r="Y378" s="2"/>
     </row>
     <row r="379" spans="1:25">
-      <c r="A379" s="11"/>
+      <c r="A379" s="10"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -13569,7 +13635,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="J379" s="2"/>
-      <c r="K379" s="21"/>
+      <c r="K379" s="20"/>
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
@@ -13582,7 +13648,7 @@
       <c r="Y379" s="2"/>
     </row>
     <row r="380" spans="1:25">
-      <c r="A380" s="11"/>
+      <c r="A380" s="10"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -13591,7 +13657,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="J380" s="2"/>
-      <c r="K380" s="21"/>
+      <c r="K380" s="20"/>
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
       <c r="N380" s="2"/>
@@ -13604,7 +13670,7 @@
       <c r="Y380" s="2"/>
     </row>
     <row r="381" spans="1:25">
-      <c r="A381" s="11"/>
+      <c r="A381" s="10"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -13613,7 +13679,7 @@
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="J381" s="2"/>
-      <c r="K381" s="21"/>
+      <c r="K381" s="20"/>
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
       <c r="N381" s="2"/>
@@ -13626,7 +13692,7 @@
       <c r="Y381" s="2"/>
     </row>
     <row r="382" spans="1:25">
-      <c r="A382" s="11"/>
+      <c r="A382" s="10"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -13635,7 +13701,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="J382" s="2"/>
-      <c r="K382" s="21"/>
+      <c r="K382" s="20"/>
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
@@ -13648,7 +13714,7 @@
       <c r="Y382" s="2"/>
     </row>
     <row r="383" spans="1:25">
-      <c r="A383" s="11"/>
+      <c r="A383" s="10"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -13657,7 +13723,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="J383" s="2"/>
-      <c r="K383" s="21"/>
+      <c r="K383" s="20"/>
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
@@ -13670,7 +13736,7 @@
       <c r="Y383" s="2"/>
     </row>
     <row r="384" spans="1:25">
-      <c r="A384" s="11"/>
+      <c r="A384" s="10"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -13679,7 +13745,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="J384" s="2"/>
-      <c r="K384" s="21"/>
+      <c r="K384" s="20"/>
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
       <c r="N384" s="2"/>
@@ -13692,7 +13758,7 @@
       <c r="Y384" s="2"/>
     </row>
     <row r="385" spans="1:25">
-      <c r="A385" s="11"/>
+      <c r="A385" s="10"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -13701,7 +13767,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="J385" s="2"/>
-      <c r="K385" s="21"/>
+      <c r="K385" s="20"/>
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
@@ -13714,7 +13780,7 @@
       <c r="Y385" s="2"/>
     </row>
     <row r="386" spans="1:25">
-      <c r="A386" s="11"/>
+      <c r="A386" s="10"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -13723,7 +13789,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="J386" s="2"/>
-      <c r="K386" s="21"/>
+      <c r="K386" s="20"/>
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
       <c r="N386" s="2"/>
@@ -13736,7 +13802,7 @@
       <c r="Y386" s="2"/>
     </row>
     <row r="387" spans="1:25">
-      <c r="A387" s="11"/>
+      <c r="A387" s="10"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -13745,7 +13811,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="J387" s="2"/>
-      <c r="K387" s="21"/>
+      <c r="K387" s="20"/>
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
       <c r="N387" s="2"/>
@@ -13758,7 +13824,7 @@
       <c r="Y387" s="2"/>
     </row>
     <row r="388" spans="1:25">
-      <c r="A388" s="11"/>
+      <c r="A388" s="10"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -13767,7 +13833,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="J388" s="2"/>
-      <c r="K388" s="21"/>
+      <c r="K388" s="20"/>
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
@@ -13780,7 +13846,7 @@
       <c r="Y388" s="2"/>
     </row>
     <row r="389" spans="1:25">
-      <c r="A389" s="11"/>
+      <c r="A389" s="10"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -13789,7 +13855,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="J389" s="2"/>
-      <c r="K389" s="21"/>
+      <c r="K389" s="20"/>
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
       <c r="N389" s="2"/>
@@ -13802,7 +13868,7 @@
       <c r="Y389" s="2"/>
     </row>
     <row r="390" spans="1:25">
-      <c r="A390" s="11"/>
+      <c r="A390" s="10"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -13811,7 +13877,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="J390" s="2"/>
-      <c r="K390" s="21"/>
+      <c r="K390" s="20"/>
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
       <c r="N390" s="2"/>
@@ -13824,7 +13890,7 @@
       <c r="Y390" s="2"/>
     </row>
     <row r="391" spans="1:25">
-      <c r="A391" s="11"/>
+      <c r="A391" s="10"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -13833,7 +13899,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="J391" s="2"/>
-      <c r="K391" s="21"/>
+      <c r="K391" s="20"/>
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
@@ -13846,7 +13912,7 @@
       <c r="Y391" s="2"/>
     </row>
     <row r="392" spans="1:25">
-      <c r="A392" s="11"/>
+      <c r="A392" s="10"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -13855,7 +13921,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="J392" s="2"/>
-      <c r="K392" s="21"/>
+      <c r="K392" s="20"/>
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
       <c r="N392" s="2"/>
@@ -13868,7 +13934,7 @@
       <c r="Y392" s="2"/>
     </row>
     <row r="393" spans="1:25">
-      <c r="A393" s="11"/>
+      <c r="A393" s="10"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -13877,7 +13943,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="J393" s="2"/>
-      <c r="K393" s="21"/>
+      <c r="K393" s="20"/>
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
@@ -13890,7 +13956,7 @@
       <c r="Y393" s="2"/>
     </row>
     <row r="394" spans="1:25">
-      <c r="A394" s="11"/>
+      <c r="A394" s="10"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -13899,7 +13965,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="J394" s="2"/>
-      <c r="K394" s="21"/>
+      <c r="K394" s="20"/>
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
       <c r="N394" s="2"/>
@@ -13912,7 +13978,7 @@
       <c r="Y394" s="2"/>
     </row>
     <row r="395" spans="1:25">
-      <c r="A395" s="11"/>
+      <c r="A395" s="10"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -13921,7 +13987,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="J395" s="2"/>
-      <c r="K395" s="21"/>
+      <c r="K395" s="20"/>
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
@@ -13934,7 +14000,7 @@
       <c r="Y395" s="2"/>
     </row>
     <row r="396" spans="1:25">
-      <c r="A396" s="11"/>
+      <c r="A396" s="10"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -13943,7 +14009,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="J396" s="2"/>
-      <c r="K396" s="21"/>
+      <c r="K396" s="20"/>
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -13956,7 +14022,7 @@
       <c r="Y396" s="2"/>
     </row>
     <row r="397" spans="1:25">
-      <c r="A397" s="11"/>
+      <c r="A397" s="10"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -13965,7 +14031,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="J397" s="2"/>
-      <c r="K397" s="21"/>
+      <c r="K397" s="20"/>
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
@@ -13978,7 +14044,7 @@
       <c r="Y397" s="2"/>
     </row>
     <row r="398" spans="1:25">
-      <c r="A398" s="11"/>
+      <c r="A398" s="10"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -13987,7 +14053,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="J398" s="2"/>
-      <c r="K398" s="21"/>
+      <c r="K398" s="20"/>
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
       <c r="N398" s="2"/>
@@ -14000,7 +14066,7 @@
       <c r="Y398" s="2"/>
     </row>
     <row r="399" spans="1:25">
-      <c r="A399" s="11"/>
+      <c r="A399" s="10"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -14009,7 +14075,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="J399" s="2"/>
-      <c r="K399" s="21"/>
+      <c r="K399" s="20"/>
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
@@ -14022,7 +14088,7 @@
       <c r="Y399" s="2"/>
     </row>
     <row r="400" spans="1:25">
-      <c r="A400" s="11"/>
+      <c r="A400" s="10"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -14031,7 +14097,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="J400" s="2"/>
-      <c r="K400" s="21"/>
+      <c r="K400" s="20"/>
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
@@ -14044,7 +14110,7 @@
       <c r="Y400" s="2"/>
     </row>
     <row r="401" spans="1:25">
-      <c r="A401" s="11"/>
+      <c r="A401" s="10"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -14053,7 +14119,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="J401" s="2"/>
-      <c r="K401" s="21"/>
+      <c r="K401" s="20"/>
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
@@ -14066,7 +14132,7 @@
       <c r="Y401" s="2"/>
     </row>
     <row r="402" spans="1:25">
-      <c r="A402" s="11"/>
+      <c r="A402" s="10"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -14075,7 +14141,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="J402" s="2"/>
-      <c r="K402" s="21"/>
+      <c r="K402" s="20"/>
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
       <c r="N402" s="2"/>
@@ -14088,7 +14154,7 @@
       <c r="Y402" s="2"/>
     </row>
     <row r="403" spans="1:25">
-      <c r="A403" s="11"/>
+      <c r="A403" s="10"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -14097,7 +14163,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="J403" s="2"/>
-      <c r="K403" s="21"/>
+      <c r="K403" s="20"/>
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
       <c r="N403" s="2"/>
@@ -14110,7 +14176,7 @@
       <c r="Y403" s="2"/>
     </row>
     <row r="404" spans="1:25">
-      <c r="A404" s="11"/>
+      <c r="A404" s="10"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -14119,7 +14185,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="J404" s="2"/>
-      <c r="K404" s="21"/>
+      <c r="K404" s="20"/>
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
@@ -14132,7 +14198,7 @@
       <c r="Y404" s="2"/>
     </row>
     <row r="405" spans="1:25">
-      <c r="A405" s="11"/>
+      <c r="A405" s="10"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -14141,7 +14207,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="J405" s="2"/>
-      <c r="K405" s="21"/>
+      <c r="K405" s="20"/>
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
@@ -14154,7 +14220,7 @@
       <c r="Y405" s="2"/>
     </row>
     <row r="406" spans="1:25">
-      <c r="A406" s="11"/>
+      <c r="A406" s="10"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -14163,7 +14229,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="J406" s="2"/>
-      <c r="K406" s="21"/>
+      <c r="K406" s="20"/>
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
       <c r="N406" s="2"/>
@@ -14176,7 +14242,7 @@
       <c r="Y406" s="2"/>
     </row>
     <row r="407" spans="1:25">
-      <c r="A407" s="11"/>
+      <c r="A407" s="10"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -14185,7 +14251,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="J407" s="2"/>
-      <c r="K407" s="21"/>
+      <c r="K407" s="20"/>
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -14198,7 +14264,7 @@
       <c r="Y407" s="2"/>
     </row>
     <row r="408" spans="1:25">
-      <c r="A408" s="11"/>
+      <c r="A408" s="10"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -14207,7 +14273,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="J408" s="2"/>
-      <c r="K408" s="21"/>
+      <c r="K408" s="20"/>
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
       <c r="N408" s="2"/>
@@ -14220,7 +14286,7 @@
       <c r="Y408" s="2"/>
     </row>
     <row r="409" spans="1:25">
-      <c r="A409" s="11"/>
+      <c r="A409" s="10"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -14229,7 +14295,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="J409" s="2"/>
-      <c r="K409" s="21"/>
+      <c r="K409" s="20"/>
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
       <c r="N409" s="2"/>
@@ -14242,7 +14308,7 @@
       <c r="Y409" s="2"/>
     </row>
     <row r="410" spans="1:25">
-      <c r="A410" s="11"/>
+      <c r="A410" s="10"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -14251,7 +14317,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="J410" s="2"/>
-      <c r="K410" s="21"/>
+      <c r="K410" s="20"/>
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
       <c r="N410" s="2"/>
@@ -14264,7 +14330,7 @@
       <c r="Y410" s="2"/>
     </row>
     <row r="411" spans="1:25">
-      <c r="A411" s="11"/>
+      <c r="A411" s="10"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -14273,7 +14339,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="J411" s="2"/>
-      <c r="K411" s="21"/>
+      <c r="K411" s="20"/>
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
@@ -14286,7 +14352,7 @@
       <c r="Y411" s="2"/>
     </row>
     <row r="412" spans="1:25">
-      <c r="A412" s="11"/>
+      <c r="A412" s="10"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -14295,7 +14361,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="J412" s="2"/>
-      <c r="K412" s="21"/>
+      <c r="K412" s="20"/>
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
       <c r="N412" s="2"/>
@@ -14308,7 +14374,7 @@
       <c r="Y412" s="2"/>
     </row>
     <row r="413" spans="1:25">
-      <c r="A413" s="11"/>
+      <c r="A413" s="10"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -14317,7 +14383,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="J413" s="2"/>
-      <c r="K413" s="21"/>
+      <c r="K413" s="20"/>
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
@@ -14330,7 +14396,7 @@
       <c r="Y413" s="2"/>
     </row>
     <row r="414" spans="1:25">
-      <c r="A414" s="11"/>
+      <c r="A414" s="10"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -14339,7 +14405,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="J414" s="2"/>
-      <c r="K414" s="21"/>
+      <c r="K414" s="20"/>
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
       <c r="N414" s="2"/>
@@ -14352,7 +14418,7 @@
       <c r="Y414" s="2"/>
     </row>
     <row r="415" spans="1:25">
-      <c r="A415" s="11"/>
+      <c r="A415" s="10"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -14361,7 +14427,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="J415" s="2"/>
-      <c r="K415" s="21"/>
+      <c r="K415" s="20"/>
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
       <c r="N415" s="2"/>
@@ -14374,7 +14440,7 @@
       <c r="Y415" s="2"/>
     </row>
     <row r="416" spans="1:25">
-      <c r="A416" s="11"/>
+      <c r="A416" s="10"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -14383,7 +14449,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="J416" s="2"/>
-      <c r="K416" s="21"/>
+      <c r="K416" s="20"/>
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
@@ -14396,7 +14462,7 @@
       <c r="Y416" s="2"/>
     </row>
     <row r="417" spans="1:25">
-      <c r="A417" s="11"/>
+      <c r="A417" s="10"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -14405,7 +14471,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="J417" s="2"/>
-      <c r="K417" s="21"/>
+      <c r="K417" s="20"/>
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
@@ -14418,7 +14484,7 @@
       <c r="Y417" s="2"/>
     </row>
     <row r="418" spans="1:25">
-      <c r="A418" s="11"/>
+      <c r="A418" s="10"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -14427,7 +14493,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="J418" s="2"/>
-      <c r="K418" s="21"/>
+      <c r="K418" s="20"/>
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
@@ -14440,7 +14506,7 @@
       <c r="Y418" s="2"/>
     </row>
     <row r="419" spans="1:25">
-      <c r="A419" s="11"/>
+      <c r="A419" s="10"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -14449,7 +14515,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="J419" s="2"/>
-      <c r="K419" s="21"/>
+      <c r="K419" s="20"/>
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
@@ -14462,7 +14528,7 @@
       <c r="Y419" s="2"/>
     </row>
     <row r="420" spans="1:25">
-      <c r="A420" s="11"/>
+      <c r="A420" s="10"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -14471,7 +14537,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="J420" s="2"/>
-      <c r="K420" s="21"/>
+      <c r="K420" s="20"/>
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
@@ -14484,7 +14550,7 @@
       <c r="Y420" s="2"/>
     </row>
     <row r="421" spans="1:25">
-      <c r="A421" s="11"/>
+      <c r="A421" s="10"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -14493,7 +14559,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="J421" s="2"/>
-      <c r="K421" s="21"/>
+      <c r="K421" s="20"/>
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
       <c r="N421" s="2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/招商蛇口-JH_00058.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/招商蛇口-JH_00058.xlsx
@@ -3922,11 +3922,11 @@
   <dimension ref="A1:AO421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO8" sqref="AO8:AO9"/>
+      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/招商蛇口-JH_00058.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/招商蛇口-JH_00058.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26520" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,12 +248,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -296,13 +297,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -311,14 +305,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +326,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -356,23 +357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,8 +374,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,11 +410,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,9 +433,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,25 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +533,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,55 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,61 +677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,15 +735,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -752,8 +744,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,16 +801,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,187 +829,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -994,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,13 +1004,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,6 +1056,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,9 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3922,11 +3926,11 @@
   <dimension ref="A1:AO421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI7" sqref="AI7"/>
+      <selection pane="bottomRight" activeCell="AO9" sqref="AO9:AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -3985,51 +3989,51 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="22" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="25" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="35" t="s">
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35" t="s">
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="32" t="s">
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="39" t="s">
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="42" t="s">
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="44" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4044,37 +4048,37 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="21"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="22"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:41">
       <c r="A3" s="5"/>
@@ -4099,61 +4103,61 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="26" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27" t="s">
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="32" t="s">
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="21"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="22"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:41">
       <c r="A4" s="5"/>
@@ -4164,61 +4168,61 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="13"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="23" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="28" t="s">
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="28" t="s">
+      <c r="Y4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="31" t="s">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="32" t="s">
+      <c r="AE4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="21"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="22"/>
     </row>
     <row r="5" ht="71" spans="1:41">
       <c r="A5" s="5"/>
@@ -4229,73 +4233,73 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="13"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="29" t="s">
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="W5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="31" t="s">
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="35" t="s">
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="35" t="s">
+      <c r="AH5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AI5" s="35" t="s">
+      <c r="AI5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AJ5" s="35" t="s">
+      <c r="AJ5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AK5" s="40" t="s">
+      <c r="AK5" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AL5" s="40" t="s">
+      <c r="AL5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AM5" s="35" t="s">
+      <c r="AM5" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AN5" s="35" t="s">
+      <c r="AN5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AO5" s="21"/>
+      <c r="AO5" s="22"/>
     </row>
     <row r="6" ht="18" spans="1:41">
       <c r="A6" s="8">
@@ -4325,11 +4329,11 @@
       <c r="I6" s="9">
         <v>6.88</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="17">
         <f>IF(B6&gt;(D6-(D6-E6)/2),1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="18">
         <v>-0.0063</v>
       </c>
       <c r="L6" s="9"/>
@@ -4338,7 +4342,7 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="24" t="str">
+      <c r="R6" s="25" t="str">
         <f>IF(B6&lt;G6,"是","否")</f>
         <v>否</v>
       </c>
@@ -4356,20 +4360,20 @@
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-      <c r="AG6" s="36">
+      <c r="AG6" s="38">
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0173370319001387</v>
       </c>
-      <c r="AH6" s="36">
+      <c r="AH6" s="38">
         <f>($B6-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10005,6,FALSE)</f>
         <v>-0.0214088397790056</v>
       </c>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="42" t="s">
+      <c r="AO6" s="44" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4401,11 +4405,11 @@
       <c r="I7" s="9">
         <v>6.84</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="19">
         <f>IF(B7&gt;(D7-(D7-E7)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="20">
         <f>(B7-B6)/B6</f>
         <v>-0.0232886379675371</v>
       </c>
@@ -4415,7 +4419,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="24" t="str">
+      <c r="R7" s="25" t="str">
         <f>IF(B7&lt;G7,"是","否")</f>
         <v>否</v>
       </c>
@@ -4433,20 +4437,20 @@
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="38">
+      <c r="AG7" s="40">
         <f>($B7-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>-0.0402219140083218</v>
       </c>
-      <c r="AH7" s="38">
+      <c r="AH7" s="40">
         <f>($B7-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10006,6,FALSE)</f>
         <v>-0.0441988950276243</v>
       </c>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="42" t="s">
+      <c r="AO7" s="44" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4478,11 +4482,11 @@
       <c r="I8" s="9">
         <v>6.68</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="17">
         <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
         <v>-1</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="20">
         <f>(B8-B7)/B7</f>
         <v>-0.00867052023121382</v>
       </c>
@@ -4492,7 +4496,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="16" t="str">
+      <c r="R8" s="17" t="str">
         <f>IF(B8&lt;G8,"是","否")</f>
         <v>是</v>
       </c>
@@ -4510,20 +4514,20 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
-      <c r="AG8" s="38">
+      <c r="AG8" s="40">
         <f>($B8-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>-0.0485436893203883</v>
       </c>
-      <c r="AH8" s="38">
+      <c r="AH8" s="40">
         <f>($B8-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10007,6,FALSE)</f>
         <v>-0.0524861878453039</v>
       </c>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="43" t="s">
+      <c r="AO8" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4531,7 +4535,7 @@
       <c r="A9" s="8">
         <v>44608</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>13.8</v>
       </c>
       <c r="C9" s="9">
@@ -4547,7 +4551,7 @@
         <v>21.02</v>
       </c>
       <c r="G9" s="9">
-        <v>12.18</v>
+        <v>13.75</v>
       </c>
       <c r="H9" s="9">
         <v>11.66</v>
@@ -4555,11 +4559,11 @@
       <c r="I9" s="9">
         <v>6.62</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="19">
         <f>IF(B9&gt;(D9-(D9-E9)/2),1,-1)</f>
         <v>1</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="20">
         <f>(B9-B8)/B8</f>
         <v>0.00583090379008747</v>
       </c>
@@ -4569,7 +4573,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="24" t="str">
+      <c r="R9" s="26" t="str">
         <f>IF(B9&lt;G9,"是","否")</f>
         <v>否</v>
       </c>
@@ -4587,20 +4591,20 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
-      <c r="AG9" s="38">
+      <c r="AG9" s="40">
         <f>($B9-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>-0.0429958391123439</v>
       </c>
-      <c r="AH9" s="38">
+      <c r="AH9" s="40">
         <f>($B9-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10008,6,FALSE)</f>
         <v>-0.0469613259668508</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="43" t="s">
+      <c r="AO9" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4608,23 +4612,48 @@
       <c r="A10" s="8">
         <v>44609</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
+      <c r="B10" s="9">
+        <v>13.48</v>
+      </c>
+      <c r="C10" s="9">
+        <v>13.81</v>
+      </c>
+      <c r="D10" s="9">
+        <v>13.83</v>
+      </c>
+      <c r="E10" s="9">
+        <v>13.43</v>
+      </c>
+      <c r="F10" s="9">
+        <v>16.67</v>
+      </c>
+      <c r="G10" s="9">
+        <v>13.72</v>
+      </c>
+      <c r="H10" s="9">
+        <v>13.22</v>
+      </c>
+      <c r="I10" s="9">
+        <v>6.66</v>
+      </c>
+      <c r="J10" s="17">
+        <f>IF(B10&gt;(D10-(D10-E10)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="20">
+        <f>(B10-B9)/B9</f>
+        <v>-0.0231884057971015</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="R10" s="17" t="str">
+        <f>IF(B10&lt;G10,"是","否")</f>
+        <v>是</v>
+      </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
@@ -4639,14 +4668,22 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
+      <c r="AG10" s="40">
+        <f>($B10-VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$48,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <v>-0.0651872399445215</v>
+      </c>
+      <c r="AH10" s="40">
+        <f>($B10-VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$49,[1]交易计划及执行表!$A$4:$BL10009,6,FALSE)</f>
+        <v>-0.069060773480663</v>
+      </c>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="39"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
+      <c r="AO10" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:41">
       <c r="A11" s="8">
@@ -4661,7 +4698,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -4683,12 +4720,12 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="39"/>
+      <c r="AL11" s="39"/>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
     </row>
@@ -4705,7 +4742,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4727,12 +4764,12 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="39"/>
+      <c r="AL12" s="39"/>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
     </row>
@@ -4749,7 +4786,7 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="17"/>
+      <c r="K13" s="18"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -4771,12 +4808,12 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="39"/>
+      <c r="AL13" s="39"/>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
     </row>
@@ -4793,7 +4830,7 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -4815,12 +4852,12 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
     </row>
@@ -4837,7 +4874,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="18"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -4859,12 +4896,12 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="39"/>
+      <c r="AL15" s="39"/>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
     </row>
@@ -4881,7 +4918,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -4903,12 +4940,12 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
     </row>
@@ -4925,7 +4962,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="17"/>
+      <c r="K17" s="18"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -4947,12 +4984,12 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="39"/>
+      <c r="AL17" s="39"/>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
     </row>
@@ -4969,7 +5006,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="17"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -4991,12 +5028,12 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
     </row>
@@ -5013,7 +5050,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -5035,12 +5072,12 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
     </row>
@@ -5057,7 +5094,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -5079,12 +5116,12 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
     </row>
@@ -5101,7 +5138,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -5123,12 +5160,12 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
     </row>
@@ -5145,7 +5182,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="17"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -5167,12 +5204,12 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
     </row>
@@ -5189,7 +5226,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -5211,12 +5248,12 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="37"/>
-      <c r="AH23" s="37"/>
-      <c r="AI23" s="37"/>
-      <c r="AJ23" s="37"/>
-      <c r="AK23" s="37"/>
-      <c r="AL23" s="37"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="39"/>
+      <c r="AL23" s="39"/>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
     </row>
@@ -5233,7 +5270,7 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="17"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -5255,12 +5292,12 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="37"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="37"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="37"/>
-      <c r="AL24" s="37"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
     </row>
@@ -5277,7 +5314,7 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -5299,12 +5336,12 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="37"/>
-      <c r="AI25" s="37"/>
-      <c r="AJ25" s="37"/>
-      <c r="AK25" s="37"/>
-      <c r="AL25" s="37"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="39"/>
+      <c r="AL25" s="39"/>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
     </row>
@@ -5321,7 +5358,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="17"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -5343,12 +5380,12 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-      <c r="AJ26" s="37"/>
-      <c r="AK26" s="37"/>
-      <c r="AL26" s="37"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
     </row>
@@ -5365,7 +5402,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -5387,12 +5424,12 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
-      <c r="AG27" s="37"/>
-      <c r="AH27" s="37"/>
-      <c r="AI27" s="37"/>
-      <c r="AJ27" s="37"/>
-      <c r="AK27" s="37"/>
-      <c r="AL27" s="37"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="39"/>
+      <c r="AL27" s="39"/>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
     </row>
@@ -5409,7 +5446,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -5431,12 +5468,12 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="37"/>
-      <c r="AI28" s="37"/>
-      <c r="AJ28" s="37"/>
-      <c r="AK28" s="37"/>
-      <c r="AL28" s="37"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="39"/>
+      <c r="AL28" s="39"/>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
     </row>
@@ -5453,7 +5490,7 @@
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -5475,12 +5512,12 @@
       <c r="AD29" s="4"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="39"/>
+      <c r="AL29" s="39"/>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
     </row>
@@ -5497,7 +5534,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -5519,12 +5556,12 @@
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="37"/>
-      <c r="AI30" s="37"/>
-      <c r="AJ30" s="37"/>
-      <c r="AK30" s="37"/>
-      <c r="AL30" s="37"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="39"/>
+      <c r="AL30" s="39"/>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
     </row>
@@ -5541,7 +5578,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -5563,12 +5600,12 @@
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="39"/>
+      <c r="AL31" s="39"/>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
     </row>
@@ -5585,7 +5622,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -5607,12 +5644,12 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
-      <c r="AJ32" s="37"/>
-      <c r="AK32" s="37"/>
-      <c r="AL32" s="37"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="39"/>
+      <c r="AL32" s="39"/>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
     </row>
@@ -5629,7 +5666,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="17"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -5651,12 +5688,12 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="37"/>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37"/>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37"/>
-      <c r="AL33" s="37"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="39"/>
+      <c r="AL33" s="39"/>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
     </row>
@@ -5673,7 +5710,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="17"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -5695,12 +5732,12 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
     </row>
@@ -5717,7 +5754,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="17"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -5739,12 +5776,12 @@
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
-      <c r="AG35" s="37"/>
-      <c r="AH35" s="37"/>
-      <c r="AI35" s="37"/>
-      <c r="AJ35" s="37"/>
-      <c r="AK35" s="37"/>
-      <c r="AL35" s="37"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="39"/>
+      <c r="AL35" s="39"/>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
     </row>
@@ -5761,7 +5798,7 @@
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="17"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -5783,12 +5820,12 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="37"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="37"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
     </row>
@@ -5805,7 +5842,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="17"/>
+      <c r="K37" s="18"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -5827,12 +5864,12 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="37"/>
-      <c r="AJ37" s="37"/>
-      <c r="AK37" s="37"/>
-      <c r="AL37" s="37"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
     </row>
@@ -5849,7 +5886,7 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="17"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -5871,12 +5908,12 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="39"/>
+      <c r="AL38" s="39"/>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
     </row>
@@ -5893,7 +5930,7 @@
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="17"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -5915,12 +5952,12 @@
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="37"/>
-      <c r="AJ39" s="37"/>
-      <c r="AK39" s="37"/>
-      <c r="AL39" s="37"/>
+      <c r="AG39" s="39"/>
+      <c r="AH39" s="39"/>
+      <c r="AI39" s="39"/>
+      <c r="AJ39" s="39"/>
+      <c r="AK39" s="39"/>
+      <c r="AL39" s="39"/>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
     </row>
@@ -5937,7 +5974,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="17"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -5959,12 +5996,12 @@
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="37"/>
-      <c r="AH40" s="37"/>
-      <c r="AI40" s="37"/>
-      <c r="AJ40" s="37"/>
-      <c r="AK40" s="37"/>
-      <c r="AL40" s="37"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="39"/>
+      <c r="AL40" s="39"/>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
     </row>
@@ -5981,7 +6018,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="17"/>
+      <c r="K41" s="18"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -6003,12 +6040,12 @@
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="37"/>
-      <c r="AL41" s="37"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+      <c r="AI41" s="39"/>
+      <c r="AJ41" s="39"/>
+      <c r="AK41" s="39"/>
+      <c r="AL41" s="39"/>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
     </row>
@@ -6025,7 +6062,7 @@
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="17"/>
+      <c r="K42" s="18"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -6047,12 +6084,12 @@
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="37"/>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="37"/>
-      <c r="AL42" s="37"/>
+      <c r="AG42" s="39"/>
+      <c r="AH42" s="39"/>
+      <c r="AI42" s="39"/>
+      <c r="AJ42" s="39"/>
+      <c r="AK42" s="39"/>
+      <c r="AL42" s="39"/>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
     </row>
@@ -6069,7 +6106,7 @@
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="17"/>
+      <c r="K43" s="18"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -6091,12 +6128,12 @@
       <c r="AD43" s="4"/>
       <c r="AE43" s="4"/>
       <c r="AF43" s="4"/>
-      <c r="AG43" s="37"/>
-      <c r="AH43" s="37"/>
-      <c r="AI43" s="37"/>
-      <c r="AJ43" s="37"/>
-      <c r="AK43" s="37"/>
-      <c r="AL43" s="37"/>
+      <c r="AG43" s="39"/>
+      <c r="AH43" s="39"/>
+      <c r="AI43" s="39"/>
+      <c r="AJ43" s="39"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="39"/>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
     </row>
@@ -6113,7 +6150,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="17"/>
+      <c r="K44" s="18"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -6135,12 +6172,12 @@
       <c r="AD44" s="4"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="4"/>
-      <c r="AG44" s="37"/>
-      <c r="AH44" s="37"/>
-      <c r="AI44" s="37"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-      <c r="AL44" s="37"/>
+      <c r="AG44" s="39"/>
+      <c r="AH44" s="39"/>
+      <c r="AI44" s="39"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="39"/>
+      <c r="AL44" s="39"/>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
     </row>
@@ -6157,7 +6194,7 @@
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="17"/>
+      <c r="K45" s="18"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -6179,12 +6216,12 @@
       <c r="AD45" s="4"/>
       <c r="AE45" s="4"/>
       <c r="AF45" s="4"/>
-      <c r="AG45" s="37"/>
-      <c r="AH45" s="37"/>
-      <c r="AI45" s="37"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-      <c r="AL45" s="37"/>
+      <c r="AG45" s="39"/>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="39"/>
+      <c r="AJ45" s="39"/>
+      <c r="AK45" s="39"/>
+      <c r="AL45" s="39"/>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
     </row>
@@ -6201,7 +6238,7 @@
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="17"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -6223,12 +6260,12 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
-      <c r="AG46" s="37"/>
-      <c r="AH46" s="37"/>
-      <c r="AI46" s="37"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="37"/>
-      <c r="AL46" s="37"/>
+      <c r="AG46" s="39"/>
+      <c r="AH46" s="39"/>
+      <c r="AI46" s="39"/>
+      <c r="AJ46" s="39"/>
+      <c r="AK46" s="39"/>
+      <c r="AL46" s="39"/>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
     </row>
@@ -6245,7 +6282,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="17"/>
+      <c r="K47" s="18"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -6267,12 +6304,12 @@
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-      <c r="AL47" s="37"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39"/>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
     </row>
@@ -6289,7 +6326,7 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="17"/>
+      <c r="K48" s="18"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -6311,12 +6348,12 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="37"/>
-      <c r="AH48" s="37"/>
-      <c r="AI48" s="37"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="37"/>
-      <c r="AL48" s="37"/>
+      <c r="AG48" s="39"/>
+      <c r="AH48" s="39"/>
+      <c r="AI48" s="39"/>
+      <c r="AJ48" s="39"/>
+      <c r="AK48" s="39"/>
+      <c r="AL48" s="39"/>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
     </row>
@@ -6333,7 +6370,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="17"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -6355,12 +6392,12 @@
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
-      <c r="AG49" s="37"/>
-      <c r="AH49" s="37"/>
-      <c r="AI49" s="37"/>
-      <c r="AJ49" s="37"/>
-      <c r="AK49" s="37"/>
-      <c r="AL49" s="37"/>
+      <c r="AG49" s="39"/>
+      <c r="AH49" s="39"/>
+      <c r="AI49" s="39"/>
+      <c r="AJ49" s="39"/>
+      <c r="AK49" s="39"/>
+      <c r="AL49" s="39"/>
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
     </row>
@@ -6377,7 +6414,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="17"/>
+      <c r="K50" s="18"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -6399,17 +6436,17 @@
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="37"/>
-      <c r="AI50" s="37"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="37"/>
-      <c r="AL50" s="37"/>
+      <c r="AG50" s="39"/>
+      <c r="AH50" s="39"/>
+      <c r="AI50" s="39"/>
+      <c r="AJ50" s="39"/>
+      <c r="AK50" s="39"/>
+      <c r="AL50" s="39"/>
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
     </row>
     <row r="51" spans="1:39">
-      <c r="A51" s="10"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -6418,7 +6455,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6429,10 +6466,10 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="Y51" s="2"/>
-      <c r="AM51" s="41"/>
+      <c r="AM51" s="43"/>
     </row>
     <row r="52" spans="1:25">
-      <c r="A52" s="10"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -6441,7 +6478,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="21"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6454,7 +6491,7 @@
       <c r="Y52" s="2"/>
     </row>
     <row r="53" spans="1:25">
-      <c r="A53" s="10"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -6463,7 +6500,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="21"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6476,7 +6513,7 @@
       <c r="Y53" s="2"/>
     </row>
     <row r="54" spans="1:25">
-      <c r="A54" s="10"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -6485,7 +6522,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="21"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6498,7 +6535,7 @@
       <c r="Y54" s="2"/>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="10"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -6507,7 +6544,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="21"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6520,7 +6557,7 @@
       <c r="Y55" s="2"/>
     </row>
     <row r="56" spans="1:25">
-      <c r="A56" s="10"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -6529,7 +6566,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="21"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6542,7 +6579,7 @@
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:25">
-      <c r="A57" s="10"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -6551,7 +6588,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="21"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6564,7 +6601,7 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:25">
-      <c r="A58" s="10"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -6573,7 +6610,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="21"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6586,7 +6623,7 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:25">
-      <c r="A59" s="10"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -6595,7 +6632,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="21"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6608,7 +6645,7 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:25">
-      <c r="A60" s="10"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -6617,7 +6654,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="21"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6630,7 +6667,7 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:25">
-      <c r="A61" s="10"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -6639,7 +6676,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="21"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -6652,7 +6689,7 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:25">
-      <c r="A62" s="10"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -6661,7 +6698,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="21"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -6674,7 +6711,7 @@
       <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:25">
-      <c r="A63" s="10"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -6683,7 +6720,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="21"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -6696,7 +6733,7 @@
       <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -6705,7 +6742,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="J64" s="2"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="21"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -6718,7 +6755,7 @@
       <c r="Y64" s="2"/>
     </row>
     <row r="65" spans="1:25">
-      <c r="A65" s="10"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -6727,7 +6764,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="21"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -6740,7 +6777,7 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25">
-      <c r="A66" s="10"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -6749,7 +6786,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="J66" s="2"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="21"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -6762,7 +6799,7 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25">
-      <c r="A67" s="10"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -6771,7 +6808,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="21"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -6784,7 +6821,7 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25">
-      <c r="A68" s="10"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -6793,7 +6830,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="J68" s="2"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="21"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -6806,7 +6843,7 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25">
-      <c r="A69" s="10"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -6815,7 +6852,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="21"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -6828,7 +6865,7 @@
       <c r="Y69" s="2"/>
     </row>
     <row r="70" spans="1:25">
-      <c r="A70" s="10"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -6837,7 +6874,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="J70" s="2"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="21"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -6850,7 +6887,7 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25">
-      <c r="A71" s="10"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -6859,7 +6896,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="21"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -6872,7 +6909,7 @@
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25">
-      <c r="A72" s="10"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -6881,7 +6918,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="J72" s="2"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="21"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -6894,7 +6931,7 @@
       <c r="Y72" s="2"/>
     </row>
     <row r="73" spans="1:25">
-      <c r="A73" s="10"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -6903,7 +6940,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="21"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -6916,7 +6953,7 @@
       <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25">
-      <c r="A74" s="10"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -6925,7 +6962,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="21"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -6938,7 +6975,7 @@
       <c r="Y74" s="2"/>
     </row>
     <row r="75" spans="1:25">
-      <c r="A75" s="10"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -6947,7 +6984,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -6960,7 +6997,7 @@
       <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25">
-      <c r="A76" s="10"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -6969,7 +7006,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="J76" s="2"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -6982,7 +7019,7 @@
       <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="1:25">
-      <c r="A77" s="10"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -6991,7 +7028,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="20"/>
+      <c r="K77" s="21"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -7004,7 +7041,7 @@
       <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:25">
-      <c r="A78" s="10"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -7013,7 +7050,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="J78" s="2"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="21"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -7026,7 +7063,7 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25">
-      <c r="A79" s="10"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -7035,7 +7072,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="21"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -7048,7 +7085,7 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25">
-      <c r="A80" s="10"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -7057,7 +7094,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="J80" s="2"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="21"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -7070,7 +7107,7 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25">
-      <c r="A81" s="10"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -7079,7 +7116,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="21"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -7092,7 +7129,7 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25">
-      <c r="A82" s="10"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -7101,7 +7138,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="J82" s="2"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="21"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -7114,7 +7151,7 @@
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -7123,7 +7160,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="21"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -7136,7 +7173,7 @@
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25">
-      <c r="A84" s="10"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7145,7 +7182,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="J84" s="2"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="21"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -7158,7 +7195,7 @@
       <c r="Y84" s="2"/>
     </row>
     <row r="85" spans="1:25">
-      <c r="A85" s="10"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -7167,7 +7204,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="21"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -7180,7 +7217,7 @@
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25">
-      <c r="A86" s="10"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -7189,7 +7226,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="J86" s="2"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="21"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -7202,7 +7239,7 @@
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25">
-      <c r="A87" s="10"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -7211,7 +7248,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="J87" s="2"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="21"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -7224,7 +7261,7 @@
       <c r="Y87" s="2"/>
     </row>
     <row r="88" spans="1:25">
-      <c r="A88" s="10"/>
+      <c r="A88" s="11"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -7233,7 +7270,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="21"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -7246,7 +7283,7 @@
       <c r="Y88" s="2"/>
     </row>
     <row r="89" spans="1:25">
-      <c r="A89" s="10"/>
+      <c r="A89" s="11"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -7255,7 +7292,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="J89" s="2"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="21"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -7268,7 +7305,7 @@
       <c r="Y89" s="2"/>
     </row>
     <row r="90" spans="1:25">
-      <c r="A90" s="10"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -7277,7 +7314,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="J90" s="2"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="21"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -7290,7 +7327,7 @@
       <c r="Y90" s="2"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="A91" s="10"/>
+      <c r="A91" s="11"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -7299,7 +7336,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="J91" s="2"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="21"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -7312,7 +7349,7 @@
       <c r="Y91" s="2"/>
     </row>
     <row r="92" spans="1:25">
-      <c r="A92" s="10"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -7321,7 +7358,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="J92" s="2"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="21"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -7334,7 +7371,7 @@
       <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:25">
-      <c r="A93" s="10"/>
+      <c r="A93" s="11"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -7343,7 +7380,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="J93" s="2"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="21"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -7356,7 +7393,7 @@
       <c r="Y93" s="2"/>
     </row>
     <row r="94" spans="1:25">
-      <c r="A94" s="10"/>
+      <c r="A94" s="11"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -7365,7 +7402,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="J94" s="2"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="21"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -7378,7 +7415,7 @@
       <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" s="10"/>
+      <c r="A95" s="11"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -7387,7 +7424,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="J95" s="2"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="21"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -7400,7 +7437,7 @@
       <c r="Y95" s="2"/>
     </row>
     <row r="96" spans="1:25">
-      <c r="A96" s="10"/>
+      <c r="A96" s="11"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -7409,7 +7446,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="J96" s="2"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="21"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -7422,7 +7459,7 @@
       <c r="Y96" s="2"/>
     </row>
     <row r="97" spans="1:25">
-      <c r="A97" s="10"/>
+      <c r="A97" s="11"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -7431,7 +7468,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="J97" s="2"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="21"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -7444,7 +7481,7 @@
       <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:25">
-      <c r="A98" s="10"/>
+      <c r="A98" s="11"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -7453,7 +7490,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="J98" s="2"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="21"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -7466,7 +7503,7 @@
       <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:25">
-      <c r="A99" s="10"/>
+      <c r="A99" s="11"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -7475,7 +7512,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="J99" s="2"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="21"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -7488,7 +7525,7 @@
       <c r="Y99" s="2"/>
     </row>
     <row r="100" spans="1:25">
-      <c r="A100" s="10"/>
+      <c r="A100" s="11"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -7497,7 +7534,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="J100" s="2"/>
-      <c r="K100" s="20"/>
+      <c r="K100" s="21"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -7510,7 +7547,7 @@
       <c r="Y100" s="2"/>
     </row>
     <row r="101" spans="1:25">
-      <c r="A101" s="10"/>
+      <c r="A101" s="11"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -7519,7 +7556,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="J101" s="2"/>
-      <c r="K101" s="20"/>
+      <c r="K101" s="21"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -7532,7 +7569,7 @@
       <c r="Y101" s="2"/>
     </row>
     <row r="102" spans="1:25">
-      <c r="A102" s="10"/>
+      <c r="A102" s="11"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -7541,7 +7578,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="J102" s="2"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="21"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -7554,7 +7591,7 @@
       <c r="Y102" s="2"/>
     </row>
     <row r="103" spans="1:25">
-      <c r="A103" s="10"/>
+      <c r="A103" s="11"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -7563,7 +7600,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="21"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -7576,7 +7613,7 @@
       <c r="Y103" s="2"/>
     </row>
     <row r="104" spans="1:25">
-      <c r="A104" s="10"/>
+      <c r="A104" s="11"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -7585,7 +7622,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="J104" s="2"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="21"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -7598,7 +7635,7 @@
       <c r="Y104" s="2"/>
     </row>
     <row r="105" spans="1:25">
-      <c r="A105" s="10"/>
+      <c r="A105" s="11"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -7607,7 +7644,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="J105" s="2"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="21"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -7620,7 +7657,7 @@
       <c r="Y105" s="2"/>
     </row>
     <row r="106" spans="1:25">
-      <c r="A106" s="10"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -7629,7 +7666,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="K106" s="20"/>
+      <c r="K106" s="21"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -7642,7 +7679,7 @@
       <c r="Y106" s="2"/>
     </row>
     <row r="107" spans="1:25">
-      <c r="A107" s="10"/>
+      <c r="A107" s="11"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -7651,7 +7688,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="J107" s="2"/>
-      <c r="K107" s="20"/>
+      <c r="K107" s="21"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -7664,7 +7701,7 @@
       <c r="Y107" s="2"/>
     </row>
     <row r="108" spans="1:25">
-      <c r="A108" s="10"/>
+      <c r="A108" s="11"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -7673,7 +7710,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="J108" s="2"/>
-      <c r="K108" s="20"/>
+      <c r="K108" s="21"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -7686,7 +7723,7 @@
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:25">
-      <c r="A109" s="10"/>
+      <c r="A109" s="11"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -7695,7 +7732,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="J109" s="2"/>
-      <c r="K109" s="20"/>
+      <c r="K109" s="21"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -7708,7 +7745,7 @@
       <c r="Y109" s="2"/>
     </row>
     <row r="110" spans="1:25">
-      <c r="A110" s="10"/>
+      <c r="A110" s="11"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -7717,7 +7754,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="J110" s="2"/>
-      <c r="K110" s="20"/>
+      <c r="K110" s="21"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -7730,7 +7767,7 @@
       <c r="Y110" s="2"/>
     </row>
     <row r="111" spans="1:25">
-      <c r="A111" s="10"/>
+      <c r="A111" s="11"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -7739,7 +7776,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="J111" s="2"/>
-      <c r="K111" s="20"/>
+      <c r="K111" s="21"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -7752,7 +7789,7 @@
       <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:25">
-      <c r="A112" s="10"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -7761,7 +7798,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="J112" s="2"/>
-      <c r="K112" s="20"/>
+      <c r="K112" s="21"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -7774,7 +7811,7 @@
       <c r="Y112" s="2"/>
     </row>
     <row r="113" spans="1:25">
-      <c r="A113" s="10"/>
+      <c r="A113" s="11"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -7783,7 +7820,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="J113" s="2"/>
-      <c r="K113" s="20"/>
+      <c r="K113" s="21"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -7796,7 +7833,7 @@
       <c r="Y113" s="2"/>
     </row>
     <row r="114" spans="1:25">
-      <c r="A114" s="10"/>
+      <c r="A114" s="11"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -7805,7 +7842,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="J114" s="2"/>
-      <c r="K114" s="20"/>
+      <c r="K114" s="21"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -7818,7 +7855,7 @@
       <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:25">
-      <c r="A115" s="10"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -7827,7 +7864,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="J115" s="2"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="21"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -7840,7 +7877,7 @@
       <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:25">
-      <c r="A116" s="10"/>
+      <c r="A116" s="11"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -7849,7 +7886,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="J116" s="2"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="21"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -7862,7 +7899,7 @@
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25">
-      <c r="A117" s="10"/>
+      <c r="A117" s="11"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -7871,7 +7908,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="J117" s="2"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="21"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -7884,7 +7921,7 @@
       <c r="Y117" s="2"/>
     </row>
     <row r="118" spans="1:25">
-      <c r="A118" s="10"/>
+      <c r="A118" s="11"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -7893,7 +7930,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="J118" s="2"/>
-      <c r="K118" s="20"/>
+      <c r="K118" s="21"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -7906,7 +7943,7 @@
       <c r="Y118" s="2"/>
     </row>
     <row r="119" spans="1:25">
-      <c r="A119" s="10"/>
+      <c r="A119" s="11"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -7915,7 +7952,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="J119" s="2"/>
-      <c r="K119" s="20"/>
+      <c r="K119" s="21"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -7928,7 +7965,7 @@
       <c r="Y119" s="2"/>
     </row>
     <row r="120" spans="1:25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="11"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -7937,7 +7974,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="J120" s="2"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="21"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -7950,7 +7987,7 @@
       <c r="Y120" s="2"/>
     </row>
     <row r="121" spans="1:25">
-      <c r="A121" s="10"/>
+      <c r="A121" s="11"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -7959,7 +7996,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="J121" s="2"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="21"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
@@ -7972,7 +8009,7 @@
       <c r="Y121" s="2"/>
     </row>
     <row r="122" spans="1:25">
-      <c r="A122" s="10"/>
+      <c r="A122" s="11"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -7981,7 +8018,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="J122" s="2"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="21"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -7994,7 +8031,7 @@
       <c r="Y122" s="2"/>
     </row>
     <row r="123" spans="1:25">
-      <c r="A123" s="10"/>
+      <c r="A123" s="11"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -8003,7 +8040,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="J123" s="2"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="21"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -8016,7 +8053,7 @@
       <c r="Y123" s="2"/>
     </row>
     <row r="124" spans="1:25">
-      <c r="A124" s="10"/>
+      <c r="A124" s="11"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -8025,7 +8062,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="J124" s="2"/>
-      <c r="K124" s="20"/>
+      <c r="K124" s="21"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -8038,7 +8075,7 @@
       <c r="Y124" s="2"/>
     </row>
     <row r="125" spans="1:25">
-      <c r="A125" s="10"/>
+      <c r="A125" s="11"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -8047,7 +8084,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="J125" s="2"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="21"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -8060,7 +8097,7 @@
       <c r="Y125" s="2"/>
     </row>
     <row r="126" spans="1:25">
-      <c r="A126" s="10"/>
+      <c r="A126" s="11"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -8069,7 +8106,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="J126" s="2"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="21"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -8082,7 +8119,7 @@
       <c r="Y126" s="2"/>
     </row>
     <row r="127" spans="1:25">
-      <c r="A127" s="10"/>
+      <c r="A127" s="11"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -8091,7 +8128,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="20"/>
+      <c r="K127" s="21"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -8104,7 +8141,7 @@
       <c r="Y127" s="2"/>
     </row>
     <row r="128" spans="1:25">
-      <c r="A128" s="10"/>
+      <c r="A128" s="11"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -8113,7 +8150,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="J128" s="2"/>
-      <c r="K128" s="20"/>
+      <c r="K128" s="21"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -8126,7 +8163,7 @@
       <c r="Y128" s="2"/>
     </row>
     <row r="129" spans="1:25">
-      <c r="A129" s="10"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -8135,7 +8172,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="J129" s="2"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="21"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
@@ -8148,7 +8185,7 @@
       <c r="Y129" s="2"/>
     </row>
     <row r="130" spans="1:25">
-      <c r="A130" s="10"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -8157,7 +8194,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="J130" s="2"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="21"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -8170,7 +8207,7 @@
       <c r="Y130" s="2"/>
     </row>
     <row r="131" spans="1:25">
-      <c r="A131" s="10"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -8179,7 +8216,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="J131" s="2"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="21"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -8192,7 +8229,7 @@
       <c r="Y131" s="2"/>
     </row>
     <row r="132" spans="1:25">
-      <c r="A132" s="10"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -8201,7 +8238,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="J132" s="2"/>
-      <c r="K132" s="20"/>
+      <c r="K132" s="21"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -8214,7 +8251,7 @@
       <c r="Y132" s="2"/>
     </row>
     <row r="133" spans="1:25">
-      <c r="A133" s="10"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -8223,7 +8260,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="J133" s="2"/>
-      <c r="K133" s="20"/>
+      <c r="K133" s="21"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -8236,7 +8273,7 @@
       <c r="Y133" s="2"/>
     </row>
     <row r="134" spans="1:25">
-      <c r="A134" s="10"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -8245,7 +8282,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="J134" s="2"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="21"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -8258,7 +8295,7 @@
       <c r="Y134" s="2"/>
     </row>
     <row r="135" spans="1:25">
-      <c r="A135" s="10"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -8267,7 +8304,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="J135" s="2"/>
-      <c r="K135" s="20"/>
+      <c r="K135" s="21"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
@@ -8280,7 +8317,7 @@
       <c r="Y135" s="2"/>
     </row>
     <row r="136" spans="1:25">
-      <c r="A136" s="10"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -8289,7 +8326,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="J136" s="2"/>
-      <c r="K136" s="20"/>
+      <c r="K136" s="21"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -8302,7 +8339,7 @@
       <c r="Y136" s="2"/>
     </row>
     <row r="137" spans="1:25">
-      <c r="A137" s="10"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -8311,7 +8348,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="J137" s="2"/>
-      <c r="K137" s="20"/>
+      <c r="K137" s="21"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
@@ -8324,7 +8361,7 @@
       <c r="Y137" s="2"/>
     </row>
     <row r="138" spans="1:25">
-      <c r="A138" s="10"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -8333,7 +8370,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="J138" s="2"/>
-      <c r="K138" s="20"/>
+      <c r="K138" s="21"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -8346,7 +8383,7 @@
       <c r="Y138" s="2"/>
     </row>
     <row r="139" spans="1:25">
-      <c r="A139" s="10"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -8355,7 +8392,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="J139" s="2"/>
-      <c r="K139" s="20"/>
+      <c r="K139" s="21"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -8368,7 +8405,7 @@
       <c r="Y139" s="2"/>
     </row>
     <row r="140" spans="1:25">
-      <c r="A140" s="10"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -8377,7 +8414,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="20"/>
+      <c r="K140" s="21"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -8390,7 +8427,7 @@
       <c r="Y140" s="2"/>
     </row>
     <row r="141" spans="1:25">
-      <c r="A141" s="10"/>
+      <c r="A141" s="11"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -8399,7 +8436,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="20"/>
+      <c r="K141" s="21"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -8412,7 +8449,7 @@
       <c r="Y141" s="2"/>
     </row>
     <row r="142" spans="1:25">
-      <c r="A142" s="10"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -8421,7 +8458,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="J142" s="2"/>
-      <c r="K142" s="20"/>
+      <c r="K142" s="21"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -8434,7 +8471,7 @@
       <c r="Y142" s="2"/>
     </row>
     <row r="143" spans="1:25">
-      <c r="A143" s="10"/>
+      <c r="A143" s="11"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -8443,7 +8480,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="J143" s="2"/>
-      <c r="K143" s="20"/>
+      <c r="K143" s="21"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -8456,7 +8493,7 @@
       <c r="Y143" s="2"/>
     </row>
     <row r="144" spans="1:25">
-      <c r="A144" s="10"/>
+      <c r="A144" s="11"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -8465,7 +8502,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="20"/>
+      <c r="K144" s="21"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
@@ -8478,7 +8515,7 @@
       <c r="Y144" s="2"/>
     </row>
     <row r="145" spans="1:25">
-      <c r="A145" s="10"/>
+      <c r="A145" s="11"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -8487,7 +8524,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="20"/>
+      <c r="K145" s="21"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -8500,7 +8537,7 @@
       <c r="Y145" s="2"/>
     </row>
     <row r="146" spans="1:25">
-      <c r="A146" s="10"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -8509,7 +8546,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="20"/>
+      <c r="K146" s="21"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
@@ -8522,7 +8559,7 @@
       <c r="Y146" s="2"/>
     </row>
     <row r="147" spans="1:25">
-      <c r="A147" s="10"/>
+      <c r="A147" s="11"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -8531,7 +8568,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="20"/>
+      <c r="K147" s="21"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -8544,7 +8581,7 @@
       <c r="Y147" s="2"/>
     </row>
     <row r="148" spans="1:25">
-      <c r="A148" s="10"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8553,7 +8590,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="J148" s="2"/>
-      <c r="K148" s="20"/>
+      <c r="K148" s="21"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -8566,7 +8603,7 @@
       <c r="Y148" s="2"/>
     </row>
     <row r="149" spans="1:25">
-      <c r="A149" s="10"/>
+      <c r="A149" s="11"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -8575,7 +8612,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="J149" s="2"/>
-      <c r="K149" s="20"/>
+      <c r="K149" s="21"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -8588,7 +8625,7 @@
       <c r="Y149" s="2"/>
     </row>
     <row r="150" spans="1:25">
-      <c r="A150" s="10"/>
+      <c r="A150" s="11"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -8597,7 +8634,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="20"/>
+      <c r="K150" s="21"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -8610,7 +8647,7 @@
       <c r="Y150" s="2"/>
     </row>
     <row r="151" spans="1:25">
-      <c r="A151" s="10"/>
+      <c r="A151" s="11"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -8619,7 +8656,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="20"/>
+      <c r="K151" s="21"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -8632,7 +8669,7 @@
       <c r="Y151" s="2"/>
     </row>
     <row r="152" spans="1:25">
-      <c r="A152" s="10"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -8641,7 +8678,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="J152" s="2"/>
-      <c r="K152" s="20"/>
+      <c r="K152" s="21"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -8654,7 +8691,7 @@
       <c r="Y152" s="2"/>
     </row>
     <row r="153" spans="1:25">
-      <c r="A153" s="10"/>
+      <c r="A153" s="11"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -8663,7 +8700,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="J153" s="2"/>
-      <c r="K153" s="20"/>
+      <c r="K153" s="21"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -8676,7 +8713,7 @@
       <c r="Y153" s="2"/>
     </row>
     <row r="154" spans="1:25">
-      <c r="A154" s="10"/>
+      <c r="A154" s="11"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -8685,7 +8722,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="20"/>
+      <c r="K154" s="21"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -8698,7 +8735,7 @@
       <c r="Y154" s="2"/>
     </row>
     <row r="155" spans="1:25">
-      <c r="A155" s="10"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -8707,7 +8744,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="20"/>
+      <c r="K155" s="21"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -8720,7 +8757,7 @@
       <c r="Y155" s="2"/>
     </row>
     <row r="156" spans="1:25">
-      <c r="A156" s="10"/>
+      <c r="A156" s="11"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -8729,7 +8766,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="20"/>
+      <c r="K156" s="21"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -8742,7 +8779,7 @@
       <c r="Y156" s="2"/>
     </row>
     <row r="157" spans="1:25">
-      <c r="A157" s="10"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -8751,7 +8788,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="20"/>
+      <c r="K157" s="21"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -8764,7 +8801,7 @@
       <c r="Y157" s="2"/>
     </row>
     <row r="158" spans="1:25">
-      <c r="A158" s="10"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -8773,7 +8810,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="20"/>
+      <c r="K158" s="21"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -8786,7 +8823,7 @@
       <c r="Y158" s="2"/>
     </row>
     <row r="159" spans="1:25">
-      <c r="A159" s="10"/>
+      <c r="A159" s="11"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -8795,7 +8832,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="20"/>
+      <c r="K159" s="21"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -8808,7 +8845,7 @@
       <c r="Y159" s="2"/>
     </row>
     <row r="160" spans="1:25">
-      <c r="A160" s="10"/>
+      <c r="A160" s="11"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -8817,7 +8854,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="J160" s="2"/>
-      <c r="K160" s="20"/>
+      <c r="K160" s="21"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -8830,7 +8867,7 @@
       <c r="Y160" s="2"/>
     </row>
     <row r="161" spans="1:25">
-      <c r="A161" s="10"/>
+      <c r="A161" s="11"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -8839,7 +8876,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="J161" s="2"/>
-      <c r="K161" s="20"/>
+      <c r="K161" s="21"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -8852,7 +8889,7 @@
       <c r="Y161" s="2"/>
     </row>
     <row r="162" spans="1:25">
-      <c r="A162" s="10"/>
+      <c r="A162" s="11"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -8861,7 +8898,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="J162" s="2"/>
-      <c r="K162" s="20"/>
+      <c r="K162" s="21"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -8874,7 +8911,7 @@
       <c r="Y162" s="2"/>
     </row>
     <row r="163" spans="1:25">
-      <c r="A163" s="10"/>
+      <c r="A163" s="11"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -8883,7 +8920,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="J163" s="2"/>
-      <c r="K163" s="20"/>
+      <c r="K163" s="21"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -8896,7 +8933,7 @@
       <c r="Y163" s="2"/>
     </row>
     <row r="164" spans="1:25">
-      <c r="A164" s="10"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -8905,7 +8942,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="J164" s="2"/>
-      <c r="K164" s="20"/>
+      <c r="K164" s="21"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -8918,7 +8955,7 @@
       <c r="Y164" s="2"/>
     </row>
     <row r="165" spans="1:25">
-      <c r="A165" s="10"/>
+      <c r="A165" s="11"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -8927,7 +8964,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="J165" s="2"/>
-      <c r="K165" s="20"/>
+      <c r="K165" s="21"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -8940,7 +8977,7 @@
       <c r="Y165" s="2"/>
     </row>
     <row r="166" spans="1:25">
-      <c r="A166" s="10"/>
+      <c r="A166" s="11"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -8949,7 +8986,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="J166" s="2"/>
-      <c r="K166" s="20"/>
+      <c r="K166" s="21"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -8962,7 +8999,7 @@
       <c r="Y166" s="2"/>
     </row>
     <row r="167" spans="1:25">
-      <c r="A167" s="10"/>
+      <c r="A167" s="11"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -8971,7 +9008,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="J167" s="2"/>
-      <c r="K167" s="20"/>
+      <c r="K167" s="21"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -8984,7 +9021,7 @@
       <c r="Y167" s="2"/>
     </row>
     <row r="168" spans="1:25">
-      <c r="A168" s="10"/>
+      <c r="A168" s="11"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -8993,7 +9030,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="J168" s="2"/>
-      <c r="K168" s="20"/>
+      <c r="K168" s="21"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -9006,7 +9043,7 @@
       <c r="Y168" s="2"/>
     </row>
     <row r="169" spans="1:25">
-      <c r="A169" s="10"/>
+      <c r="A169" s="11"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -9015,7 +9052,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="J169" s="2"/>
-      <c r="K169" s="20"/>
+      <c r="K169" s="21"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -9028,7 +9065,7 @@
       <c r="Y169" s="2"/>
     </row>
     <row r="170" spans="1:25">
-      <c r="A170" s="10"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -9037,7 +9074,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="J170" s="2"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="21"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -9050,7 +9087,7 @@
       <c r="Y170" s="2"/>
     </row>
     <row r="171" spans="1:25">
-      <c r="A171" s="10"/>
+      <c r="A171" s="11"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -9059,7 +9096,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="J171" s="2"/>
-      <c r="K171" s="20"/>
+      <c r="K171" s="21"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -9072,7 +9109,7 @@
       <c r="Y171" s="2"/>
     </row>
     <row r="172" spans="1:25">
-      <c r="A172" s="10"/>
+      <c r="A172" s="11"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -9081,7 +9118,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="J172" s="2"/>
-      <c r="K172" s="20"/>
+      <c r="K172" s="21"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -9094,7 +9131,7 @@
       <c r="Y172" s="2"/>
     </row>
     <row r="173" spans="1:25">
-      <c r="A173" s="10"/>
+      <c r="A173" s="11"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -9103,7 +9140,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="J173" s="2"/>
-      <c r="K173" s="20"/>
+      <c r="K173" s="21"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -9116,7 +9153,7 @@
       <c r="Y173" s="2"/>
     </row>
     <row r="174" spans="1:25">
-      <c r="A174" s="10"/>
+      <c r="A174" s="11"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -9125,7 +9162,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="J174" s="2"/>
-      <c r="K174" s="20"/>
+      <c r="K174" s="21"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -9138,7 +9175,7 @@
       <c r="Y174" s="2"/>
     </row>
     <row r="175" spans="1:25">
-      <c r="A175" s="10"/>
+      <c r="A175" s="11"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -9147,7 +9184,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="J175" s="2"/>
-      <c r="K175" s="20"/>
+      <c r="K175" s="21"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -9160,7 +9197,7 @@
       <c r="Y175" s="2"/>
     </row>
     <row r="176" spans="1:25">
-      <c r="A176" s="10"/>
+      <c r="A176" s="11"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -9169,7 +9206,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="J176" s="2"/>
-      <c r="K176" s="20"/>
+      <c r="K176" s="21"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -9182,7 +9219,7 @@
       <c r="Y176" s="2"/>
     </row>
     <row r="177" spans="1:25">
-      <c r="A177" s="10"/>
+      <c r="A177" s="11"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -9191,7 +9228,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="J177" s="2"/>
-      <c r="K177" s="20"/>
+      <c r="K177" s="21"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -9204,7 +9241,7 @@
       <c r="Y177" s="2"/>
     </row>
     <row r="178" spans="1:25">
-      <c r="A178" s="10"/>
+      <c r="A178" s="11"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -9213,7 +9250,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="J178" s="2"/>
-      <c r="K178" s="20"/>
+      <c r="K178" s="21"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -9226,7 +9263,7 @@
       <c r="Y178" s="2"/>
     </row>
     <row r="179" spans="1:25">
-      <c r="A179" s="10"/>
+      <c r="A179" s="11"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -9235,7 +9272,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="J179" s="2"/>
-      <c r="K179" s="20"/>
+      <c r="K179" s="21"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -9248,7 +9285,7 @@
       <c r="Y179" s="2"/>
     </row>
     <row r="180" spans="1:25">
-      <c r="A180" s="10"/>
+      <c r="A180" s="11"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -9257,7 +9294,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="J180" s="2"/>
-      <c r="K180" s="20"/>
+      <c r="K180" s="21"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -9270,7 +9307,7 @@
       <c r="Y180" s="2"/>
     </row>
     <row r="181" spans="1:25">
-      <c r="A181" s="10"/>
+      <c r="A181" s="11"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -9279,7 +9316,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="J181" s="2"/>
-      <c r="K181" s="20"/>
+      <c r="K181" s="21"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -9292,7 +9329,7 @@
       <c r="Y181" s="2"/>
     </row>
     <row r="182" spans="1:25">
-      <c r="A182" s="10"/>
+      <c r="A182" s="11"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -9301,7 +9338,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="J182" s="2"/>
-      <c r="K182" s="20"/>
+      <c r="K182" s="21"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -9314,7 +9351,7 @@
       <c r="Y182" s="2"/>
     </row>
     <row r="183" spans="1:25">
-      <c r="A183" s="10"/>
+      <c r="A183" s="11"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -9323,7 +9360,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="J183" s="2"/>
-      <c r="K183" s="20"/>
+      <c r="K183" s="21"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -9336,7 +9373,7 @@
       <c r="Y183" s="2"/>
     </row>
     <row r="184" spans="1:25">
-      <c r="A184" s="10"/>
+      <c r="A184" s="11"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -9345,7 +9382,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="J184" s="2"/>
-      <c r="K184" s="20"/>
+      <c r="K184" s="21"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -9358,7 +9395,7 @@
       <c r="Y184" s="2"/>
     </row>
     <row r="185" spans="1:25">
-      <c r="A185" s="10"/>
+      <c r="A185" s="11"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -9367,7 +9404,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="J185" s="2"/>
-      <c r="K185" s="20"/>
+      <c r="K185" s="21"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -9380,7 +9417,7 @@
       <c r="Y185" s="2"/>
     </row>
     <row r="186" spans="1:25">
-      <c r="A186" s="10"/>
+      <c r="A186" s="11"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -9389,7 +9426,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
-      <c r="K186" s="20"/>
+      <c r="K186" s="21"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -9402,7 +9439,7 @@
       <c r="Y186" s="2"/>
     </row>
     <row r="187" spans="1:25">
-      <c r="A187" s="10"/>
+      <c r="A187" s="11"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -9411,7 +9448,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="J187" s="2"/>
-      <c r="K187" s="20"/>
+      <c r="K187" s="21"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -9424,7 +9461,7 @@
       <c r="Y187" s="2"/>
     </row>
     <row r="188" spans="1:25">
-      <c r="A188" s="10"/>
+      <c r="A188" s="11"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -9433,7 +9470,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="J188" s="2"/>
-      <c r="K188" s="20"/>
+      <c r="K188" s="21"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -9446,7 +9483,7 @@
       <c r="Y188" s="2"/>
     </row>
     <row r="189" spans="1:25">
-      <c r="A189" s="10"/>
+      <c r="A189" s="11"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -9455,7 +9492,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="J189" s="2"/>
-      <c r="K189" s="20"/>
+      <c r="K189" s="21"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -9468,7 +9505,7 @@
       <c r="Y189" s="2"/>
     </row>
     <row r="190" spans="1:25">
-      <c r="A190" s="10"/>
+      <c r="A190" s="11"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -9477,7 +9514,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="J190" s="2"/>
-      <c r="K190" s="20"/>
+      <c r="K190" s="21"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -9490,7 +9527,7 @@
       <c r="Y190" s="2"/>
     </row>
     <row r="191" spans="1:25">
-      <c r="A191" s="10"/>
+      <c r="A191" s="11"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -9499,7 +9536,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="J191" s="2"/>
-      <c r="K191" s="20"/>
+      <c r="K191" s="21"/>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -9512,7 +9549,7 @@
       <c r="Y191" s="2"/>
     </row>
     <row r="192" spans="1:25">
-      <c r="A192" s="10"/>
+      <c r="A192" s="11"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -9521,7 +9558,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="J192" s="2"/>
-      <c r="K192" s="20"/>
+      <c r="K192" s="21"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -9534,7 +9571,7 @@
       <c r="Y192" s="2"/>
     </row>
     <row r="193" spans="1:25">
-      <c r="A193" s="10"/>
+      <c r="A193" s="11"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -9543,7 +9580,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="J193" s="2"/>
-      <c r="K193" s="20"/>
+      <c r="K193" s="21"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -9556,7 +9593,7 @@
       <c r="Y193" s="2"/>
     </row>
     <row r="194" spans="1:25">
-      <c r="A194" s="10"/>
+      <c r="A194" s="11"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -9565,7 +9602,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="J194" s="2"/>
-      <c r="K194" s="20"/>
+      <c r="K194" s="21"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -9578,7 +9615,7 @@
       <c r="Y194" s="2"/>
     </row>
     <row r="195" spans="1:25">
-      <c r="A195" s="10"/>
+      <c r="A195" s="11"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -9587,7 +9624,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="J195" s="2"/>
-      <c r="K195" s="20"/>
+      <c r="K195" s="21"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -9600,7 +9637,7 @@
       <c r="Y195" s="2"/>
     </row>
     <row r="196" spans="1:25">
-      <c r="A196" s="10"/>
+      <c r="A196" s="11"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -9609,7 +9646,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="J196" s="2"/>
-      <c r="K196" s="20"/>
+      <c r="K196" s="21"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2"/>
@@ -9622,7 +9659,7 @@
       <c r="Y196" s="2"/>
     </row>
     <row r="197" spans="1:25">
-      <c r="A197" s="10"/>
+      <c r="A197" s="11"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -9631,7 +9668,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="J197" s="2"/>
-      <c r="K197" s="20"/>
+      <c r="K197" s="21"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
       <c r="N197" s="2"/>
@@ -9644,7 +9681,7 @@
       <c r="Y197" s="2"/>
     </row>
     <row r="198" spans="1:25">
-      <c r="A198" s="10"/>
+      <c r="A198" s="11"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -9653,7 +9690,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="J198" s="2"/>
-      <c r="K198" s="20"/>
+      <c r="K198" s="21"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2"/>
@@ -9666,7 +9703,7 @@
       <c r="Y198" s="2"/>
     </row>
     <row r="199" spans="1:25">
-      <c r="A199" s="10"/>
+      <c r="A199" s="11"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -9675,7 +9712,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="J199" s="2"/>
-      <c r="K199" s="20"/>
+      <c r="K199" s="21"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
       <c r="N199" s="2"/>
@@ -9688,7 +9725,7 @@
       <c r="Y199" s="2"/>
     </row>
     <row r="200" spans="1:25">
-      <c r="A200" s="10"/>
+      <c r="A200" s="11"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -9697,7 +9734,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="J200" s="2"/>
-      <c r="K200" s="20"/>
+      <c r="K200" s="21"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
       <c r="N200" s="2"/>
@@ -9710,7 +9747,7 @@
       <c r="Y200" s="2"/>
     </row>
     <row r="201" spans="1:25">
-      <c r="A201" s="10"/>
+      <c r="A201" s="11"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -9719,7 +9756,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="J201" s="2"/>
-      <c r="K201" s="20"/>
+      <c r="K201" s="21"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
       <c r="N201" s="2"/>
@@ -9732,7 +9769,7 @@
       <c r="Y201" s="2"/>
     </row>
     <row r="202" spans="1:25">
-      <c r="A202" s="10"/>
+      <c r="A202" s="11"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -9741,7 +9778,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="J202" s="2"/>
-      <c r="K202" s="20"/>
+      <c r="K202" s="21"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
       <c r="N202" s="2"/>
@@ -9754,7 +9791,7 @@
       <c r="Y202" s="2"/>
     </row>
     <row r="203" spans="1:25">
-      <c r="A203" s="10"/>
+      <c r="A203" s="11"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -9763,7 +9800,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="J203" s="2"/>
-      <c r="K203" s="20"/>
+      <c r="K203" s="21"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -9776,7 +9813,7 @@
       <c r="Y203" s="2"/>
     </row>
     <row r="204" spans="1:25">
-      <c r="A204" s="10"/>
+      <c r="A204" s="11"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -9785,7 +9822,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="J204" s="2"/>
-      <c r="K204" s="20"/>
+      <c r="K204" s="21"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -9798,7 +9835,7 @@
       <c r="Y204" s="2"/>
     </row>
     <row r="205" spans="1:25">
-      <c r="A205" s="10"/>
+      <c r="A205" s="11"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -9807,7 +9844,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="J205" s="2"/>
-      <c r="K205" s="20"/>
+      <c r="K205" s="21"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
       <c r="N205" s="2"/>
@@ -9820,7 +9857,7 @@
       <c r="Y205" s="2"/>
     </row>
     <row r="206" spans="1:25">
-      <c r="A206" s="10"/>
+      <c r="A206" s="11"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -9829,7 +9866,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="J206" s="2"/>
-      <c r="K206" s="20"/>
+      <c r="K206" s="21"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
       <c r="N206" s="2"/>
@@ -9842,7 +9879,7 @@
       <c r="Y206" s="2"/>
     </row>
     <row r="207" spans="1:25">
-      <c r="A207" s="10"/>
+      <c r="A207" s="11"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -9851,7 +9888,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="J207" s="2"/>
-      <c r="K207" s="20"/>
+      <c r="K207" s="21"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
       <c r="N207" s="2"/>
@@ -9864,7 +9901,7 @@
       <c r="Y207" s="2"/>
     </row>
     <row r="208" spans="1:25">
-      <c r="A208" s="10"/>
+      <c r="A208" s="11"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -9873,7 +9910,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="J208" s="2"/>
-      <c r="K208" s="20"/>
+      <c r="K208" s="21"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
       <c r="N208" s="2"/>
@@ -9886,7 +9923,7 @@
       <c r="Y208" s="2"/>
     </row>
     <row r="209" spans="1:25">
-      <c r="A209" s="10"/>
+      <c r="A209" s="11"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -9895,7 +9932,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="J209" s="2"/>
-      <c r="K209" s="20"/>
+      <c r="K209" s="21"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
       <c r="N209" s="2"/>
@@ -9908,7 +9945,7 @@
       <c r="Y209" s="2"/>
     </row>
     <row r="210" spans="1:25">
-      <c r="A210" s="10"/>
+      <c r="A210" s="11"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -9917,7 +9954,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="J210" s="2"/>
-      <c r="K210" s="20"/>
+      <c r="K210" s="21"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
       <c r="N210" s="2"/>
@@ -9930,7 +9967,7 @@
       <c r="Y210" s="2"/>
     </row>
     <row r="211" spans="1:25">
-      <c r="A211" s="10"/>
+      <c r="A211" s="11"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -9939,7 +9976,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="J211" s="2"/>
-      <c r="K211" s="20"/>
+      <c r="K211" s="21"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
       <c r="N211" s="2"/>
@@ -9952,7 +9989,7 @@
       <c r="Y211" s="2"/>
     </row>
     <row r="212" spans="1:25">
-      <c r="A212" s="10"/>
+      <c r="A212" s="11"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -9961,7 +9998,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="J212" s="2"/>
-      <c r="K212" s="20"/>
+      <c r="K212" s="21"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
       <c r="N212" s="2"/>
@@ -9974,7 +10011,7 @@
       <c r="Y212" s="2"/>
     </row>
     <row r="213" spans="1:25">
-      <c r="A213" s="10"/>
+      <c r="A213" s="11"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -9983,7 +10020,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="J213" s="2"/>
-      <c r="K213" s="20"/>
+      <c r="K213" s="21"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -9996,7 +10033,7 @@
       <c r="Y213" s="2"/>
     </row>
     <row r="214" spans="1:25">
-      <c r="A214" s="10"/>
+      <c r="A214" s="11"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -10005,7 +10042,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="J214" s="2"/>
-      <c r="K214" s="20"/>
+      <c r="K214" s="21"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
       <c r="N214" s="2"/>
@@ -10018,7 +10055,7 @@
       <c r="Y214" s="2"/>
     </row>
     <row r="215" spans="1:25">
-      <c r="A215" s="10"/>
+      <c r="A215" s="11"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -10027,7 +10064,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="J215" s="2"/>
-      <c r="K215" s="20"/>
+      <c r="K215" s="21"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -10040,7 +10077,7 @@
       <c r="Y215" s="2"/>
     </row>
     <row r="216" spans="1:25">
-      <c r="A216" s="10"/>
+      <c r="A216" s="11"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -10049,7 +10086,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="J216" s="2"/>
-      <c r="K216" s="20"/>
+      <c r="K216" s="21"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -10062,7 +10099,7 @@
       <c r="Y216" s="2"/>
     </row>
     <row r="217" spans="1:25">
-      <c r="A217" s="10"/>
+      <c r="A217" s="11"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -10071,7 +10108,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="J217" s="2"/>
-      <c r="K217" s="20"/>
+      <c r="K217" s="21"/>
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
       <c r="N217" s="2"/>
@@ -10084,7 +10121,7 @@
       <c r="Y217" s="2"/>
     </row>
     <row r="218" spans="1:25">
-      <c r="A218" s="10"/>
+      <c r="A218" s="11"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -10093,7 +10130,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="J218" s="2"/>
-      <c r="K218" s="20"/>
+      <c r="K218" s="21"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
       <c r="N218" s="2"/>
@@ -10106,7 +10143,7 @@
       <c r="Y218" s="2"/>
     </row>
     <row r="219" spans="1:25">
-      <c r="A219" s="10"/>
+      <c r="A219" s="11"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -10115,7 +10152,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="J219" s="2"/>
-      <c r="K219" s="20"/>
+      <c r="K219" s="21"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -10128,7 +10165,7 @@
       <c r="Y219" s="2"/>
     </row>
     <row r="220" spans="1:25">
-      <c r="A220" s="10"/>
+      <c r="A220" s="11"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -10137,7 +10174,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="J220" s="2"/>
-      <c r="K220" s="20"/>
+      <c r="K220" s="21"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
       <c r="N220" s="2"/>
@@ -10150,7 +10187,7 @@
       <c r="Y220" s="2"/>
     </row>
     <row r="221" spans="1:25">
-      <c r="A221" s="10"/>
+      <c r="A221" s="11"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -10159,7 +10196,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="J221" s="2"/>
-      <c r="K221" s="20"/>
+      <c r="K221" s="21"/>
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -10172,7 +10209,7 @@
       <c r="Y221" s="2"/>
     </row>
     <row r="222" spans="1:25">
-      <c r="A222" s="10"/>
+      <c r="A222" s="11"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -10181,7 +10218,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="J222" s="2"/>
-      <c r="K222" s="20"/>
+      <c r="K222" s="21"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -10194,7 +10231,7 @@
       <c r="Y222" s="2"/>
     </row>
     <row r="223" spans="1:25">
-      <c r="A223" s="10"/>
+      <c r="A223" s="11"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -10203,7 +10240,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="J223" s="2"/>
-      <c r="K223" s="20"/>
+      <c r="K223" s="21"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
@@ -10216,7 +10253,7 @@
       <c r="Y223" s="2"/>
     </row>
     <row r="224" spans="1:25">
-      <c r="A224" s="10"/>
+      <c r="A224" s="11"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -10225,7 +10262,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="J224" s="2"/>
-      <c r="K224" s="20"/>
+      <c r="K224" s="21"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
       <c r="N224" s="2"/>
@@ -10238,7 +10275,7 @@
       <c r="Y224" s="2"/>
     </row>
     <row r="225" spans="1:25">
-      <c r="A225" s="10"/>
+      <c r="A225" s="11"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -10247,7 +10284,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="J225" s="2"/>
-      <c r="K225" s="20"/>
+      <c r="K225" s="21"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -10260,7 +10297,7 @@
       <c r="Y225" s="2"/>
     </row>
     <row r="226" spans="1:25">
-      <c r="A226" s="10"/>
+      <c r="A226" s="11"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -10269,7 +10306,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="J226" s="2"/>
-      <c r="K226" s="20"/>
+      <c r="K226" s="21"/>
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
       <c r="N226" s="2"/>
@@ -10282,7 +10319,7 @@
       <c r="Y226" s="2"/>
     </row>
     <row r="227" spans="1:25">
-      <c r="A227" s="10"/>
+      <c r="A227" s="11"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -10291,7 +10328,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="J227" s="2"/>
-      <c r="K227" s="20"/>
+      <c r="K227" s="21"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -10304,7 +10341,7 @@
       <c r="Y227" s="2"/>
     </row>
     <row r="228" spans="1:25">
-      <c r="A228" s="10"/>
+      <c r="A228" s="11"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -10313,7 +10350,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="J228" s="2"/>
-      <c r="K228" s="20"/>
+      <c r="K228" s="21"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
       <c r="N228" s="2"/>
@@ -10326,7 +10363,7 @@
       <c r="Y228" s="2"/>
     </row>
     <row r="229" spans="1:25">
-      <c r="A229" s="10"/>
+      <c r="A229" s="11"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -10335,7 +10372,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
-      <c r="K229" s="20"/>
+      <c r="K229" s="21"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
       <c r="N229" s="2"/>
@@ -10348,7 +10385,7 @@
       <c r="Y229" s="2"/>
     </row>
     <row r="230" spans="1:25">
-      <c r="A230" s="10"/>
+      <c r="A230" s="11"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -10357,7 +10394,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="J230" s="2"/>
-      <c r="K230" s="20"/>
+      <c r="K230" s="21"/>
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -10370,7 +10407,7 @@
       <c r="Y230" s="2"/>
     </row>
     <row r="231" spans="1:25">
-      <c r="A231" s="10"/>
+      <c r="A231" s="11"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -10379,7 +10416,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
-      <c r="K231" s="20"/>
+      <c r="K231" s="21"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -10392,7 +10429,7 @@
       <c r="Y231" s="2"/>
     </row>
     <row r="232" spans="1:25">
-      <c r="A232" s="10"/>
+      <c r="A232" s="11"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -10401,7 +10438,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="J232" s="2"/>
-      <c r="K232" s="20"/>
+      <c r="K232" s="21"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
       <c r="N232" s="2"/>
@@ -10414,7 +10451,7 @@
       <c r="Y232" s="2"/>
     </row>
     <row r="233" spans="1:25">
-      <c r="A233" s="10"/>
+      <c r="A233" s="11"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -10423,7 +10460,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
-      <c r="K233" s="20"/>
+      <c r="K233" s="21"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
       <c r="N233" s="2"/>
@@ -10436,7 +10473,7 @@
       <c r="Y233" s="2"/>
     </row>
     <row r="234" spans="1:25">
-      <c r="A234" s="10"/>
+      <c r="A234" s="11"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -10445,7 +10482,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="J234" s="2"/>
-      <c r="K234" s="20"/>
+      <c r="K234" s="21"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
       <c r="N234" s="2"/>
@@ -10458,7 +10495,7 @@
       <c r="Y234" s="2"/>
     </row>
     <row r="235" spans="1:25">
-      <c r="A235" s="10"/>
+      <c r="A235" s="11"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -10467,7 +10504,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
-      <c r="K235" s="20"/>
+      <c r="K235" s="21"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
       <c r="N235" s="2"/>
@@ -10480,7 +10517,7 @@
       <c r="Y235" s="2"/>
     </row>
     <row r="236" spans="1:25">
-      <c r="A236" s="10"/>
+      <c r="A236" s="11"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -10489,7 +10526,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="J236" s="2"/>
-      <c r="K236" s="20"/>
+      <c r="K236" s="21"/>
       <c r="L236" s="2"/>
       <c r="M236" s="2"/>
       <c r="N236" s="2"/>
@@ -10502,7 +10539,7 @@
       <c r="Y236" s="2"/>
     </row>
     <row r="237" spans="1:25">
-      <c r="A237" s="10"/>
+      <c r="A237" s="11"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -10511,7 +10548,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
-      <c r="K237" s="20"/>
+      <c r="K237" s="21"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
       <c r="N237" s="2"/>
@@ -10524,7 +10561,7 @@
       <c r="Y237" s="2"/>
     </row>
     <row r="238" spans="1:25">
-      <c r="A238" s="10"/>
+      <c r="A238" s="11"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -10533,7 +10570,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="J238" s="2"/>
-      <c r="K238" s="20"/>
+      <c r="K238" s="21"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
       <c r="N238" s="2"/>
@@ -10546,7 +10583,7 @@
       <c r="Y238" s="2"/>
     </row>
     <row r="239" spans="1:25">
-      <c r="A239" s="10"/>
+      <c r="A239" s="11"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -10555,7 +10592,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="J239" s="2"/>
-      <c r="K239" s="20"/>
+      <c r="K239" s="21"/>
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
       <c r="N239" s="2"/>
@@ -10568,7 +10605,7 @@
       <c r="Y239" s="2"/>
     </row>
     <row r="240" spans="1:25">
-      <c r="A240" s="10"/>
+      <c r="A240" s="11"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -10577,7 +10614,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="J240" s="2"/>
-      <c r="K240" s="20"/>
+      <c r="K240" s="21"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
       <c r="N240" s="2"/>
@@ -10590,7 +10627,7 @@
       <c r="Y240" s="2"/>
     </row>
     <row r="241" spans="1:25">
-      <c r="A241" s="10"/>
+      <c r="A241" s="11"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -10599,7 +10636,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="J241" s="2"/>
-      <c r="K241" s="20"/>
+      <c r="K241" s="21"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
       <c r="N241" s="2"/>
@@ -10612,7 +10649,7 @@
       <c r="Y241" s="2"/>
     </row>
     <row r="242" spans="1:25">
-      <c r="A242" s="10"/>
+      <c r="A242" s="11"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -10621,7 +10658,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="J242" s="2"/>
-      <c r="K242" s="20"/>
+      <c r="K242" s="21"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
       <c r="N242" s="2"/>
@@ -10634,7 +10671,7 @@
       <c r="Y242" s="2"/>
     </row>
     <row r="243" spans="1:25">
-      <c r="A243" s="10"/>
+      <c r="A243" s="11"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -10643,7 +10680,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
-      <c r="K243" s="20"/>
+      <c r="K243" s="21"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
       <c r="N243" s="2"/>
@@ -10656,7 +10693,7 @@
       <c r="Y243" s="2"/>
     </row>
     <row r="244" spans="1:25">
-      <c r="A244" s="10"/>
+      <c r="A244" s="11"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -10665,7 +10702,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="J244" s="2"/>
-      <c r="K244" s="20"/>
+      <c r="K244" s="21"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
       <c r="N244" s="2"/>
@@ -10678,7 +10715,7 @@
       <c r="Y244" s="2"/>
     </row>
     <row r="245" spans="1:25">
-      <c r="A245" s="10"/>
+      <c r="A245" s="11"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -10687,7 +10724,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="J245" s="2"/>
-      <c r="K245" s="20"/>
+      <c r="K245" s="21"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -10700,7 +10737,7 @@
       <c r="Y245" s="2"/>
     </row>
     <row r="246" spans="1:25">
-      <c r="A246" s="10"/>
+      <c r="A246" s="11"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -10709,7 +10746,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="J246" s="2"/>
-      <c r="K246" s="20"/>
+      <c r="K246" s="21"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
       <c r="N246" s="2"/>
@@ -10722,7 +10759,7 @@
       <c r="Y246" s="2"/>
     </row>
     <row r="247" spans="1:25">
-      <c r="A247" s="10"/>
+      <c r="A247" s="11"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -10731,7 +10768,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="J247" s="2"/>
-      <c r="K247" s="20"/>
+      <c r="K247" s="21"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -10744,7 +10781,7 @@
       <c r="Y247" s="2"/>
     </row>
     <row r="248" spans="1:25">
-      <c r="A248" s="10"/>
+      <c r="A248" s="11"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -10753,7 +10790,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="J248" s="2"/>
-      <c r="K248" s="20"/>
+      <c r="K248" s="21"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
       <c r="N248" s="2"/>
@@ -10766,7 +10803,7 @@
       <c r="Y248" s="2"/>
     </row>
     <row r="249" spans="1:25">
-      <c r="A249" s="10"/>
+      <c r="A249" s="11"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -10775,7 +10812,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="J249" s="2"/>
-      <c r="K249" s="20"/>
+      <c r="K249" s="21"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
       <c r="N249" s="2"/>
@@ -10788,7 +10825,7 @@
       <c r="Y249" s="2"/>
     </row>
     <row r="250" spans="1:25">
-      <c r="A250" s="10"/>
+      <c r="A250" s="11"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -10797,7 +10834,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="J250" s="2"/>
-      <c r="K250" s="20"/>
+      <c r="K250" s="21"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
       <c r="N250" s="2"/>
@@ -10810,7 +10847,7 @@
       <c r="Y250" s="2"/>
     </row>
     <row r="251" spans="1:25">
-      <c r="A251" s="10"/>
+      <c r="A251" s="11"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -10819,7 +10856,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="J251" s="2"/>
-      <c r="K251" s="20"/>
+      <c r="K251" s="21"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
       <c r="N251" s="2"/>
@@ -10832,7 +10869,7 @@
       <c r="Y251" s="2"/>
     </row>
     <row r="252" spans="1:25">
-      <c r="A252" s="10"/>
+      <c r="A252" s="11"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -10841,7 +10878,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="J252" s="2"/>
-      <c r="K252" s="20"/>
+      <c r="K252" s="21"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
       <c r="N252" s="2"/>
@@ -10854,7 +10891,7 @@
       <c r="Y252" s="2"/>
     </row>
     <row r="253" spans="1:25">
-      <c r="A253" s="10"/>
+      <c r="A253" s="11"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -10863,7 +10900,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="J253" s="2"/>
-      <c r="K253" s="20"/>
+      <c r="K253" s="21"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
@@ -10876,7 +10913,7 @@
       <c r="Y253" s="2"/>
     </row>
     <row r="254" spans="1:25">
-      <c r="A254" s="10"/>
+      <c r="A254" s="11"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -10885,7 +10922,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="J254" s="2"/>
-      <c r="K254" s="20"/>
+      <c r="K254" s="21"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
       <c r="N254" s="2"/>
@@ -10898,7 +10935,7 @@
       <c r="Y254" s="2"/>
     </row>
     <row r="255" spans="1:25">
-      <c r="A255" s="10"/>
+      <c r="A255" s="11"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -10907,7 +10944,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="J255" s="2"/>
-      <c r="K255" s="20"/>
+      <c r="K255" s="21"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2"/>
       <c r="N255" s="2"/>
@@ -10920,7 +10957,7 @@
       <c r="Y255" s="2"/>
     </row>
     <row r="256" spans="1:25">
-      <c r="A256" s="10"/>
+      <c r="A256" s="11"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -10929,7 +10966,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="J256" s="2"/>
-      <c r="K256" s="20"/>
+      <c r="K256" s="21"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -10942,7 +10979,7 @@
       <c r="Y256" s="2"/>
     </row>
     <row r="257" spans="1:25">
-      <c r="A257" s="10"/>
+      <c r="A257" s="11"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -10951,7 +10988,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="J257" s="2"/>
-      <c r="K257" s="20"/>
+      <c r="K257" s="21"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2"/>
       <c r="N257" s="2"/>
@@ -10964,7 +11001,7 @@
       <c r="Y257" s="2"/>
     </row>
     <row r="258" spans="1:25">
-      <c r="A258" s="10"/>
+      <c r="A258" s="11"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -10973,7 +11010,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="J258" s="2"/>
-      <c r="K258" s="20"/>
+      <c r="K258" s="21"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
@@ -10986,7 +11023,7 @@
       <c r="Y258" s="2"/>
     </row>
     <row r="259" spans="1:25">
-      <c r="A259" s="10"/>
+      <c r="A259" s="11"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -10995,7 +11032,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="J259" s="2"/>
-      <c r="K259" s="20"/>
+      <c r="K259" s="21"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
@@ -11008,7 +11045,7 @@
       <c r="Y259" s="2"/>
     </row>
     <row r="260" spans="1:25">
-      <c r="A260" s="10"/>
+      <c r="A260" s="11"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -11017,7 +11054,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="J260" s="2"/>
-      <c r="K260" s="20"/>
+      <c r="K260" s="21"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2"/>
       <c r="N260" s="2"/>
@@ -11030,7 +11067,7 @@
       <c r="Y260" s="2"/>
     </row>
     <row r="261" spans="1:25">
-      <c r="A261" s="10"/>
+      <c r="A261" s="11"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -11039,7 +11076,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="J261" s="2"/>
-      <c r="K261" s="20"/>
+      <c r="K261" s="21"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -11052,7 +11089,7 @@
       <c r="Y261" s="2"/>
     </row>
     <row r="262" spans="1:25">
-      <c r="A262" s="10"/>
+      <c r="A262" s="11"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -11061,7 +11098,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="J262" s="2"/>
-      <c r="K262" s="20"/>
+      <c r="K262" s="21"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -11074,7 +11111,7 @@
       <c r="Y262" s="2"/>
     </row>
     <row r="263" spans="1:25">
-      <c r="A263" s="10"/>
+      <c r="A263" s="11"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -11083,7 +11120,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="J263" s="2"/>
-      <c r="K263" s="20"/>
+      <c r="K263" s="21"/>
       <c r="L263" s="2"/>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -11096,7 +11133,7 @@
       <c r="Y263" s="2"/>
     </row>
     <row r="264" spans="1:25">
-      <c r="A264" s="10"/>
+      <c r="A264" s="11"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -11105,7 +11142,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="J264" s="2"/>
-      <c r="K264" s="20"/>
+      <c r="K264" s="21"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
       <c r="N264" s="2"/>
@@ -11118,7 +11155,7 @@
       <c r="Y264" s="2"/>
     </row>
     <row r="265" spans="1:25">
-      <c r="A265" s="10"/>
+      <c r="A265" s="11"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -11127,7 +11164,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="J265" s="2"/>
-      <c r="K265" s="20"/>
+      <c r="K265" s="21"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
       <c r="N265" s="2"/>
@@ -11140,7 +11177,7 @@
       <c r="Y265" s="2"/>
     </row>
     <row r="266" spans="1:25">
-      <c r="A266" s="10"/>
+      <c r="A266" s="11"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -11149,7 +11186,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="J266" s="2"/>
-      <c r="K266" s="20"/>
+      <c r="K266" s="21"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
       <c r="N266" s="2"/>
@@ -11162,7 +11199,7 @@
       <c r="Y266" s="2"/>
     </row>
     <row r="267" spans="1:25">
-      <c r="A267" s="10"/>
+      <c r="A267" s="11"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -11171,7 +11208,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="J267" s="2"/>
-      <c r="K267" s="20"/>
+      <c r="K267" s="21"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -11184,7 +11221,7 @@
       <c r="Y267" s="2"/>
     </row>
     <row r="268" spans="1:25">
-      <c r="A268" s="10"/>
+      <c r="A268" s="11"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -11193,7 +11230,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="J268" s="2"/>
-      <c r="K268" s="20"/>
+      <c r="K268" s="21"/>
       <c r="L268" s="2"/>
       <c r="M268" s="2"/>
       <c r="N268" s="2"/>
@@ -11206,7 +11243,7 @@
       <c r="Y268" s="2"/>
     </row>
     <row r="269" spans="1:25">
-      <c r="A269" s="10"/>
+      <c r="A269" s="11"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -11215,7 +11252,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="J269" s="2"/>
-      <c r="K269" s="20"/>
+      <c r="K269" s="21"/>
       <c r="L269" s="2"/>
       <c r="M269" s="2"/>
       <c r="N269" s="2"/>
@@ -11228,7 +11265,7 @@
       <c r="Y269" s="2"/>
     </row>
     <row r="270" spans="1:25">
-      <c r="A270" s="10"/>
+      <c r="A270" s="11"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -11237,7 +11274,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="J270" s="2"/>
-      <c r="K270" s="20"/>
+      <c r="K270" s="21"/>
       <c r="L270" s="2"/>
       <c r="M270" s="2"/>
       <c r="N270" s="2"/>
@@ -11250,7 +11287,7 @@
       <c r="Y270" s="2"/>
     </row>
     <row r="271" spans="1:25">
-      <c r="A271" s="10"/>
+      <c r="A271" s="11"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -11259,7 +11296,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="J271" s="2"/>
-      <c r="K271" s="20"/>
+      <c r="K271" s="21"/>
       <c r="L271" s="2"/>
       <c r="M271" s="2"/>
       <c r="N271" s="2"/>
@@ -11272,7 +11309,7 @@
       <c r="Y271" s="2"/>
     </row>
     <row r="272" spans="1:25">
-      <c r="A272" s="10"/>
+      <c r="A272" s="11"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -11281,7 +11318,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="J272" s="2"/>
-      <c r="K272" s="20"/>
+      <c r="K272" s="21"/>
       <c r="L272" s="2"/>
       <c r="M272" s="2"/>
       <c r="N272" s="2"/>
@@ -11294,7 +11331,7 @@
       <c r="Y272" s="2"/>
     </row>
     <row r="273" spans="1:25">
-      <c r="A273" s="10"/>
+      <c r="A273" s="11"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -11303,7 +11340,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
-      <c r="K273" s="20"/>
+      <c r="K273" s="21"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2"/>
       <c r="N273" s="2"/>
@@ -11316,7 +11353,7 @@
       <c r="Y273" s="2"/>
     </row>
     <row r="274" spans="1:25">
-      <c r="A274" s="10"/>
+      <c r="A274" s="11"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -11325,7 +11362,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
-      <c r="K274" s="20"/>
+      <c r="K274" s="21"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2"/>
       <c r="N274" s="2"/>
@@ -11338,7 +11375,7 @@
       <c r="Y274" s="2"/>
     </row>
     <row r="275" spans="1:25">
-      <c r="A275" s="10"/>
+      <c r="A275" s="11"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -11347,7 +11384,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="J275" s="2"/>
-      <c r="K275" s="20"/>
+      <c r="K275" s="21"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2"/>
       <c r="N275" s="2"/>
@@ -11360,7 +11397,7 @@
       <c r="Y275" s="2"/>
     </row>
     <row r="276" spans="1:25">
-      <c r="A276" s="10"/>
+      <c r="A276" s="11"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -11369,7 +11406,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="J276" s="2"/>
-      <c r="K276" s="20"/>
+      <c r="K276" s="21"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2"/>
       <c r="N276" s="2"/>
@@ -11382,7 +11419,7 @@
       <c r="Y276" s="2"/>
     </row>
     <row r="277" spans="1:25">
-      <c r="A277" s="10"/>
+      <c r="A277" s="11"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -11391,7 +11428,7 @@
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="J277" s="2"/>
-      <c r="K277" s="20"/>
+      <c r="K277" s="21"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2"/>
       <c r="N277" s="2"/>
@@ -11404,7 +11441,7 @@
       <c r="Y277" s="2"/>
     </row>
     <row r="278" spans="1:25">
-      <c r="A278" s="10"/>
+      <c r="A278" s="11"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -11413,7 +11450,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="J278" s="2"/>
-      <c r="K278" s="20"/>
+      <c r="K278" s="21"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -11426,7 +11463,7 @@
       <c r="Y278" s="2"/>
     </row>
     <row r="279" spans="1:25">
-      <c r="A279" s="10"/>
+      <c r="A279" s="11"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -11435,7 +11472,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="J279" s="2"/>
-      <c r="K279" s="20"/>
+      <c r="K279" s="21"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -11448,7 +11485,7 @@
       <c r="Y279" s="2"/>
     </row>
     <row r="280" spans="1:25">
-      <c r="A280" s="10"/>
+      <c r="A280" s="11"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -11457,7 +11494,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="J280" s="2"/>
-      <c r="K280" s="20"/>
+      <c r="K280" s="21"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -11470,7 +11507,7 @@
       <c r="Y280" s="2"/>
     </row>
     <row r="281" spans="1:25">
-      <c r="A281" s="10"/>
+      <c r="A281" s="11"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -11479,7 +11516,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="J281" s="2"/>
-      <c r="K281" s="20"/>
+      <c r="K281" s="21"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2"/>
       <c r="N281" s="2"/>
@@ -11492,7 +11529,7 @@
       <c r="Y281" s="2"/>
     </row>
     <row r="282" spans="1:25">
-      <c r="A282" s="10"/>
+      <c r="A282" s="11"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -11501,7 +11538,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="J282" s="2"/>
-      <c r="K282" s="20"/>
+      <c r="K282" s="21"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
       <c r="N282" s="2"/>
@@ -11514,7 +11551,7 @@
       <c r="Y282" s="2"/>
     </row>
     <row r="283" spans="1:25">
-      <c r="A283" s="10"/>
+      <c r="A283" s="11"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -11523,7 +11560,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="J283" s="2"/>
-      <c r="K283" s="20"/>
+      <c r="K283" s="21"/>
       <c r="L283" s="2"/>
       <c r="M283" s="2"/>
       <c r="N283" s="2"/>
@@ -11536,7 +11573,7 @@
       <c r="Y283" s="2"/>
     </row>
     <row r="284" spans="1:25">
-      <c r="A284" s="10"/>
+      <c r="A284" s="11"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -11545,7 +11582,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="J284" s="2"/>
-      <c r="K284" s="20"/>
+      <c r="K284" s="21"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
       <c r="N284" s="2"/>
@@ -11558,7 +11595,7 @@
       <c r="Y284" s="2"/>
     </row>
     <row r="285" spans="1:25">
-      <c r="A285" s="10"/>
+      <c r="A285" s="11"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -11567,7 +11604,7 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="J285" s="2"/>
-      <c r="K285" s="20"/>
+      <c r="K285" s="21"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
       <c r="N285" s="2"/>
@@ -11580,7 +11617,7 @@
       <c r="Y285" s="2"/>
     </row>
     <row r="286" spans="1:25">
-      <c r="A286" s="10"/>
+      <c r="A286" s="11"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -11589,7 +11626,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="J286" s="2"/>
-      <c r="K286" s="20"/>
+      <c r="K286" s="21"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2"/>
       <c r="N286" s="2"/>
@@ -11602,7 +11639,7 @@
       <c r="Y286" s="2"/>
     </row>
     <row r="287" spans="1:25">
-      <c r="A287" s="10"/>
+      <c r="A287" s="11"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -11611,7 +11648,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="J287" s="2"/>
-      <c r="K287" s="20"/>
+      <c r="K287" s="21"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2"/>
       <c r="N287" s="2"/>
@@ -11624,7 +11661,7 @@
       <c r="Y287" s="2"/>
     </row>
     <row r="288" spans="1:25">
-      <c r="A288" s="10"/>
+      <c r="A288" s="11"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -11633,7 +11670,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="J288" s="2"/>
-      <c r="K288" s="20"/>
+      <c r="K288" s="21"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
       <c r="N288" s="2"/>
@@ -11646,7 +11683,7 @@
       <c r="Y288" s="2"/>
     </row>
     <row r="289" spans="1:25">
-      <c r="A289" s="10"/>
+      <c r="A289" s="11"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -11655,7 +11692,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="J289" s="2"/>
-      <c r="K289" s="20"/>
+      <c r="K289" s="21"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
       <c r="N289" s="2"/>
@@ -11668,7 +11705,7 @@
       <c r="Y289" s="2"/>
     </row>
     <row r="290" spans="1:25">
-      <c r="A290" s="10"/>
+      <c r="A290" s="11"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -11677,7 +11714,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="J290" s="2"/>
-      <c r="K290" s="20"/>
+      <c r="K290" s="21"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2"/>
       <c r="N290" s="2"/>
@@ -11690,7 +11727,7 @@
       <c r="Y290" s="2"/>
     </row>
     <row r="291" spans="1:25">
-      <c r="A291" s="10"/>
+      <c r="A291" s="11"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -11699,7 +11736,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="J291" s="2"/>
-      <c r="K291" s="20"/>
+      <c r="K291" s="21"/>
       <c r="L291" s="2"/>
       <c r="M291" s="2"/>
       <c r="N291" s="2"/>
@@ -11712,7 +11749,7 @@
       <c r="Y291" s="2"/>
     </row>
     <row r="292" spans="1:25">
-      <c r="A292" s="10"/>
+      <c r="A292" s="11"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -11721,7 +11758,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="J292" s="2"/>
-      <c r="K292" s="20"/>
+      <c r="K292" s="21"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2"/>
       <c r="N292" s="2"/>
@@ -11734,7 +11771,7 @@
       <c r="Y292" s="2"/>
     </row>
     <row r="293" spans="1:25">
-      <c r="A293" s="10"/>
+      <c r="A293" s="11"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -11743,7 +11780,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="J293" s="2"/>
-      <c r="K293" s="20"/>
+      <c r="K293" s="21"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2"/>
       <c r="N293" s="2"/>
@@ -11756,7 +11793,7 @@
       <c r="Y293" s="2"/>
     </row>
     <row r="294" spans="1:25">
-      <c r="A294" s="10"/>
+      <c r="A294" s="11"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -11765,7 +11802,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="J294" s="2"/>
-      <c r="K294" s="20"/>
+      <c r="K294" s="21"/>
       <c r="L294" s="2"/>
       <c r="M294" s="2"/>
       <c r="N294" s="2"/>
@@ -11778,7 +11815,7 @@
       <c r="Y294" s="2"/>
     </row>
     <row r="295" spans="1:25">
-      <c r="A295" s="10"/>
+      <c r="A295" s="11"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -11787,7 +11824,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="J295" s="2"/>
-      <c r="K295" s="20"/>
+      <c r="K295" s="21"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2"/>
       <c r="N295" s="2"/>
@@ -11800,7 +11837,7 @@
       <c r="Y295" s="2"/>
     </row>
     <row r="296" spans="1:25">
-      <c r="A296" s="10"/>
+      <c r="A296" s="11"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -11809,7 +11846,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="J296" s="2"/>
-      <c r="K296" s="20"/>
+      <c r="K296" s="21"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -11822,7 +11859,7 @@
       <c r="Y296" s="2"/>
     </row>
     <row r="297" spans="1:25">
-      <c r="A297" s="10"/>
+      <c r="A297" s="11"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -11831,7 +11868,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="J297" s="2"/>
-      <c r="K297" s="20"/>
+      <c r="K297" s="21"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2"/>
       <c r="N297" s="2"/>
@@ -11844,7 +11881,7 @@
       <c r="Y297" s="2"/>
     </row>
     <row r="298" spans="1:25">
-      <c r="A298" s="10"/>
+      <c r="A298" s="11"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -11853,7 +11890,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="J298" s="2"/>
-      <c r="K298" s="20"/>
+      <c r="K298" s="21"/>
       <c r="L298" s="2"/>
       <c r="M298" s="2"/>
       <c r="N298" s="2"/>
@@ -11866,7 +11903,7 @@
       <c r="Y298" s="2"/>
     </row>
     <row r="299" spans="1:25">
-      <c r="A299" s="10"/>
+      <c r="A299" s="11"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -11875,7 +11912,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="J299" s="2"/>
-      <c r="K299" s="20"/>
+      <c r="K299" s="21"/>
       <c r="L299" s="2"/>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -11888,7 +11925,7 @@
       <c r="Y299" s="2"/>
     </row>
     <row r="300" spans="1:25">
-      <c r="A300" s="10"/>
+      <c r="A300" s="11"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -11897,7 +11934,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="J300" s="2"/>
-      <c r="K300" s="20"/>
+      <c r="K300" s="21"/>
       <c r="L300" s="2"/>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -11910,7 +11947,7 @@
       <c r="Y300" s="2"/>
     </row>
     <row r="301" spans="1:25">
-      <c r="A301" s="10"/>
+      <c r="A301" s="11"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -11919,7 +11956,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="J301" s="2"/>
-      <c r="K301" s="20"/>
+      <c r="K301" s="21"/>
       <c r="L301" s="2"/>
       <c r="M301" s="2"/>
       <c r="N301" s="2"/>
@@ -11932,7 +11969,7 @@
       <c r="Y301" s="2"/>
     </row>
     <row r="302" spans="1:25">
-      <c r="A302" s="10"/>
+      <c r="A302" s="11"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -11941,7 +11978,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="J302" s="2"/>
-      <c r="K302" s="20"/>
+      <c r="K302" s="21"/>
       <c r="L302" s="2"/>
       <c r="M302" s="2"/>
       <c r="N302" s="2"/>
@@ -11954,7 +11991,7 @@
       <c r="Y302" s="2"/>
     </row>
     <row r="303" spans="1:25">
-      <c r="A303" s="10"/>
+      <c r="A303" s="11"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -11963,7 +12000,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="J303" s="2"/>
-      <c r="K303" s="20"/>
+      <c r="K303" s="21"/>
       <c r="L303" s="2"/>
       <c r="M303" s="2"/>
       <c r="N303" s="2"/>
@@ -11976,7 +12013,7 @@
       <c r="Y303" s="2"/>
     </row>
     <row r="304" spans="1:25">
-      <c r="A304" s="10"/>
+      <c r="A304" s="11"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -11985,7 +12022,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="J304" s="2"/>
-      <c r="K304" s="20"/>
+      <c r="K304" s="21"/>
       <c r="L304" s="2"/>
       <c r="M304" s="2"/>
       <c r="N304" s="2"/>
@@ -11998,7 +12035,7 @@
       <c r="Y304" s="2"/>
     </row>
     <row r="305" spans="1:25">
-      <c r="A305" s="10"/>
+      <c r="A305" s="11"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -12007,7 +12044,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="J305" s="2"/>
-      <c r="K305" s="20"/>
+      <c r="K305" s="21"/>
       <c r="L305" s="2"/>
       <c r="M305" s="2"/>
       <c r="N305" s="2"/>
@@ -12020,7 +12057,7 @@
       <c r="Y305" s="2"/>
     </row>
     <row r="306" spans="1:25">
-      <c r="A306" s="10"/>
+      <c r="A306" s="11"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -12029,7 +12066,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="J306" s="2"/>
-      <c r="K306" s="20"/>
+      <c r="K306" s="21"/>
       <c r="L306" s="2"/>
       <c r="M306" s="2"/>
       <c r="N306" s="2"/>
@@ -12042,7 +12079,7 @@
       <c r="Y306" s="2"/>
     </row>
     <row r="307" spans="1:25">
-      <c r="A307" s="10"/>
+      <c r="A307" s="11"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -12051,7 +12088,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="J307" s="2"/>
-      <c r="K307" s="20"/>
+      <c r="K307" s="21"/>
       <c r="L307" s="2"/>
       <c r="M307" s="2"/>
       <c r="N307" s="2"/>
@@ -12064,7 +12101,7 @@
       <c r="Y307" s="2"/>
     </row>
     <row r="308" spans="1:25">
-      <c r="A308" s="10"/>
+      <c r="A308" s="11"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -12073,7 +12110,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="J308" s="2"/>
-      <c r="K308" s="20"/>
+      <c r="K308" s="21"/>
       <c r="L308" s="2"/>
       <c r="M308" s="2"/>
       <c r="N308" s="2"/>
@@ -12086,7 +12123,7 @@
       <c r="Y308" s="2"/>
     </row>
     <row r="309" spans="1:25">
-      <c r="A309" s="10"/>
+      <c r="A309" s="11"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -12095,7 +12132,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="J309" s="2"/>
-      <c r="K309" s="20"/>
+      <c r="K309" s="21"/>
       <c r="L309" s="2"/>
       <c r="M309" s="2"/>
       <c r="N309" s="2"/>
@@ -12108,7 +12145,7 @@
       <c r="Y309" s="2"/>
     </row>
     <row r="310" spans="1:25">
-      <c r="A310" s="10"/>
+      <c r="A310" s="11"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -12117,7 +12154,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="J310" s="2"/>
-      <c r="K310" s="20"/>
+      <c r="K310" s="21"/>
       <c r="L310" s="2"/>
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
@@ -12130,7 +12167,7 @@
       <c r="Y310" s="2"/>
     </row>
     <row r="311" spans="1:25">
-      <c r="A311" s="10"/>
+      <c r="A311" s="11"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -12139,7 +12176,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="J311" s="2"/>
-      <c r="K311" s="20"/>
+      <c r="K311" s="21"/>
       <c r="L311" s="2"/>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -12152,7 +12189,7 @@
       <c r="Y311" s="2"/>
     </row>
     <row r="312" spans="1:25">
-      <c r="A312" s="10"/>
+      <c r="A312" s="11"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -12161,7 +12198,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="J312" s="2"/>
-      <c r="K312" s="20"/>
+      <c r="K312" s="21"/>
       <c r="L312" s="2"/>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -12174,7 +12211,7 @@
       <c r="Y312" s="2"/>
     </row>
     <row r="313" spans="1:25">
-      <c r="A313" s="10"/>
+      <c r="A313" s="11"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -12183,7 +12220,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="J313" s="2"/>
-      <c r="K313" s="20"/>
+      <c r="K313" s="21"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2"/>
       <c r="N313" s="2"/>
@@ -12196,7 +12233,7 @@
       <c r="Y313" s="2"/>
     </row>
     <row r="314" spans="1:25">
-      <c r="A314" s="10"/>
+      <c r="A314" s="11"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -12205,7 +12242,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="J314" s="2"/>
-      <c r="K314" s="20"/>
+      <c r="K314" s="21"/>
       <c r="L314" s="2"/>
       <c r="M314" s="2"/>
       <c r="N314" s="2"/>
@@ -12218,7 +12255,7 @@
       <c r="Y314" s="2"/>
     </row>
     <row r="315" spans="1:25">
-      <c r="A315" s="10"/>
+      <c r="A315" s="11"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -12227,7 +12264,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="J315" s="2"/>
-      <c r="K315" s="20"/>
+      <c r="K315" s="21"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2"/>
       <c r="N315" s="2"/>
@@ -12240,7 +12277,7 @@
       <c r="Y315" s="2"/>
     </row>
     <row r="316" spans="1:25">
-      <c r="A316" s="10"/>
+      <c r="A316" s="11"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -12249,7 +12286,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="J316" s="2"/>
-      <c r="K316" s="20"/>
+      <c r="K316" s="21"/>
       <c r="L316" s="2"/>
       <c r="M316" s="2"/>
       <c r="N316" s="2"/>
@@ -12262,7 +12299,7 @@
       <c r="Y316" s="2"/>
     </row>
     <row r="317" spans="1:25">
-      <c r="A317" s="10"/>
+      <c r="A317" s="11"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -12271,7 +12308,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="J317" s="2"/>
-      <c r="K317" s="20"/>
+      <c r="K317" s="21"/>
       <c r="L317" s="2"/>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -12284,7 +12321,7 @@
       <c r="Y317" s="2"/>
     </row>
     <row r="318" spans="1:25">
-      <c r="A318" s="10"/>
+      <c r="A318" s="11"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -12293,7 +12330,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="J318" s="2"/>
-      <c r="K318" s="20"/>
+      <c r="K318" s="21"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -12306,7 +12343,7 @@
       <c r="Y318" s="2"/>
     </row>
     <row r="319" spans="1:25">
-      <c r="A319" s="10"/>
+      <c r="A319" s="11"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -12315,7 +12352,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="J319" s="2"/>
-      <c r="K319" s="20"/>
+      <c r="K319" s="21"/>
       <c r="L319" s="2"/>
       <c r="M319" s="2"/>
       <c r="N319" s="2"/>
@@ -12328,7 +12365,7 @@
       <c r="Y319" s="2"/>
     </row>
     <row r="320" spans="1:25">
-      <c r="A320" s="10"/>
+      <c r="A320" s="11"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -12337,7 +12374,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="J320" s="2"/>
-      <c r="K320" s="20"/>
+      <c r="K320" s="21"/>
       <c r="L320" s="2"/>
       <c r="M320" s="2"/>
       <c r="N320" s="2"/>
@@ -12350,7 +12387,7 @@
       <c r="Y320" s="2"/>
     </row>
     <row r="321" spans="1:25">
-      <c r="A321" s="10"/>
+      <c r="A321" s="11"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -12359,7 +12396,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="J321" s="2"/>
-      <c r="K321" s="20"/>
+      <c r="K321" s="21"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2"/>
       <c r="N321" s="2"/>
@@ -12372,7 +12409,7 @@
       <c r="Y321" s="2"/>
     </row>
     <row r="322" spans="1:25">
-      <c r="A322" s="10"/>
+      <c r="A322" s="11"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -12381,7 +12418,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="J322" s="2"/>
-      <c r="K322" s="20"/>
+      <c r="K322" s="21"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2"/>
       <c r="N322" s="2"/>
@@ -12394,7 +12431,7 @@
       <c r="Y322" s="2"/>
     </row>
     <row r="323" spans="1:25">
-      <c r="A323" s="10"/>
+      <c r="A323" s="11"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -12403,7 +12440,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="J323" s="2"/>
-      <c r="K323" s="20"/>
+      <c r="K323" s="21"/>
       <c r="L323" s="2"/>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -12416,7 +12453,7 @@
       <c r="Y323" s="2"/>
     </row>
     <row r="324" spans="1:25">
-      <c r="A324" s="10"/>
+      <c r="A324" s="11"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -12425,7 +12462,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="J324" s="2"/>
-      <c r="K324" s="20"/>
+      <c r="K324" s="21"/>
       <c r="L324" s="2"/>
       <c r="M324" s="2"/>
       <c r="N324" s="2"/>
@@ -12438,7 +12475,7 @@
       <c r="Y324" s="2"/>
     </row>
     <row r="325" spans="1:25">
-      <c r="A325" s="10"/>
+      <c r="A325" s="11"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -12447,7 +12484,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="J325" s="2"/>
-      <c r="K325" s="20"/>
+      <c r="K325" s="21"/>
       <c r="L325" s="2"/>
       <c r="M325" s="2"/>
       <c r="N325" s="2"/>
@@ -12460,7 +12497,7 @@
       <c r="Y325" s="2"/>
     </row>
     <row r="326" spans="1:25">
-      <c r="A326" s="10"/>
+      <c r="A326" s="11"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -12469,7 +12506,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="J326" s="2"/>
-      <c r="K326" s="20"/>
+      <c r="K326" s="21"/>
       <c r="L326" s="2"/>
       <c r="M326" s="2"/>
       <c r="N326" s="2"/>
@@ -12482,7 +12519,7 @@
       <c r="Y326" s="2"/>
     </row>
     <row r="327" spans="1:25">
-      <c r="A327" s="10"/>
+      <c r="A327" s="11"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -12491,7 +12528,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="J327" s="2"/>
-      <c r="K327" s="20"/>
+      <c r="K327" s="21"/>
       <c r="L327" s="2"/>
       <c r="M327" s="2"/>
       <c r="N327" s="2"/>
@@ -12504,7 +12541,7 @@
       <c r="Y327" s="2"/>
     </row>
     <row r="328" spans="1:25">
-      <c r="A328" s="10"/>
+      <c r="A328" s="11"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -12513,7 +12550,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="J328" s="2"/>
-      <c r="K328" s="20"/>
+      <c r="K328" s="21"/>
       <c r="L328" s="2"/>
       <c r="M328" s="2"/>
       <c r="N328" s="2"/>
@@ -12526,7 +12563,7 @@
       <c r="Y328" s="2"/>
     </row>
     <row r="329" spans="1:25">
-      <c r="A329" s="10"/>
+      <c r="A329" s="11"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -12535,7 +12572,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="J329" s="2"/>
-      <c r="K329" s="20"/>
+      <c r="K329" s="21"/>
       <c r="L329" s="2"/>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -12548,7 +12585,7 @@
       <c r="Y329" s="2"/>
     </row>
     <row r="330" spans="1:25">
-      <c r="A330" s="10"/>
+      <c r="A330" s="11"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -12557,7 +12594,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="J330" s="2"/>
-      <c r="K330" s="20"/>
+      <c r="K330" s="21"/>
       <c r="L330" s="2"/>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -12570,7 +12607,7 @@
       <c r="Y330" s="2"/>
     </row>
     <row r="331" spans="1:25">
-      <c r="A331" s="10"/>
+      <c r="A331" s="11"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -12579,7 +12616,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="J331" s="2"/>
-      <c r="K331" s="20"/>
+      <c r="K331" s="21"/>
       <c r="L331" s="2"/>
       <c r="M331" s="2"/>
       <c r="N331" s="2"/>
@@ -12592,7 +12629,7 @@
       <c r="Y331" s="2"/>
     </row>
     <row r="332" spans="1:25">
-      <c r="A332" s="10"/>
+      <c r="A332" s="11"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -12601,7 +12638,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="J332" s="2"/>
-      <c r="K332" s="20"/>
+      <c r="K332" s="21"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2"/>
       <c r="N332" s="2"/>
@@ -12614,7 +12651,7 @@
       <c r="Y332" s="2"/>
     </row>
     <row r="333" spans="1:25">
-      <c r="A333" s="10"/>
+      <c r="A333" s="11"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -12623,7 +12660,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="J333" s="2"/>
-      <c r="K333" s="20"/>
+      <c r="K333" s="21"/>
       <c r="L333" s="2"/>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
@@ -12636,7 +12673,7 @@
       <c r="Y333" s="2"/>
     </row>
     <row r="334" spans="1:25">
-      <c r="A334" s="10"/>
+      <c r="A334" s="11"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -12645,7 +12682,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="J334" s="2"/>
-      <c r="K334" s="20"/>
+      <c r="K334" s="21"/>
       <c r="L334" s="2"/>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
@@ -12658,7 +12695,7 @@
       <c r="Y334" s="2"/>
     </row>
     <row r="335" spans="1:25">
-      <c r="A335" s="10"/>
+      <c r="A335" s="11"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -12667,7 +12704,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="J335" s="2"/>
-      <c r="K335" s="20"/>
+      <c r="K335" s="21"/>
       <c r="L335" s="2"/>
       <c r="M335" s="2"/>
       <c r="N335" s="2"/>
@@ -12680,7 +12717,7 @@
       <c r="Y335" s="2"/>
     </row>
     <row r="336" spans="1:25">
-      <c r="A336" s="10"/>
+      <c r="A336" s="11"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -12689,7 +12726,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="J336" s="2"/>
-      <c r="K336" s="20"/>
+      <c r="K336" s="21"/>
       <c r="L336" s="2"/>
       <c r="M336" s="2"/>
       <c r="N336" s="2"/>
@@ -12702,7 +12739,7 @@
       <c r="Y336" s="2"/>
     </row>
     <row r="337" spans="1:25">
-      <c r="A337" s="10"/>
+      <c r="A337" s="11"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -12711,7 +12748,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="J337" s="2"/>
-      <c r="K337" s="20"/>
+      <c r="K337" s="21"/>
       <c r="L337" s="2"/>
       <c r="M337" s="2"/>
       <c r="N337" s="2"/>
@@ -12724,7 +12761,7 @@
       <c r="Y337" s="2"/>
     </row>
     <row r="338" spans="1:25">
-      <c r="A338" s="10"/>
+      <c r="A338" s="11"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -12733,7 +12770,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="J338" s="2"/>
-      <c r="K338" s="20"/>
+      <c r="K338" s="21"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2"/>
       <c r="N338" s="2"/>
@@ -12746,7 +12783,7 @@
       <c r="Y338" s="2"/>
     </row>
     <row r="339" spans="1:25">
-      <c r="A339" s="10"/>
+      <c r="A339" s="11"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -12755,7 +12792,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="J339" s="2"/>
-      <c r="K339" s="20"/>
+      <c r="K339" s="21"/>
       <c r="L339" s="2"/>
       <c r="M339" s="2"/>
       <c r="N339" s="2"/>
@@ -12768,7 +12805,7 @@
       <c r="Y339" s="2"/>
     </row>
     <row r="340" spans="1:25">
-      <c r="A340" s="10"/>
+      <c r="A340" s="11"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -12777,7 +12814,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="J340" s="2"/>
-      <c r="K340" s="20"/>
+      <c r="K340" s="21"/>
       <c r="L340" s="2"/>
       <c r="M340" s="2"/>
       <c r="N340" s="2"/>
@@ -12790,7 +12827,7 @@
       <c r="Y340" s="2"/>
     </row>
     <row r="341" spans="1:25">
-      <c r="A341" s="10"/>
+      <c r="A341" s="11"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -12799,7 +12836,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="J341" s="2"/>
-      <c r="K341" s="20"/>
+      <c r="K341" s="21"/>
       <c r="L341" s="2"/>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -12812,7 +12849,7 @@
       <c r="Y341" s="2"/>
     </row>
     <row r="342" spans="1:25">
-      <c r="A342" s="10"/>
+      <c r="A342" s="11"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -12821,7 +12858,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="J342" s="2"/>
-      <c r="K342" s="20"/>
+      <c r="K342" s="21"/>
       <c r="L342" s="2"/>
       <c r="M342" s="2"/>
       <c r="N342" s="2"/>
@@ -12834,7 +12871,7 @@
       <c r="Y342" s="2"/>
     </row>
     <row r="343" spans="1:25">
-      <c r="A343" s="10"/>
+      <c r="A343" s="11"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -12843,7 +12880,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="J343" s="2"/>
-      <c r="K343" s="20"/>
+      <c r="K343" s="21"/>
       <c r="L343" s="2"/>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
@@ -12856,7 +12893,7 @@
       <c r="Y343" s="2"/>
     </row>
     <row r="344" spans="1:25">
-      <c r="A344" s="10"/>
+      <c r="A344" s="11"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -12865,7 +12902,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="J344" s="2"/>
-      <c r="K344" s="20"/>
+      <c r="K344" s="21"/>
       <c r="L344" s="2"/>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -12878,7 +12915,7 @@
       <c r="Y344" s="2"/>
     </row>
     <row r="345" spans="1:25">
-      <c r="A345" s="10"/>
+      <c r="A345" s="11"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -12887,7 +12924,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="J345" s="2"/>
-      <c r="K345" s="20"/>
+      <c r="K345" s="21"/>
       <c r="L345" s="2"/>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -12900,7 +12937,7 @@
       <c r="Y345" s="2"/>
     </row>
     <row r="346" spans="1:25">
-      <c r="A346" s="10"/>
+      <c r="A346" s="11"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -12909,7 +12946,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="J346" s="2"/>
-      <c r="K346" s="20"/>
+      <c r="K346" s="21"/>
       <c r="L346" s="2"/>
       <c r="M346" s="2"/>
       <c r="N346" s="2"/>
@@ -12922,7 +12959,7 @@
       <c r="Y346" s="2"/>
     </row>
     <row r="347" spans="1:25">
-      <c r="A347" s="10"/>
+      <c r="A347" s="11"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -12931,7 +12968,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="J347" s="2"/>
-      <c r="K347" s="20"/>
+      <c r="K347" s="21"/>
       <c r="L347" s="2"/>
       <c r="M347" s="2"/>
       <c r="N347" s="2"/>
@@ -12944,7 +12981,7 @@
       <c r="Y347" s="2"/>
     </row>
     <row r="348" spans="1:25">
-      <c r="A348" s="10"/>
+      <c r="A348" s="11"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -12953,7 +12990,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="J348" s="2"/>
-      <c r="K348" s="20"/>
+      <c r="K348" s="21"/>
       <c r="L348" s="2"/>
       <c r="M348" s="2"/>
       <c r="N348" s="2"/>
@@ -12966,7 +13003,7 @@
       <c r="Y348" s="2"/>
     </row>
     <row r="349" spans="1:25">
-      <c r="A349" s="10"/>
+      <c r="A349" s="11"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -12975,7 +13012,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="J349" s="2"/>
-      <c r="K349" s="20"/>
+      <c r="K349" s="21"/>
       <c r="L349" s="2"/>
       <c r="M349" s="2"/>
       <c r="N349" s="2"/>
@@ -12988,7 +13025,7 @@
       <c r="Y349" s="2"/>
     </row>
     <row r="350" spans="1:25">
-      <c r="A350" s="10"/>
+      <c r="A350" s="11"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -12997,7 +13034,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="J350" s="2"/>
-      <c r="K350" s="20"/>
+      <c r="K350" s="21"/>
       <c r="L350" s="2"/>
       <c r="M350" s="2"/>
       <c r="N350" s="2"/>
@@ -13010,7 +13047,7 @@
       <c r="Y350" s="2"/>
     </row>
     <row r="351" spans="1:25">
-      <c r="A351" s="10"/>
+      <c r="A351" s="11"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -13019,7 +13056,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="J351" s="2"/>
-      <c r="K351" s="20"/>
+      <c r="K351" s="21"/>
       <c r="L351" s="2"/>
       <c r="M351" s="2"/>
       <c r="N351" s="2"/>
@@ -13032,7 +13069,7 @@
       <c r="Y351" s="2"/>
     </row>
     <row r="352" spans="1:25">
-      <c r="A352" s="10"/>
+      <c r="A352" s="11"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -13041,7 +13078,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="J352" s="2"/>
-      <c r="K352" s="20"/>
+      <c r="K352" s="21"/>
       <c r="L352" s="2"/>
       <c r="M352" s="2"/>
       <c r="N352" s="2"/>
@@ -13054,7 +13091,7 @@
       <c r="Y352" s="2"/>
     </row>
     <row r="353" spans="1:25">
-      <c r="A353" s="10"/>
+      <c r="A353" s="11"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -13063,7 +13100,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="J353" s="2"/>
-      <c r="K353" s="20"/>
+      <c r="K353" s="21"/>
       <c r="L353" s="2"/>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -13076,7 +13113,7 @@
       <c r="Y353" s="2"/>
     </row>
     <row r="354" spans="1:25">
-      <c r="A354" s="10"/>
+      <c r="A354" s="11"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -13085,7 +13122,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="J354" s="2"/>
-      <c r="K354" s="20"/>
+      <c r="K354" s="21"/>
       <c r="L354" s="2"/>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
@@ -13098,7 +13135,7 @@
       <c r="Y354" s="2"/>
     </row>
     <row r="355" spans="1:25">
-      <c r="A355" s="10"/>
+      <c r="A355" s="11"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -13107,7 +13144,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="J355" s="2"/>
-      <c r="K355" s="20"/>
+      <c r="K355" s="21"/>
       <c r="L355" s="2"/>
       <c r="M355" s="2"/>
       <c r="N355" s="2"/>
@@ -13120,7 +13157,7 @@
       <c r="Y355" s="2"/>
     </row>
     <row r="356" spans="1:25">
-      <c r="A356" s="10"/>
+      <c r="A356" s="11"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -13129,7 +13166,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="J356" s="2"/>
-      <c r="K356" s="20"/>
+      <c r="K356" s="21"/>
       <c r="L356" s="2"/>
       <c r="M356" s="2"/>
       <c r="N356" s="2"/>
@@ -13142,7 +13179,7 @@
       <c r="Y356" s="2"/>
     </row>
     <row r="357" spans="1:25">
-      <c r="A357" s="10"/>
+      <c r="A357" s="11"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -13151,7 +13188,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="J357" s="2"/>
-      <c r="K357" s="20"/>
+      <c r="K357" s="21"/>
       <c r="L357" s="2"/>
       <c r="M357" s="2"/>
       <c r="N357" s="2"/>
@@ -13164,7 +13201,7 @@
       <c r="Y357" s="2"/>
     </row>
     <row r="358" spans="1:25">
-      <c r="A358" s="10"/>
+      <c r="A358" s="11"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -13173,7 +13210,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="J358" s="2"/>
-      <c r="K358" s="20"/>
+      <c r="K358" s="21"/>
       <c r="L358" s="2"/>
       <c r="M358" s="2"/>
       <c r="N358" s="2"/>
@@ -13186,7 +13223,7 @@
       <c r="Y358" s="2"/>
     </row>
     <row r="359" spans="1:25">
-      <c r="A359" s="10"/>
+      <c r="A359" s="11"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -13195,7 +13232,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="J359" s="2"/>
-      <c r="K359" s="20"/>
+      <c r="K359" s="21"/>
       <c r="L359" s="2"/>
       <c r="M359" s="2"/>
       <c r="N359" s="2"/>
@@ -13208,7 +13245,7 @@
       <c r="Y359" s="2"/>
     </row>
     <row r="360" spans="1:25">
-      <c r="A360" s="10"/>
+      <c r="A360" s="11"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -13217,7 +13254,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="J360" s="2"/>
-      <c r="K360" s="20"/>
+      <c r="K360" s="21"/>
       <c r="L360" s="2"/>
       <c r="M360" s="2"/>
       <c r="N360" s="2"/>
@@ -13230,7 +13267,7 @@
       <c r="Y360" s="2"/>
     </row>
     <row r="361" spans="1:25">
-      <c r="A361" s="10"/>
+      <c r="A361" s="11"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -13239,7 +13276,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="J361" s="2"/>
-      <c r="K361" s="20"/>
+      <c r="K361" s="21"/>
       <c r="L361" s="2"/>
       <c r="M361" s="2"/>
       <c r="N361" s="2"/>
@@ -13252,7 +13289,7 @@
       <c r="Y361" s="2"/>
     </row>
     <row r="362" spans="1:25">
-      <c r="A362" s="10"/>
+      <c r="A362" s="11"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -13261,7 +13298,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="J362" s="2"/>
-      <c r="K362" s="20"/>
+      <c r="K362" s="21"/>
       <c r="L362" s="2"/>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -13274,7 +13311,7 @@
       <c r="Y362" s="2"/>
     </row>
     <row r="363" spans="1:25">
-      <c r="A363" s="10"/>
+      <c r="A363" s="11"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -13283,7 +13320,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="J363" s="2"/>
-      <c r="K363" s="20"/>
+      <c r="K363" s="21"/>
       <c r="L363" s="2"/>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -13296,7 +13333,7 @@
       <c r="Y363" s="2"/>
     </row>
     <row r="364" spans="1:25">
-      <c r="A364" s="10"/>
+      <c r="A364" s="11"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -13305,7 +13342,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="J364" s="2"/>
-      <c r="K364" s="20"/>
+      <c r="K364" s="21"/>
       <c r="L364" s="2"/>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -13318,7 +13355,7 @@
       <c r="Y364" s="2"/>
     </row>
     <row r="365" spans="1:25">
-      <c r="A365" s="10"/>
+      <c r="A365" s="11"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -13327,7 +13364,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="J365" s="2"/>
-      <c r="K365" s="20"/>
+      <c r="K365" s="21"/>
       <c r="L365" s="2"/>
       <c r="M365" s="2"/>
       <c r="N365" s="2"/>
@@ -13340,7 +13377,7 @@
       <c r="Y365" s="2"/>
     </row>
     <row r="366" spans="1:25">
-      <c r="A366" s="10"/>
+      <c r="A366" s="11"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -13349,7 +13386,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="J366" s="2"/>
-      <c r="K366" s="20"/>
+      <c r="K366" s="21"/>
       <c r="L366" s="2"/>
       <c r="M366" s="2"/>
       <c r="N366" s="2"/>
@@ -13362,7 +13399,7 @@
       <c r="Y366" s="2"/>
     </row>
     <row r="367" spans="1:25">
-      <c r="A367" s="10"/>
+      <c r="A367" s="11"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -13371,7 +13408,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="J367" s="2"/>
-      <c r="K367" s="20"/>
+      <c r="K367" s="21"/>
       <c r="L367" s="2"/>
       <c r="M367" s="2"/>
       <c r="N367" s="2"/>
@@ -13384,7 +13421,7 @@
       <c r="Y367" s="2"/>
     </row>
     <row r="368" spans="1:25">
-      <c r="A368" s="10"/>
+      <c r="A368" s="11"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -13393,7 +13430,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="J368" s="2"/>
-      <c r="K368" s="20"/>
+      <c r="K368" s="21"/>
       <c r="L368" s="2"/>
       <c r="M368" s="2"/>
       <c r="N368" s="2"/>
@@ -13406,7 +13443,7 @@
       <c r="Y368" s="2"/>
     </row>
     <row r="369" spans="1:25">
-      <c r="A369" s="10"/>
+      <c r="A369" s="11"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -13415,7 +13452,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="J369" s="2"/>
-      <c r="K369" s="20"/>
+      <c r="K369" s="21"/>
       <c r="L369" s="2"/>
       <c r="M369" s="2"/>
       <c r="N369" s="2"/>
@@ -13428,7 +13465,7 @@
       <c r="Y369" s="2"/>
     </row>
     <row r="370" spans="1:25">
-      <c r="A370" s="10"/>
+      <c r="A370" s="11"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -13437,7 +13474,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="J370" s="2"/>
-      <c r="K370" s="20"/>
+      <c r="K370" s="21"/>
       <c r="L370" s="2"/>
       <c r="M370" s="2"/>
       <c r="N370" s="2"/>
@@ -13450,7 +13487,7 @@
       <c r="Y370" s="2"/>
     </row>
     <row r="371" spans="1:25">
-      <c r="A371" s="10"/>
+      <c r="A371" s="11"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -13459,7 +13496,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="J371" s="2"/>
-      <c r="K371" s="20"/>
+      <c r="K371" s="21"/>
       <c r="L371" s="2"/>
       <c r="M371" s="2"/>
       <c r="N371" s="2"/>
@@ -13472,7 +13509,7 @@
       <c r="Y371" s="2"/>
     </row>
     <row r="372" spans="1:25">
-      <c r="A372" s="10"/>
+      <c r="A372" s="11"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -13481,7 +13518,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="J372" s="2"/>
-      <c r="K372" s="20"/>
+      <c r="K372" s="21"/>
       <c r="L372" s="2"/>
       <c r="M372" s="2"/>
       <c r="N372" s="2"/>
@@ -13494,7 +13531,7 @@
       <c r="Y372" s="2"/>
     </row>
     <row r="373" spans="1:25">
-      <c r="A373" s="10"/>
+      <c r="A373" s="11"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -13503,7 +13540,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="J373" s="2"/>
-      <c r="K373" s="20"/>
+      <c r="K373" s="21"/>
       <c r="L373" s="2"/>
       <c r="M373" s="2"/>
       <c r="N373" s="2"/>
@@ -13516,7 +13553,7 @@
       <c r="Y373" s="2"/>
     </row>
     <row r="374" spans="1:25">
-      <c r="A374" s="10"/>
+      <c r="A374" s="11"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -13525,7 +13562,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="J374" s="2"/>
-      <c r="K374" s="20"/>
+      <c r="K374" s="21"/>
       <c r="L374" s="2"/>
       <c r="M374" s="2"/>
       <c r="N374" s="2"/>
@@ -13538,7 +13575,7 @@
       <c r="Y374" s="2"/>
     </row>
     <row r="375" spans="1:25">
-      <c r="A375" s="10"/>
+      <c r="A375" s="11"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -13547,7 +13584,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="J375" s="2"/>
-      <c r="K375" s="20"/>
+      <c r="K375" s="21"/>
       <c r="L375" s="2"/>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -13560,7 +13597,7 @@
       <c r="Y375" s="2"/>
     </row>
     <row r="376" spans="1:25">
-      <c r="A376" s="10"/>
+      <c r="A376" s="11"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -13569,7 +13606,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="J376" s="2"/>
-      <c r="K376" s="20"/>
+      <c r="K376" s="21"/>
       <c r="L376" s="2"/>
       <c r="M376" s="2"/>
       <c r="N376" s="2"/>
@@ -13582,7 +13619,7 @@
       <c r="Y376" s="2"/>
     </row>
     <row r="377" spans="1:25">
-      <c r="A377" s="10"/>
+      <c r="A377" s="11"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -13591,7 +13628,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="J377" s="2"/>
-      <c r="K377" s="20"/>
+      <c r="K377" s="21"/>
       <c r="L377" s="2"/>
       <c r="M377" s="2"/>
       <c r="N377" s="2"/>
@@ -13604,7 +13641,7 @@
       <c r="Y377" s="2"/>
     </row>
     <row r="378" spans="1:25">
-      <c r="A378" s="10"/>
+      <c r="A378" s="11"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -13613,7 +13650,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="J378" s="2"/>
-      <c r="K378" s="20"/>
+      <c r="K378" s="21"/>
       <c r="L378" s="2"/>
       <c r="M378" s="2"/>
       <c r="N378" s="2"/>
@@ -13626,7 +13663,7 @@
       <c r="Y378" s="2"/>
     </row>
     <row r="379" spans="1:25">
-      <c r="A379" s="10"/>
+      <c r="A379" s="11"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -13635,7 +13672,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="J379" s="2"/>
-      <c r="K379" s="20"/>
+      <c r="K379" s="21"/>
       <c r="L379" s="2"/>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
@@ -13648,7 +13685,7 @@
       <c r="Y379" s="2"/>
     </row>
     <row r="380" spans="1:25">
-      <c r="A380" s="10"/>
+      <c r="A380" s="11"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -13657,7 +13694,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="J380" s="2"/>
-      <c r="K380" s="20"/>
+      <c r="K380" s="21"/>
       <c r="L380" s="2"/>
       <c r="M380" s="2"/>
       <c r="N380" s="2"/>
@@ -13670,7 +13707,7 @@
       <c r="Y380" s="2"/>
     </row>
     <row r="381" spans="1:25">
-      <c r="A381" s="10"/>
+      <c r="A381" s="11"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -13679,7 +13716,7 @@
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="J381" s="2"/>
-      <c r="K381" s="20"/>
+      <c r="K381" s="21"/>
       <c r="L381" s="2"/>
       <c r="M381" s="2"/>
       <c r="N381" s="2"/>
@@ -13692,7 +13729,7 @@
       <c r="Y381" s="2"/>
     </row>
     <row r="382" spans="1:25">
-      <c r="A382" s="10"/>
+      <c r="A382" s="11"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -13701,7 +13738,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="J382" s="2"/>
-      <c r="K382" s="20"/>
+      <c r="K382" s="21"/>
       <c r="L382" s="2"/>
       <c r="M382" s="2"/>
       <c r="N382" s="2"/>
@@ -13714,7 +13751,7 @@
       <c r="Y382" s="2"/>
     </row>
     <row r="383" spans="1:25">
-      <c r="A383" s="10"/>
+      <c r="A383" s="11"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -13723,7 +13760,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="J383" s="2"/>
-      <c r="K383" s="20"/>
+      <c r="K383" s="21"/>
       <c r="L383" s="2"/>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
@@ -13736,7 +13773,7 @@
       <c r="Y383" s="2"/>
     </row>
     <row r="384" spans="1:25">
-      <c r="A384" s="10"/>
+      <c r="A384" s="11"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -13745,7 +13782,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="J384" s="2"/>
-      <c r="K384" s="20"/>
+      <c r="K384" s="21"/>
       <c r="L384" s="2"/>
       <c r="M384" s="2"/>
       <c r="N384" s="2"/>
@@ -13758,7 +13795,7 @@
       <c r="Y384" s="2"/>
     </row>
     <row r="385" spans="1:25">
-      <c r="A385" s="10"/>
+      <c r="A385" s="11"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -13767,7 +13804,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="J385" s="2"/>
-      <c r="K385" s="20"/>
+      <c r="K385" s="21"/>
       <c r="L385" s="2"/>
       <c r="M385" s="2"/>
       <c r="N385" s="2"/>
@@ -13780,7 +13817,7 @@
       <c r="Y385" s="2"/>
     </row>
     <row r="386" spans="1:25">
-      <c r="A386" s="10"/>
+      <c r="A386" s="11"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -13789,7 +13826,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="J386" s="2"/>
-      <c r="K386" s="20"/>
+      <c r="K386" s="21"/>
       <c r="L386" s="2"/>
       <c r="M386" s="2"/>
       <c r="N386" s="2"/>
@@ -13802,7 +13839,7 @@
       <c r="Y386" s="2"/>
     </row>
     <row r="387" spans="1:25">
-      <c r="A387" s="10"/>
+      <c r="A387" s="11"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -13811,7 +13848,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="J387" s="2"/>
-      <c r="K387" s="20"/>
+      <c r="K387" s="21"/>
       <c r="L387" s="2"/>
       <c r="M387" s="2"/>
       <c r="N387" s="2"/>
@@ -13824,7 +13861,7 @@
       <c r="Y387" s="2"/>
     </row>
     <row r="388" spans="1:25">
-      <c r="A388" s="10"/>
+      <c r="A388" s="11"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -13833,7 +13870,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="J388" s="2"/>
-      <c r="K388" s="20"/>
+      <c r="K388" s="21"/>
       <c r="L388" s="2"/>
       <c r="M388" s="2"/>
       <c r="N388" s="2"/>
@@ -13846,7 +13883,7 @@
       <c r="Y388" s="2"/>
     </row>
     <row r="389" spans="1:25">
-      <c r="A389" s="10"/>
+      <c r="A389" s="11"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -13855,7 +13892,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="J389" s="2"/>
-      <c r="K389" s="20"/>
+      <c r="K389" s="21"/>
       <c r="L389" s="2"/>
       <c r="M389" s="2"/>
       <c r="N389" s="2"/>
@@ -13868,7 +13905,7 @@
       <c r="Y389" s="2"/>
     </row>
     <row r="390" spans="1:25">
-      <c r="A390" s="10"/>
+      <c r="A390" s="11"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -13877,7 +13914,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="J390" s="2"/>
-      <c r="K390" s="20"/>
+      <c r="K390" s="21"/>
       <c r="L390" s="2"/>
       <c r="M390" s="2"/>
       <c r="N390" s="2"/>
@@ -13890,7 +13927,7 @@
       <c r="Y390" s="2"/>
     </row>
     <row r="391" spans="1:25">
-      <c r="A391" s="10"/>
+      <c r="A391" s="11"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -13899,7 +13936,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="J391" s="2"/>
-      <c r="K391" s="20"/>
+      <c r="K391" s="21"/>
       <c r="L391" s="2"/>
       <c r="M391" s="2"/>
       <c r="N391" s="2"/>
@@ -13912,7 +13949,7 @@
       <c r="Y391" s="2"/>
     </row>
     <row r="392" spans="1:25">
-      <c r="A392" s="10"/>
+      <c r="A392" s="11"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -13921,7 +13958,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="J392" s="2"/>
-      <c r="K392" s="20"/>
+      <c r="K392" s="21"/>
       <c r="L392" s="2"/>
       <c r="M392" s="2"/>
       <c r="N392" s="2"/>
@@ -13934,7 +13971,7 @@
       <c r="Y392" s="2"/>
     </row>
     <row r="393" spans="1:25">
-      <c r="A393" s="10"/>
+      <c r="A393" s="11"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -13943,7 +13980,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="J393" s="2"/>
-      <c r="K393" s="20"/>
+      <c r="K393" s="21"/>
       <c r="L393" s="2"/>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
@@ -13956,7 +13993,7 @@
       <c r="Y393" s="2"/>
     </row>
     <row r="394" spans="1:25">
-      <c r="A394" s="10"/>
+      <c r="A394" s="11"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -13965,7 +14002,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="J394" s="2"/>
-      <c r="K394" s="20"/>
+      <c r="K394" s="21"/>
       <c r="L394" s="2"/>
       <c r="M394" s="2"/>
       <c r="N394" s="2"/>
@@ -13978,7 +14015,7 @@
       <c r="Y394" s="2"/>
     </row>
     <row r="395" spans="1:25">
-      <c r="A395" s="10"/>
+      <c r="A395" s="11"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -13987,7 +14024,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="J395" s="2"/>
-      <c r="K395" s="20"/>
+      <c r="K395" s="21"/>
       <c r="L395" s="2"/>
       <c r="M395" s="2"/>
       <c r="N395" s="2"/>
@@ -14000,7 +14037,7 @@
       <c r="Y395" s="2"/>
     </row>
     <row r="396" spans="1:25">
-      <c r="A396" s="10"/>
+      <c r="A396" s="11"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -14009,7 +14046,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="J396" s="2"/>
-      <c r="K396" s="20"/>
+      <c r="K396" s="21"/>
       <c r="L396" s="2"/>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -14022,7 +14059,7 @@
       <c r="Y396" s="2"/>
     </row>
     <row r="397" spans="1:25">
-      <c r="A397" s="10"/>
+      <c r="A397" s="11"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -14031,7 +14068,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="J397" s="2"/>
-      <c r="K397" s="20"/>
+      <c r="K397" s="21"/>
       <c r="L397" s="2"/>
       <c r="M397" s="2"/>
       <c r="N397" s="2"/>
@@ -14044,7 +14081,7 @@
       <c r="Y397" s="2"/>
     </row>
     <row r="398" spans="1:25">
-      <c r="A398" s="10"/>
+      <c r="A398" s="11"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -14053,7 +14090,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="J398" s="2"/>
-      <c r="K398" s="20"/>
+      <c r="K398" s="21"/>
       <c r="L398" s="2"/>
       <c r="M398" s="2"/>
       <c r="N398" s="2"/>
@@ -14066,7 +14103,7 @@
       <c r="Y398" s="2"/>
     </row>
     <row r="399" spans="1:25">
-      <c r="A399" s="10"/>
+      <c r="A399" s="11"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -14075,7 +14112,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="J399" s="2"/>
-      <c r="K399" s="20"/>
+      <c r="K399" s="21"/>
       <c r="L399" s="2"/>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
@@ -14088,7 +14125,7 @@
       <c r="Y399" s="2"/>
     </row>
     <row r="400" spans="1:25">
-      <c r="A400" s="10"/>
+      <c r="A400" s="11"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -14097,7 +14134,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="J400" s="2"/>
-      <c r="K400" s="20"/>
+      <c r="K400" s="21"/>
       <c r="L400" s="2"/>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
@@ -14110,7 +14147,7 @@
       <c r="Y400" s="2"/>
     </row>
     <row r="401" spans="1:25">
-      <c r="A401" s="10"/>
+      <c r="A401" s="11"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -14119,7 +14156,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="J401" s="2"/>
-      <c r="K401" s="20"/>
+      <c r="K401" s="21"/>
       <c r="L401" s="2"/>
       <c r="M401" s="2"/>
       <c r="N401" s="2"/>
@@ -14132,7 +14169,7 @@
       <c r="Y401" s="2"/>
     </row>
     <row r="402" spans="1:25">
-      <c r="A402" s="10"/>
+      <c r="A402" s="11"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -14141,7 +14178,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="J402" s="2"/>
-      <c r="K402" s="20"/>
+      <c r="K402" s="21"/>
       <c r="L402" s="2"/>
       <c r="M402" s="2"/>
       <c r="N402" s="2"/>
@@ -14154,7 +14191,7 @@
       <c r="Y402" s="2"/>
     </row>
     <row r="403" spans="1:25">
-      <c r="A403" s="10"/>
+      <c r="A403" s="11"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -14163,7 +14200,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="J403" s="2"/>
-      <c r="K403" s="20"/>
+      <c r="K403" s="21"/>
       <c r="L403" s="2"/>
       <c r="M403" s="2"/>
       <c r="N403" s="2"/>
@@ -14176,7 +14213,7 @@
       <c r="Y403" s="2"/>
     </row>
     <row r="404" spans="1:25">
-      <c r="A404" s="10"/>
+      <c r="A404" s="11"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -14185,7 +14222,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="J404" s="2"/>
-      <c r="K404" s="20"/>
+      <c r="K404" s="21"/>
       <c r="L404" s="2"/>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
@@ -14198,7 +14235,7 @@
       <c r="Y404" s="2"/>
     </row>
     <row r="405" spans="1:25">
-      <c r="A405" s="10"/>
+      <c r="A405" s="11"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -14207,7 +14244,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="J405" s="2"/>
-      <c r="K405" s="20"/>
+      <c r="K405" s="21"/>
       <c r="L405" s="2"/>
       <c r="M405" s="2"/>
       <c r="N405" s="2"/>
@@ -14220,7 +14257,7 @@
       <c r="Y405" s="2"/>
     </row>
     <row r="406" spans="1:25">
-      <c r="A406" s="10"/>
+      <c r="A406" s="11"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -14229,7 +14266,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="J406" s="2"/>
-      <c r="K406" s="20"/>
+      <c r="K406" s="21"/>
       <c r="L406" s="2"/>
       <c r="M406" s="2"/>
       <c r="N406" s="2"/>
@@ -14242,7 +14279,7 @@
       <c r="Y406" s="2"/>
     </row>
     <row r="407" spans="1:25">
-      <c r="A407" s="10"/>
+      <c r="A407" s="11"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -14251,7 +14288,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="J407" s="2"/>
-      <c r="K407" s="20"/>
+      <c r="K407" s="21"/>
       <c r="L407" s="2"/>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -14264,7 +14301,7 @@
       <c r="Y407" s="2"/>
     </row>
     <row r="408" spans="1:25">
-      <c r="A408" s="10"/>
+      <c r="A408" s="11"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -14273,7 +14310,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="J408" s="2"/>
-      <c r="K408" s="20"/>
+      <c r="K408" s="21"/>
       <c r="L408" s="2"/>
       <c r="M408" s="2"/>
       <c r="N408" s="2"/>
@@ -14286,7 +14323,7 @@
       <c r="Y408" s="2"/>
     </row>
     <row r="409" spans="1:25">
-      <c r="A409" s="10"/>
+      <c r="A409" s="11"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -14295,7 +14332,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="J409" s="2"/>
-      <c r="K409" s="20"/>
+      <c r="K409" s="21"/>
       <c r="L409" s="2"/>
       <c r="M409" s="2"/>
       <c r="N409" s="2"/>
@@ -14308,7 +14345,7 @@
       <c r="Y409" s="2"/>
     </row>
     <row r="410" spans="1:25">
-      <c r="A410" s="10"/>
+      <c r="A410" s="11"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -14317,7 +14354,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="J410" s="2"/>
-      <c r="K410" s="20"/>
+      <c r="K410" s="21"/>
       <c r="L410" s="2"/>
       <c r="M410" s="2"/>
       <c r="N410" s="2"/>
@@ -14330,7 +14367,7 @@
       <c r="Y410" s="2"/>
     </row>
     <row r="411" spans="1:25">
-      <c r="A411" s="10"/>
+      <c r="A411" s="11"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -14339,7 +14376,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="J411" s="2"/>
-      <c r="K411" s="20"/>
+      <c r="K411" s="21"/>
       <c r="L411" s="2"/>
       <c r="M411" s="2"/>
       <c r="N411" s="2"/>
@@ -14352,7 +14389,7 @@
       <c r="Y411" s="2"/>
     </row>
     <row r="412" spans="1:25">
-      <c r="A412" s="10"/>
+      <c r="A412" s="11"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -14361,7 +14398,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="J412" s="2"/>
-      <c r="K412" s="20"/>
+      <c r="K412" s="21"/>
       <c r="L412" s="2"/>
       <c r="M412" s="2"/>
       <c r="N412" s="2"/>
@@ -14374,7 +14411,7 @@
       <c r="Y412" s="2"/>
     </row>
     <row r="413" spans="1:25">
-      <c r="A413" s="10"/>
+      <c r="A413" s="11"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -14383,7 +14420,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="J413" s="2"/>
-      <c r="K413" s="20"/>
+      <c r="K413" s="21"/>
       <c r="L413" s="2"/>
       <c r="M413" s="2"/>
       <c r="N413" s="2"/>
@@ -14396,7 +14433,7 @@
       <c r="Y413" s="2"/>
     </row>
     <row r="414" spans="1:25">
-      <c r="A414" s="10"/>
+      <c r="A414" s="11"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -14405,7 +14442,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="J414" s="2"/>
-      <c r="K414" s="20"/>
+      <c r="K414" s="21"/>
       <c r="L414" s="2"/>
       <c r="M414" s="2"/>
       <c r="N414" s="2"/>
@@ -14418,7 +14455,7 @@
       <c r="Y414" s="2"/>
     </row>
     <row r="415" spans="1:25">
-      <c r="A415" s="10"/>
+      <c r="A415" s="11"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -14427,7 +14464,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="J415" s="2"/>
-      <c r="K415" s="20"/>
+      <c r="K415" s="21"/>
       <c r="L415" s="2"/>
       <c r="M415" s="2"/>
       <c r="N415" s="2"/>
@@ -14440,7 +14477,7 @@
       <c r="Y415" s="2"/>
     </row>
     <row r="416" spans="1:25">
-      <c r="A416" s="10"/>
+      <c r="A416" s="11"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -14449,7 +14486,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="J416" s="2"/>
-      <c r="K416" s="20"/>
+      <c r="K416" s="21"/>
       <c r="L416" s="2"/>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
@@ -14462,7 +14499,7 @@
       <c r="Y416" s="2"/>
     </row>
     <row r="417" spans="1:25">
-      <c r="A417" s="10"/>
+      <c r="A417" s="11"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -14471,7 +14508,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="J417" s="2"/>
-      <c r="K417" s="20"/>
+      <c r="K417" s="21"/>
       <c r="L417" s="2"/>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
@@ -14484,7 +14521,7 @@
       <c r="Y417" s="2"/>
     </row>
     <row r="418" spans="1:25">
-      <c r="A418" s="10"/>
+      <c r="A418" s="11"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -14493,7 +14530,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="J418" s="2"/>
-      <c r="K418" s="20"/>
+      <c r="K418" s="21"/>
       <c r="L418" s="2"/>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
@@ -14506,7 +14543,7 @@
       <c r="Y418" s="2"/>
     </row>
     <row r="419" spans="1:25">
-      <c r="A419" s="10"/>
+      <c r="A419" s="11"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -14515,7 +14552,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="J419" s="2"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="21"/>
       <c r="L419" s="2"/>
       <c r="M419" s="2"/>
       <c r="N419" s="2"/>
@@ -14528,7 +14565,7 @@
       <c r="Y419" s="2"/>
     </row>
     <row r="420" spans="1:25">
-      <c r="A420" s="10"/>
+      <c r="A420" s="11"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -14537,7 +14574,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="J420" s="2"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="21"/>
       <c r="L420" s="2"/>
       <c r="M420" s="2"/>
       <c r="N420" s="2"/>
@@ -14550,7 +14587,7 @@
       <c r="Y420" s="2"/>
     </row>
     <row r="421" spans="1:25">
-      <c r="A421" s="10"/>
+      <c r="A421" s="11"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -14559,7 +14596,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="J421" s="2"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="21"/>
       <c r="L421" s="2"/>
       <c r="M421" s="2"/>
       <c r="N421" s="2"/>
